--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="21.Cloud" sheetId="28" r:id="rId22"/>
     <sheet name="22.Concurrency" sheetId="24" r:id="rId23"/>
     <sheet name="23.Reactive Programing" sheetId="14" r:id="rId24"/>
+    <sheet name="24.GRPC" sheetId="31" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="783">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -11628,18 +11629,46 @@
   <si>
     <t>Functional Endpoints</t>
   </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Human friendly
+ - Browsers can support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - No type safety
+ - Text format (not machine friendly)
+ - Data size is relatively larger
+   + It takes more bandwidth in the network
+   + It alse takes more time to serialize and deserialize</t>
+  </si>
+  <si>
+    <t>Protocol Buffers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - aka Protobuf / Proto
+ - Developed By Google
+ - Platform/Language neutral machine for serializing/deserializing structured data!
+ - It is binary format!
+   + Might not be human friendly. But It is machine friendly
+   + Size is relatively smaller compared to JSON
+   + It takes less bandwidth in the network
+   + It takes less time ti serialize and deserialize
+ - VeryFast/ Optimized for inter-services communication</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11756,13 +11785,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -11776,17 +11798,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11794,35 +11807,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11838,6 +11822,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -11845,22 +11837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11876,6 +11853,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -11887,6 +11901,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11984,7 +12006,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11996,7 +12072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12008,25 +12096,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12038,73 +12132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12122,37 +12162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12245,17 +12267,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12277,9 +12305,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12298,165 +12346,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12464,8 +12486,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -12588,23 +12616,23 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
@@ -12613,25 +12641,25 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12661,7 +12689,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12679,7 +12707,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12701,13 +12729,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -12716,7 +12744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -13343,199 +13371,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="6"/>
-    <col min="2" max="2" width="39.5733333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="50" style="6" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="6"/>
+    <col min="1" max="1" width="9.14" style="8"/>
+    <col min="2" max="2" width="39.5733333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="8" customWidth="1"/>
+    <col min="6" max="6" width="50" style="8" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="6">
+      <c r="A1" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="94" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="95" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="78" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="94" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="93" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="78" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="78" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13565,10 +13593,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>494</v>
       </c>
     </row>
@@ -13576,7 +13604,7 @@
       <c r="A2" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>496</v>
       </c>
     </row>
@@ -13592,7 +13620,7 @@
       <c r="A4" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13632,7 +13660,7 @@
       <c r="A9" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>510</v>
       </c>
     </row>
@@ -13663,7 +13691,7 @@
       <c r="A14" t="s">
         <v>516</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>517</v>
       </c>
     </row>
@@ -13671,12 +13699,12 @@
       <c r="A15" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="37" t="s">
         <v>520</v>
       </c>
       <c r="B16" t="s">
@@ -13697,7 +13725,7 @@
       <c r="A19" t="s">
         <v>524</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>525</v>
       </c>
     </row>
@@ -13749,45 +13777,45 @@
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>544</v>
       </c>
@@ -13812,201 +13840,201 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="55.8533333333333" style="26" customWidth="1"/>
-    <col min="2" max="2" width="54.14" style="27" customWidth="1"/>
-    <col min="3" max="3" width="101.713333333333" style="28" customWidth="1"/>
+    <col min="1" max="1" width="55.8533333333333" style="28" customWidth="1"/>
+    <col min="2" max="2" width="54.14" style="29" customWidth="1"/>
+    <col min="3" max="3" width="101.713333333333" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" ht="12.75" spans="1:2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" ht="12.75" spans="1:2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" ht="12.75" spans="1:2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" ht="12.75" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" ht="12.75" spans="1:2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="8" ht="12.75" spans="1:2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" ht="12.75" spans="1:2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" ht="12.75" spans="1:2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" ht="12.75" spans="1:2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" ht="12.75" spans="1:2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" ht="12.75" spans="1:2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" ht="12.75" spans="1:2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
     </row>
     <row r="22" ht="17.25" spans="1:2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
     </row>
     <row r="23" ht="17.25" spans="1:2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" ht="17.25" spans="1:2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
     </row>
     <row r="26" ht="17.25" spans="1:2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="29" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="29" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="29" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
     </row>
     <row r="30" ht="12.75" spans="1:3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="30" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="1:3">
-      <c r="A31" s="29"/>
-      <c r="C31" s="28" t="s">
+      <c r="A31" s="31"/>
+      <c r="C31" s="30" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="1:3">
-      <c r="A32" s="29"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="31"/>
+      <c r="C32" s="30" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:3">
-      <c r="A33" s="29"/>
-      <c r="C33" s="28" t="s">
+      <c r="A33" s="31"/>
+      <c r="C33" s="30" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="35" ht="114.75" spans="1:3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="99" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="36" ht="89.25" spans="1:3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="99" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="35" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="35" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="31" t="s">
         <v>565</v>
       </c>
     </row>
@@ -14037,291 +14065,291 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="7" customWidth="1"/>
-    <col min="2" max="2" width="109" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32" style="9" customWidth="1"/>
+    <col min="2" max="2" width="109" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="95" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="95" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="22"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="9" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="9" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="23"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="9" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="23"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="25"/>
+      <c r="B56" s="9" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27" t="s">
         <v>628</v>
       </c>
     </row>
@@ -14354,288 +14382,288 @@
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="16" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="16" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="16" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="16" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="16" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="16" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="16" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="16" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="16" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="16" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="16" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="16" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="16" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="17" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="16" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="16" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="16" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="16" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="17" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="16" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="16" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="16" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="16" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="4" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="4" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="4" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="4" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" ht="25.5" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="21" t="s">
         <v>681</v>
       </c>
     </row>
@@ -14671,23 +14699,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="95" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>685</v>
       </c>
     </row>
@@ -14787,157 +14815,157 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="4" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="4" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="4" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="17" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>715</v>
       </c>
       <c r="B24" t="s">
@@ -14945,77 +14973,77 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="4" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="4" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="4" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="4" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="4" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15057,640 +15085,640 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="117" style="6" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="117" style="8" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="95" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="95" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="95" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="95" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="79" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="81" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="82" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="83" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="42" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="50"/>
-      <c r="B56" s="25" t="s">
+      <c r="A56" s="52"/>
+      <c r="B56" s="27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="50"/>
-      <c r="B57" s="25" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="50"/>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="52"/>
+      <c r="B58" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="50"/>
-      <c r="B59" s="82" t="s">
+      <c r="A59" s="52"/>
+      <c r="B59" s="84" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="50"/>
-      <c r="B60" s="83" t="s">
+      <c r="A60" s="52"/>
+      <c r="B60" s="85" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="84"/>
-      <c r="B66" s="67" t="s">
+      <c r="A66" s="86"/>
+      <c r="B66" s="69" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="85" t="s">
+      <c r="A67" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="88" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="87"/>
-      <c r="B68" s="46" t="s">
+      <c r="A68" s="89"/>
+      <c r="B68" s="48" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="87"/>
-      <c r="B69" s="83" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="85" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="87"/>
-      <c r="B70" s="86" t="s">
+      <c r="A70" s="89"/>
+      <c r="B70" s="88" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="67" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="69" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="25" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="27" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="67" t="s">
+      <c r="A80" s="7"/>
+      <c r="B80" s="69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="89" t="s">
+      <c r="C83" s="91" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="87"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="89" t="s">
+      <c r="A84" s="89"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="91" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="87"/>
-      <c r="B85" s="88" t="s">
+      <c r="A85" s="89"/>
+      <c r="B85" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="89" t="s">
+      <c r="C85" s="91" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="87"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="89" t="s">
+      <c r="A86" s="89"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="91" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="87"/>
-      <c r="B87" s="88" t="s">
+      <c r="A87" s="89"/>
+      <c r="B87" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="89" t="s">
+      <c r="C87" s="91" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88" t="s">
+      <c r="A88" s="89"/>
+      <c r="B88" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="89" t="s">
+      <c r="C88" s="91" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="87"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="89" t="s">
+      <c r="A89" s="89"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="91" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="87"/>
-      <c r="B90" s="88" t="s">
+      <c r="A90" s="89"/>
+      <c r="B90" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="89"/>
+      <c r="C90" s="91"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="87"/>
-      <c r="B91" s="88" t="s">
+      <c r="A91" s="89"/>
+      <c r="B91" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="89" t="s">
+      <c r="C91" s="91" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="87"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="89" t="s">
+      <c r="A92" s="89"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="91" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="87"/>
-      <c r="B93" s="88" t="s">
+      <c r="A93" s="89"/>
+      <c r="B93" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="89" t="s">
+      <c r="C93" s="91" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -15744,32 +15772,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="6"/>
+    <col min="1" max="1" width="23.2866666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>734</v>
       </c>
     </row>
@@ -15814,7 +15842,7 @@
       <c r="A2" t="s">
         <v>735</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>736</v>
       </c>
     </row>
@@ -15822,7 +15850,7 @@
       <c r="A3" t="s">
         <v>737</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>738</v>
       </c>
     </row>
@@ -15830,7 +15858,7 @@
       <c r="A4" t="s">
         <v>739</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>740</v>
       </c>
     </row>
@@ -15838,7 +15866,7 @@
       <c r="A5" t="s">
         <v>741</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>742</v>
       </c>
     </row>
@@ -15846,7 +15874,7 @@
       <c r="A6" t="s">
         <v>743</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>744</v>
       </c>
     </row>
@@ -15854,7 +15882,7 @@
       <c r="A7" t="s">
         <v>745</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>746</v>
       </c>
     </row>
@@ -15862,12 +15890,12 @@
       <c r="A8" t="s">
         <v>747</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>749</v>
       </c>
       <c r="B9" t="s">
@@ -15875,31 +15903,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>755</v>
       </c>
@@ -15918,7 +15946,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -15933,7 +15961,7 @@
       <c r="A1" t="s">
         <v>756</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>757</v>
       </c>
     </row>
@@ -15951,7 +15979,7 @@
       <c r="A4" t="s">
         <v>760</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>761</v>
       </c>
     </row>
@@ -15959,7 +15987,7 @@
       <c r="A6" t="s">
         <v>762</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>763</v>
       </c>
     </row>
@@ -15972,7 +16000,7 @@
       <c r="A10" t="s">
         <v>765</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>766</v>
       </c>
     </row>
@@ -16002,32 +16030,32 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>777</v>
       </c>
@@ -16045,6 +16073,52 @@
     <hyperlink ref="C1" r:id="rId1" display="https://projectreactor.io/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="49.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" ht="63.75" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3" ht="127.5" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -16066,228 +16140,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="42" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="39" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="39" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="42" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="39" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="42" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="76" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16311,772 +16385,772 @@
   <sheetPr/>
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.2866666666667" style="27" customWidth="1"/>
-    <col min="2" max="2" width="107.853333333333" style="51" customWidth="1"/>
-    <col min="3" max="3" width="76.8533333333333" style="52" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="35.2866666666667" style="29" customWidth="1"/>
+    <col min="2" max="2" width="107.853333333333" style="53" customWidth="1"/>
+    <col min="3" max="3" width="76.8533333333333" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="97" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="57" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="60" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="60" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="57" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="62" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="55"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="57" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="57" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="57" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="57" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="57" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="57" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="57" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="57" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="57" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="53" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="53" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="57" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="53" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="16" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="16" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="57" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="57" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="57" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="57" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="57" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="57" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="57" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="57" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="57" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="57" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="57" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="57" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="27" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="27" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="27" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="64" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="62"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="64"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="29" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="57" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="57" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="29" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="57" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="27" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="57" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="27" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="27" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="53"/>
+      <c r="B63" s="55"/>
     </row>
     <row r="64" ht="153" spans="1:3">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="65" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="64"/>
+      <c r="C65" s="66"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C66" s="64"/>
+      <c r="C66" s="66"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="64"/>
+      <c r="C67" s="66"/>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="67" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="68" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="68" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="68" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="65"/>
+      <c r="B72" s="67"/>
     </row>
     <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="67" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="54"/>
-      <c r="B74" s="65" t="s">
+      <c r="A74" s="56"/>
+      <c r="B74" s="67" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="65" t="s">
+      <c r="A75" s="56"/>
+      <c r="B75" s="67" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="57" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="57" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="57" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
-      <c r="A82" s="54"/>
-      <c r="B82" s="67" t="s">
+      <c r="A82" s="56"/>
+      <c r="B82" s="69" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
-      <c r="A83" s="54"/>
-      <c r="B83" s="25" t="s">
+      <c r="A83" s="56"/>
+      <c r="B83" s="27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
-      <c r="A84" s="54"/>
-      <c r="B84" s="25" t="s">
+      <c r="A84" s="56"/>
+      <c r="B84" s="27" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="57" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="27" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="57" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="27" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="27" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="70" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="57" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="57" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="57" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="B95" s="53"/>
+      <c r="B95" s="55"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="B96" s="69" t="s">
+      <c r="B96" s="71" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="57" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="67" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="57" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="57" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="27" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="27" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="27" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
-      <c r="B104" s="25" t="s">
+      <c r="B104" s="27" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="70" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="57" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="57" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="27" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="54"/>
-      <c r="B110" s="25" t="s">
+      <c r="A110" s="56"/>
+      <c r="B110" s="27" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="56" t="s">
         <v>365</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
-      <c r="A112" s="54"/>
-      <c r="B112" s="55" t="s">
+      <c r="A112" s="56"/>
+      <c r="B112" s="57" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
-      <c r="A113" s="54"/>
-      <c r="B113" s="55" t="s">
+      <c r="A113" s="56"/>
+      <c r="B113" s="57" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A114" s="54"/>
-      <c r="B114" s="55" t="s">
+      <c r="A114" s="56"/>
+      <c r="B114" s="57" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
-      <c r="A115" s="54"/>
-      <c r="B115" s="55" t="s">
+      <c r="A115" s="56"/>
+      <c r="B115" s="57" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
-      <c r="A116" s="54"/>
-      <c r="B116" s="55" t="s">
+      <c r="A116" s="56"/>
+      <c r="B116" s="57" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
-      <c r="A117" s="54"/>
-      <c r="B117" s="55" t="s">
+      <c r="A117" s="56"/>
+      <c r="B117" s="57" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
-      <c r="A118" s="54"/>
-      <c r="B118" s="51" t="s">
+      <c r="A118" s="56"/>
+      <c r="B118" s="53" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
-      <c r="A119" s="54"/>
-      <c r="B119" s="55" t="s">
+      <c r="A119" s="56"/>
+      <c r="B119" s="57" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
-      <c r="A120" s="54"/>
-      <c r="B120" s="51" t="s">
+      <c r="A120" s="56"/>
+      <c r="B120" s="53" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
-      <c r="A121" s="54"/>
-      <c r="B121" s="51" t="s">
+      <c r="A121" s="56"/>
+      <c r="B121" s="53" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="54"/>
-      <c r="B122" s="51" t="s">
+      <c r="A122" s="56"/>
+      <c r="B122" s="53" t="s">
         <v>377</v>
       </c>
     </row>
@@ -17135,306 +17209,306 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="50" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="51" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="16" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="24" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="24" t="s">
+      <c r="A45" s="52"/>
+      <c r="B45" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>443</v>
       </c>
     </row>
@@ -17477,225 +17551,225 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="16" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="16" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="16" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="16" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="6" ht="114.75" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="4" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="31"/>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="31"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="31"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="31"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="31"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="29"/>
+      <c r="A30" s="31"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="29"/>
+      <c r="A32" s="31"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="29"/>
+      <c r="A33" s="31"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="29"/>
+      <c r="A34" s="31"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="29"/>
+      <c r="A35" s="31"/>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="17" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="29"/>
+      <c r="A39" s="31"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="29"/>
+      <c r="A40" s="31"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="29"/>
+      <c r="A41" s="31"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="29"/>
+      <c r="A42" s="31"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="29"/>
+      <c r="A43" s="31"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="29"/>
+      <c r="A44" s="31"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="29"/>
+      <c r="A45" s="31"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="29"/>
+      <c r="A46" s="31"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="29"/>
+      <c r="A47" s="31"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="29"/>
+      <c r="A48" s="31"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="29"/>
+      <c r="A49" s="31"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="29"/>
+      <c r="A50" s="31"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="29"/>
+      <c r="A51" s="31"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="29"/>
+      <c r="A52" s="31"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="29"/>
+      <c r="A53" s="31"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="29"/>
+      <c r="A54" s="31"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="29"/>
+      <c r="A55" s="31"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="29"/>
+      <c r="A56" s="31"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="29"/>
+      <c r="A57" s="31"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="29"/>
+      <c r="A58" s="31"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="29"/>
+      <c r="A59" s="31"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="29"/>
+      <c r="A60" s="31"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="29"/>
+      <c r="A61" s="31"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="29"/>
+      <c r="A62" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17740,57 +17814,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -17858,7 +17932,7 @@
       <c r="A2" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>471</v>
       </c>
     </row>
@@ -17866,7 +17940,7 @@
       <c r="A3" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>473</v>
       </c>
     </row>
@@ -17914,33 +17988,33 @@
       <c r="A10" t="s">
         <v>484</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="36"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>492</v>
       </c>
     </row>

--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="790">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -11657,6 +11657,107 @@
    + It takes less time ti serialize and deserialize
  - VeryFast/ Optimized for inter-services communication</t>
   </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Same record in Java
+ - Immutable
+ - </t>
+  </si>
+  <si>
+    <t>gRPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - gRPC: Client app directly invokes Server method on a different process/ machine
+ - How to client directly invokes: proto file
+ - Service is defined using proto
+ - gRPC Communocation Patterns:
+   + Unary: The traditional request and response model. Client, server send request and receive response.
+   + Server-streaming: CLient send request to the server, server  will give us the streaming response -&gt; not just one response (multiple response)
+   + Client-streaming: Client send multiple request (not make multiple Http request). Simply client call only once request, in that call client send multiple message. Server give us one response 
+   + Bidirectional-streaming: Client call server, server pickup that call and client and server can interact
+ - gRPC is a lightweight framework hight performance client:
+   + Use protocol buffers faster than Json
+   + Use Http2 transport to send the message</t>
+  </si>
+  <si>
+    <t>HTTP1.1 vs HTTP2</t>
+  </si>
+  <si>
+    <t>gRPC - Unary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Client send request to Server -&gt; Connection is established -&gt; Server send response back to the Client
+ - How Client and Server interact: Proto file generate Client </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(fake service)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and for Server </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(real service) file
+ - Synchronous vs Asynchronous:
+   + </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -11665,8 +11766,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -11798,15 +11899,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11822,7 +11931,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11830,30 +11954,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11874,15 +11975,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -11897,16 +11991,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12006,7 +12107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12018,7 +12131,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12030,85 +12257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12120,61 +12269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12264,15 +12365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -12289,6 +12381,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -12299,17 +12415,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12332,131 +12437,127 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12465,20 +12566,20 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12486,7 +12587,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12494,15 +12595,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13371,199 +13475,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="8"/>
-    <col min="2" max="2" width="39.5733333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="8" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="8" customWidth="1"/>
-    <col min="6" max="6" width="50" style="8" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="8"/>
+    <col min="1" max="1" width="9.14" style="9"/>
+    <col min="2" max="2" width="39.5733333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="9" customWidth="1"/>
+    <col min="6" max="6" width="50" style="9" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="8">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="96" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="95" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="79" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="79" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13593,10 +13697,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>494</v>
       </c>
     </row>
@@ -13604,7 +13708,7 @@
       <c r="A2" t="s">
         <v>495</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -13620,7 +13724,7 @@
       <c r="A4" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13660,7 +13764,7 @@
       <c r="A9" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -13691,7 +13795,7 @@
       <c r="A14" t="s">
         <v>516</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -13699,12 +13803,12 @@
       <c r="A15" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>520</v>
       </c>
       <c r="B16" t="s">
@@ -13725,7 +13829,7 @@
       <c r="A19" t="s">
         <v>524</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>525</v>
       </c>
     </row>
@@ -13777,45 +13881,45 @@
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>544</v>
       </c>
@@ -13840,201 +13944,201 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="55.8533333333333" style="28" customWidth="1"/>
-    <col min="2" max="2" width="54.14" style="29" customWidth="1"/>
-    <col min="3" max="3" width="101.713333333333" style="30" customWidth="1"/>
+    <col min="1" max="1" width="55.8533333333333" style="29" customWidth="1"/>
+    <col min="2" max="2" width="54.14" style="30" customWidth="1"/>
+    <col min="3" max="3" width="101.713333333333" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" ht="12.75" spans="1:2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
     </row>
     <row r="4" ht="12.75" spans="1:2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" ht="12.75" spans="1:2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
     </row>
     <row r="6" ht="12.75" spans="1:2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" ht="12.75" spans="1:2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" ht="12.75" spans="1:2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" ht="12.75" spans="1:2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" ht="12.75" spans="1:2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" ht="12.75" spans="1:2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" ht="12.75" spans="1:2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
     </row>
     <row r="13" ht="12.75" spans="1:2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" ht="12.75" spans="1:2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
     </row>
     <row r="22" ht="17.25" spans="1:2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" ht="17.25" spans="1:2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
     </row>
     <row r="24" ht="17.25" spans="1:2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
     </row>
     <row r="26" ht="17.25" spans="1:2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="30" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="30" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
     </row>
     <row r="30" ht="12.75" spans="1:3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="1:3">
-      <c r="A31" s="31"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="32"/>
+      <c r="C31" s="31" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="1:3">
-      <c r="A32" s="31"/>
-      <c r="C32" s="30" t="s">
+      <c r="A32" s="32"/>
+      <c r="C32" s="31" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:3">
-      <c r="A33" s="31"/>
-      <c r="C33" s="30" t="s">
+      <c r="A33" s="32"/>
+      <c r="C33" s="31" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="35" ht="114.75" spans="1:3">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="100" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="36" ht="89.25" spans="1:3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="29" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="100" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="29" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="36" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="29" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>565</v>
       </c>
     </row>
@@ -14065,291 +14169,291 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="9" customWidth="1"/>
-    <col min="2" max="2" width="109" style="9" customWidth="1"/>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="109" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="10" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="28" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="26"/>
-      <c r="B64" s="27" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28" t="s">
         <v>628</v>
       </c>
     </row>
@@ -14382,288 +14486,288 @@
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="17" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="17" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="17" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="17" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="17" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="17" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="17" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="17" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="17" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="17" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="17" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="17" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="17" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="18" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="17" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="17" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="17" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="18" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="17" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="17" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="17" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="17" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>668</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" ht="25.5" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="22" t="s">
         <v>681</v>
       </c>
     </row>
@@ -14699,23 +14803,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>685</v>
       </c>
     </row>
@@ -14815,157 +14919,157 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="2" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>715</v>
       </c>
       <c r="B24" t="s">
@@ -14973,77 +15077,77 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="2" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="2" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="2" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="2" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="2" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15085,640 +15189,640 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="117" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="117" style="9" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="96" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="96" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="96" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="80" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="83" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="84" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="27" t="s">
+      <c r="A57" s="53"/>
+      <c r="B57" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="53"/>
+      <c r="B58" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="84" t="s">
+      <c r="A59" s="53"/>
+      <c r="B59" s="85" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="85" t="s">
+      <c r="A60" s="53"/>
+      <c r="B60" s="86" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="86"/>
-      <c r="B66" s="69" t="s">
+      <c r="A66" s="87"/>
+      <c r="B66" s="70" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="89" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="89"/>
-      <c r="B68" s="48" t="s">
+      <c r="A68" s="90"/>
+      <c r="B68" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="89"/>
-      <c r="B69" s="85" t="s">
+      <c r="A69" s="90"/>
+      <c r="B69" s="86" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="89"/>
-      <c r="B70" s="88" t="s">
+      <c r="A70" s="90"/>
+      <c r="B70" s="89" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="69" t="s">
+      <c r="A72" s="1"/>
+      <c r="B72" s="70" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="1"/>
+      <c r="B73" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="1"/>
+      <c r="B76" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="1"/>
+      <c r="B77" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="1"/>
+      <c r="B78" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="27" t="s">
+      <c r="A79" s="1"/>
+      <c r="B79" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="69" t="s">
+      <c r="A80" s="1"/>
+      <c r="B80" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="92" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="89"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="91" t="s">
+      <c r="A84" s="90"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="92" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="89"/>
-      <c r="B85" s="90" t="s">
+      <c r="A85" s="90"/>
+      <c r="B85" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="91" t="s">
+      <c r="C85" s="92" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="89"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="91" t="s">
+      <c r="A86" s="90"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="92" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="89"/>
-      <c r="B87" s="90" t="s">
+      <c r="A87" s="90"/>
+      <c r="B87" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="89"/>
-      <c r="B88" s="90" t="s">
+      <c r="A88" s="90"/>
+      <c r="B88" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="92" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="91" t="s">
+      <c r="A89" s="90"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="92" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="89"/>
-      <c r="B90" s="90" t="s">
+      <c r="A90" s="90"/>
+      <c r="B90" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="91"/>
+      <c r="C90" s="92"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="89"/>
-      <c r="B91" s="90" t="s">
+      <c r="A91" s="90"/>
+      <c r="B91" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="92" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="89"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="91" t="s">
+      <c r="A92" s="90"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="92" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="89"/>
-      <c r="B93" s="90" t="s">
+      <c r="A93" s="90"/>
+      <c r="B93" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="91" t="s">
+      <c r="C93" s="92" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -15772,32 +15876,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="8"/>
+    <col min="1" max="1" width="23.2866666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>734</v>
       </c>
     </row>
@@ -15842,7 +15946,7 @@
       <c r="A2" t="s">
         <v>735</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>736</v>
       </c>
     </row>
@@ -15850,7 +15954,7 @@
       <c r="A3" t="s">
         <v>737</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>738</v>
       </c>
     </row>
@@ -15858,7 +15962,7 @@
       <c r="A4" t="s">
         <v>739</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>740</v>
       </c>
     </row>
@@ -15866,7 +15970,7 @@
       <c r="A5" t="s">
         <v>741</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>742</v>
       </c>
     </row>
@@ -15874,7 +15978,7 @@
       <c r="A6" t="s">
         <v>743</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>744</v>
       </c>
     </row>
@@ -15882,7 +15986,7 @@
       <c r="A7" t="s">
         <v>745</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>746</v>
       </c>
     </row>
@@ -15890,12 +15994,12 @@
       <c r="A8" t="s">
         <v>747</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>749</v>
       </c>
       <c r="B9" t="s">
@@ -15903,31 +16007,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>755</v>
       </c>
@@ -15961,7 +16065,7 @@
       <c r="A1" t="s">
         <v>756</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>757</v>
       </c>
     </row>
@@ -15979,7 +16083,7 @@
       <c r="A4" t="s">
         <v>760</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>761</v>
       </c>
     </row>
@@ -15987,7 +16091,7 @@
       <c r="A6" t="s">
         <v>762</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>763</v>
       </c>
     </row>
@@ -16000,7 +16104,7 @@
       <c r="A10" t="s">
         <v>765</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>766</v>
       </c>
     </row>
@@ -16030,32 +16134,32 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="8"/>
       <c r="B30" t="s">
         <v>777</v>
       </c>
@@ -16080,16 +16184,16 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="49.2" customWidth="1"/>
+    <col min="2" max="2" width="97.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
@@ -16112,6 +16216,35 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>782</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" ht="165.75" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" ht="51" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -16140,228 +16273,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="43" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="43" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="40" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="43" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="43" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="77" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="38"/>
+      <c r="C32" s="39"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="77" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="38"/>
+      <c r="C33" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16391,766 +16524,766 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.2866666666667" style="29" customWidth="1"/>
-    <col min="2" max="2" width="107.853333333333" style="53" customWidth="1"/>
-    <col min="3" max="3" width="76.8533333333333" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="35.2866666666667" style="30" customWidth="1"/>
+    <col min="2" max="2" width="107.853333333333" style="54" customWidth="1"/>
+    <col min="3" max="3" width="76.8533333333333" style="55" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="59" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="61" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="56"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="58" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="58" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="58" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="58" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="58" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="58" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="58" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="54" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="54" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="58" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="54" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="16" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="17" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="17" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63" t="s">
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="58" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="58" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="58" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="58" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="58" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="58" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="58" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="58" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="58" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="28" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="28" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="28" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="65" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="64"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="65"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="30" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="58" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="58" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="28" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="58" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="28" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="28" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="55"/>
+      <c r="B63" s="56"/>
     </row>
     <row r="64" ht="153" spans="1:3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="66" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="66"/>
+      <c r="C65" s="67"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="C66" s="66"/>
+      <c r="C66" s="67"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="66"/>
+      <c r="C67" s="67"/>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="B68" s="67" t="s">
+      <c r="B68" s="68" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="69" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="68" t="s">
+      <c r="B70" s="69" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="69" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="67"/>
+      <c r="B72" s="68"/>
     </row>
     <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="68" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="56"/>
-      <c r="B74" s="67" t="s">
+      <c r="A74" s="57"/>
+      <c r="B74" s="68" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="56"/>
-      <c r="B75" s="67" t="s">
+      <c r="A75" s="57"/>
+      <c r="B75" s="68" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="58" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="58" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="58" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="30" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
-      <c r="A82" s="56"/>
-      <c r="B82" s="69" t="s">
+      <c r="A82" s="57"/>
+      <c r="B82" s="70" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
-      <c r="A83" s="56"/>
-      <c r="B83" s="27" t="s">
+      <c r="A83" s="57"/>
+      <c r="B83" s="28" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
-      <c r="A84" s="56"/>
-      <c r="B84" s="27" t="s">
+      <c r="A84" s="57"/>
+      <c r="B84" s="28" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="58" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="28" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="58" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="28" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="28" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="70" t="s">
+      <c r="B90" s="71" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="58" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="58" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="58" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B95" s="55"/>
+      <c r="B95" s="56"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
-      <c r="A96" s="56" t="s">
+      <c r="A96" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="72" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B97" s="57" t="s">
+      <c r="B97" s="58" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="68" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="58" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B100" s="57" t="s">
+      <c r="B100" s="58" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="28" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="28" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="28" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="28" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="70" t="s">
+      <c r="B105" s="71" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="58" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="58" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="28" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
-      <c r="A109" s="56" t="s">
+      <c r="A109" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="28" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="56"/>
-      <c r="B110" s="27" t="s">
+      <c r="A110" s="57"/>
+      <c r="B110" s="28" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="56" t="s">
+      <c r="A111" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="B111" s="57" t="s">
+      <c r="B111" s="58" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
-      <c r="A112" s="56"/>
-      <c r="B112" s="57" t="s">
+      <c r="A112" s="57"/>
+      <c r="B112" s="58" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
-      <c r="A113" s="56"/>
-      <c r="B113" s="57" t="s">
+      <c r="A113" s="57"/>
+      <c r="B113" s="58" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A114" s="56"/>
-      <c r="B114" s="57" t="s">
+      <c r="A114" s="57"/>
+      <c r="B114" s="58" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
-      <c r="A115" s="56"/>
-      <c r="B115" s="57" t="s">
+      <c r="A115" s="57"/>
+      <c r="B115" s="58" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57" t="s">
+      <c r="A116" s="57"/>
+      <c r="B116" s="58" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57" t="s">
+      <c r="A117" s="57"/>
+      <c r="B117" s="58" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
-      <c r="A118" s="56"/>
-      <c r="B118" s="53" t="s">
+      <c r="A118" s="57"/>
+      <c r="B118" s="54" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
-      <c r="A119" s="56"/>
-      <c r="B119" s="57" t="s">
+      <c r="A119" s="57"/>
+      <c r="B119" s="58" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
-      <c r="A120" s="56"/>
-      <c r="B120" s="53" t="s">
+      <c r="A120" s="57"/>
+      <c r="B120" s="54" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
-      <c r="A121" s="56"/>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="57"/>
+      <c r="B121" s="54" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="56"/>
-      <c r="B122" s="53" t="s">
+      <c r="A122" s="57"/>
+      <c r="B122" s="54" t="s">
         <v>377</v>
       </c>
     </row>
@@ -17209,306 +17342,306 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="99" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="45"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="6" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="52" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="6" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="53" t="s">
         <v>436</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="17" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="52"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="26" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>443</v>
       </c>
     </row>
@@ -17551,225 +17684,225 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="17" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="17" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="17" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="17" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="6" ht="114.75" spans="1:2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="32"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="18" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="32"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="31"/>
+      <c r="A55" s="32"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="31"/>
+      <c r="A56" s="32"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="32"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="32"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="32"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17814,57 +17947,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -17932,7 +18065,7 @@
       <c r="A2" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>471</v>
       </c>
     </row>
@@ -17940,7 +18073,7 @@
       <c r="A3" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -17988,33 +18121,33 @@
       <c r="A10" t="s">
         <v>484</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>492</v>
       </c>
     </row>

--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="799">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -11669,17 +11669,47 @@
     <t>gRPC</t>
   </si>
   <si>
-    <t xml:space="preserve"> - gRPC: Client app directly invokes Server method on a different process/ machine
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - gRPC: Client app directly invokes Server method on a different process/ machine
  - How to client directly invokes: proto file
  - Service is defined using proto
- - gRPC Communocation Patterns:
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gRPC Communication Patterns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
    + Unary: The traditional request and response model. Client, server send request and receive response.
    + Server-streaming: CLient send request to the server, server  will give us the streaming response -&gt; not just one response (multiple response)
    + Client-streaming: Client send multiple request (not make multiple Http request). Simply client call only once request, in that call client send multiple message. Server give us one response 
    + Bidirectional-streaming: Client call server, server pickup that call and client and server can interact
- - gRPC is a lightweight framework hight performance client:
+ - Why gRPC is a lightweight framework hight performance client:
    + Use protocol buffers faster than Json
    + Use Http2 transport to send the message</t>
+    </r>
   </si>
   <si>
     <t>HTTP1.1 vs HTTP2</t>
@@ -11689,8 +11719,16 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Client send request to Server -&gt; Connection is established -&gt; Server send response back to the Client
- - How Client and Server interact: Proto file generate Client </t>
+ - How Client and Server interact: 
+   + Proto file generate Client </t>
     </r>
     <r>
       <rPr>
@@ -11754,9 +11792,230 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(real service) file
+   + Client creating one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we establish the connection with the server, after that use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (fake service) invoke to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (real service). It's a Http request will be sent to the server and Executed and response
  - Synchronous vs Asynchronous:
    + </t>
     </r>
+  </si>
+  <si>
+    <t>gRPC - Server - streaming</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The Client send </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for which the server might send </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple responses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When something happens the server will give one response to the client 
+ - Key Characteristics: Real-time processing, Scalability, Security, convert (huge -&gt; chunks)
+ - Save CPU usage and battery usage in your mobile application -&gt; gRPC is a great choice for mobile application
+ - Note: Server might send
+   + 0 (onCompleted)
+   + 1 (onCompleted)
+   + N (onCompleted)
+   + Infinite
+   + onError
+ - Ordering: gRPC provides the gurantee that client will receive the messages in the order they were emitted.
+ - StreamObserver Thread Safety: 
+   + Client send request to the client, server know that and it will give the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">stream observer object </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(NOT thread safe)
+   + If stream observer object thread safe -&gt; performance cost involved
+   + Inclient (stream observer) didn't executed in parallel</t>
+    </r>
+  </si>
+  <si>
+    <t>Streaming vs Unay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Streaming:
+  + Size - Potentially large / unknown: Huge file, Send info in chunks
+  + Time consuming - periiodic update
+  + More efficient than multiple RPC calls - avoid polling
+ - Unary:
+  + More efficient than streaming than RPC
+  + Size is not too big &amp; not very time consiming</t>
+  </si>
+  <si>
+    <t>Client Streaming</t>
+  </si>
+  <si>
+    <t>Bidirectional - Streaming</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Both client and server will send a stream of messages.
+ - (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Independent stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) Client keeps sending messages to the server and server keeps responding
+ - </t>
+    </r>
+  </si>
+  <si>
+    <t>Metadata = Headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Ex: 
+   + Content-Type: application/json (for gRPC, application/grpc)
+   + Status: INVALID ARGUMENT, FAILED PRECONDITION, Trailer: "Custom Application Specific Status Code"
+ - Metadata is sent in the initial response
+ - Trailer:
+   + Are metadata sent by the server to the client at the end of an RPC
+   + They provide information about the status of the RPC
+   + It can include additional details such as custom metadata or error information</t>
   </si>
 </sst>
 </file>
@@ -11764,10 +12023,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -11899,21 +12158,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -11921,8 +12165,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -11938,6 +12197,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -11945,14 +12234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -11968,23 +12249,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11992,22 +12266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12107,7 +12366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12119,7 +12384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12131,7 +12402,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12143,37 +12492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12185,19 +12516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12209,73 +12528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12365,17 +12624,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12391,15 +12644,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12421,6 +12665,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -12436,150 +12706,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12587,7 +12846,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12595,13 +12854,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
@@ -12747,9 +13006,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13492,7 +13748,7 @@
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="94" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13503,7 +13759,7 @@
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13511,10 +13767,10 @@
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13525,7 +13781,7 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="95" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13547,7 +13803,7 @@
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="95" t="s">
         <v>11</v>
       </c>
     </row>
@@ -13558,7 +13814,7 @@
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="78" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13569,7 +13825,7 @@
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13580,7 +13836,7 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13594,7 +13850,7 @@
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13629,7 +13885,7 @@
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -13659,7 +13915,7 @@
       <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="78" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13667,7 +13923,7 @@
       <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="78" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14106,7 +14362,7 @@
       <c r="B35" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="99" t="s">
         <v>558</v>
       </c>
     </row>
@@ -14115,7 +14371,7 @@
       <c r="B36" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="99" t="s">
         <v>560</v>
       </c>
     </row>
@@ -14177,7 +14433,7 @@
       <c r="A1" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>567</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -14204,7 +14460,7 @@
       <c r="A4" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>574</v>
       </c>
     </row>
@@ -14811,7 +15067,7 @@
       <c r="A1" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>683</v>
       </c>
     </row>
@@ -15214,7 +15470,7 @@
       <c r="A3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="95" t="s">
         <v>45</v>
       </c>
     </row>
@@ -15222,7 +15478,7 @@
       <c r="A4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>47</v>
       </c>
     </row>
@@ -15230,7 +15486,7 @@
       <c r="A5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="95" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15238,7 +15494,7 @@
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="95" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15251,10 +15507,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="95" t="s">
         <v>54</v>
       </c>
     </row>
@@ -15270,36 +15526,36 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="81" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="40" t="s">
@@ -15307,7 +15563,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="43" t="s">
@@ -15315,7 +15571,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="79" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="40"/>
@@ -15572,13 +15828,13 @@
     </row>
     <row r="59" ht="76.5" spans="1:2">
       <c r="A59" s="53"/>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="84" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
       <c r="A60" s="53"/>
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="85" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15607,7 +15863,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="86" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -15615,7 +15871,7 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="87" t="s">
+      <c r="A65" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -15623,34 +15879,34 @@
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="87"/>
-      <c r="B66" s="70" t="s">
+      <c r="A66" s="86"/>
+      <c r="B66" s="69" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="88" t="s">
+      <c r="A67" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="88" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="90"/>
+      <c r="A68" s="89"/>
       <c r="B68" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="90"/>
-      <c r="B69" s="86" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="85" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="90"/>
-      <c r="B70" s="89" t="s">
+      <c r="A70" s="89"/>
+      <c r="B70" s="88" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15664,7 +15920,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1"/>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15716,7 +15972,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1"/>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -15731,93 +15987,93 @@
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="92" t="s">
+      <c r="C83" s="91" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="90"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="92" t="s">
+      <c r="A84" s="89"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="91" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="90"/>
-      <c r="B85" s="91" t="s">
+      <c r="A85" s="89"/>
+      <c r="B85" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="92" t="s">
+      <c r="C85" s="91" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="90"/>
-      <c r="B86" s="91"/>
-      <c r="C86" s="92" t="s">
+      <c r="A86" s="89"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="91" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="90"/>
-      <c r="B87" s="91" t="s">
+      <c r="A87" s="89"/>
+      <c r="B87" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="92" t="s">
+      <c r="C87" s="91" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="91" t="s">
+      <c r="A88" s="89"/>
+      <c r="B88" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="92" t="s">
+      <c r="C88" s="91" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="92" t="s">
+      <c r="A89" s="89"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="91" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="91" t="s">
+      <c r="A90" s="89"/>
+      <c r="B90" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="92"/>
+      <c r="C90" s="91"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="90"/>
-      <c r="B91" s="91" t="s">
+      <c r="A91" s="89"/>
+      <c r="B91" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="92" t="s">
+      <c r="C91" s="91" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="92" t="s">
+      <c r="A92" s="89"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="91" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="90"/>
-      <c r="B93" s="91" t="s">
+      <c r="A93" s="89"/>
+      <c r="B93" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="92" t="s">
+      <c r="C93" s="91" t="s">
         <v>167</v>
       </c>
     </row>
@@ -16184,15 +16440,15 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="97.6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16210,7 +16466,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="3" ht="127.5" spans="1:2">
+    <row r="3" ht="114.75" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>781</v>
       </c>
@@ -16227,24 +16483,61 @@
       </c>
     </row>
     <row r="5" ht="165.75" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="7" ht="51" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="89.25" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>789</v>
+      </c>
+    </row>
+    <row r="8" ht="191.25" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" ht="89.25" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12" ht="102" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -16297,7 +16590,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -16308,43 +16601,43 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="43" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="74"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="43" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="74"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="40" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="74"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="43" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="74"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="43" t="s">
         <v>184</v>
       </c>
@@ -16408,7 +16701,7 @@
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="75" t="s">
         <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -16478,7 +16771,7 @@
       <c r="B31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="76" t="s">
         <v>212</v>
       </c>
     </row>
@@ -16491,7 +16784,7 @@
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="1"/>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="77" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="39"/>
@@ -16548,7 +16841,7 @@
       <c r="A3" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>219</v>
       </c>
     </row>
@@ -16758,7 +17051,7 @@
     <row r="33" ht="153" spans="1:3">
       <c r="A33" s="62"/>
       <c r="B33" s="63"/>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -16859,7 +17152,7 @@
       <c r="B49" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="64" t="s">
         <v>290</v>
       </c>
     </row>
@@ -16868,7 +17161,7 @@
         <v>291</v>
       </c>
       <c r="B50" s="58"/>
-      <c r="C50" s="65"/>
+      <c r="C50" s="64"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="30" t="s">
@@ -16939,7 +17232,7 @@
       <c r="B64" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="65" t="s">
         <v>307</v>
       </c>
     </row>
@@ -16947,7 +17240,7 @@
       <c r="B65" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="67"/>
+      <c r="C65" s="66"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
       <c r="A66" s="57" t="s">
@@ -16956,7 +17249,7 @@
       <c r="B66" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="C66" s="67"/>
+      <c r="C66" s="66"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
       <c r="A67" s="30" t="s">
@@ -16965,51 +17258,51 @@
       <c r="B67" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="67"/>
+      <c r="C67" s="66"/>
     </row>
     <row r="68" ht="51" spans="1:2">
       <c r="A68" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="67" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="68" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="68" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="69" t="s">
+      <c r="B71" s="68" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="68"/>
+      <c r="B72" s="67"/>
     </row>
     <row r="73" ht="38.25" spans="1:2">
       <c r="A73" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="67" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
       <c r="A74" s="57"/>
-      <c r="B74" s="68" t="s">
+      <c r="B74" s="67" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
       <c r="A75" s="57"/>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="67" t="s">
         <v>321</v>
       </c>
     </row>
@@ -17046,7 +17339,7 @@
     </row>
     <row r="82" ht="12.75" spans="1:2">
       <c r="A82" s="57"/>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="69" t="s">
         <v>329</v>
       </c>
     </row>
@@ -17094,7 +17387,7 @@
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="70" t="s">
         <v>339</v>
       </c>
     </row>
@@ -17123,7 +17416,7 @@
       <c r="A96" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="B96" s="72" t="s">
+      <c r="B96" s="71" t="s">
         <v>345</v>
       </c>
     </row>
@@ -17136,7 +17429,7 @@
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="67" t="s">
         <v>348</v>
       </c>
     </row>
@@ -17174,7 +17467,7 @@
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="70" t="s">
         <v>356</v>
       </c>
     </row>
@@ -17380,7 +17673,7 @@
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="98" t="s">
         <v>386</v>
       </c>
       <c r="B5" s="10" t="s">

--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="19" activeTab="24"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="801">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -2516,6 +2516,23 @@
     <t xml:space="preserve">Final modifier </t>
   </si>
   <si>
+    <t>Java compiler (JIT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - JIT Compilation: When a Java program runs, the JVM uses the JIT compiler to convert bytecode into native machine code at runtime. The JIT compiler can perform various optimizations, including method inlining.
+ - Hotspot Detection: The JVM monitors which methods are frequently executed (so-called "hot" methods). Methods that are called frequently are candidates for inlining.
+ - Inlining Decision: The JIT compiler decides whether to inline a method based on several factors, such as:
+   + Method size: Smaller methods are more likely to be inlined.
+   + Call frequency: Frequently called methods are more likely to be inlined.
+   + Complexity: Simple methods are more likely to be inlined.
+   + Inlining budget: The JIT compiler has limits on how much code can be inlined to avoid excessive code bloat.
+ - JVM Options: Use JVM options to configure the JIT compiler's inlining behavior. For example:
+   + XX:+PrintInlining: Prints information about inlined methods.
+   + XX:MaxInlineSize=N: Sets the maximum bytecode size of a method to be inlined.
+   + XX:FreqInlineSize=N: Sets the bytecode size threshold for frequently called methods to be inlined.
+ - Annotations: You can use the @HotSpotIntrinsicCandidate annotation to suggest that a method is a candidate for intrinsic optimization (though this is mostly used within the JDK itself).</t>
+  </si>
+  <si>
     <t>Chia sẻ thêm về Filter của Spring MVC</t>
   </si>
   <si>
@@ -12024,8 +12041,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="39">
@@ -12158,8 +12175,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12167,6 +12185,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12180,17 +12212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12198,21 +12221,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12226,21 +12242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -12250,9 +12251,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12265,8 +12274,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12366,7 +12383,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12378,7 +12425,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12390,37 +12467,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12432,109 +12545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12624,11 +12641,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12648,21 +12713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -12673,172 +12723,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12846,7 +12863,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12855,12 +12872,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
@@ -13731,199 +13742,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="9"/>
-    <col min="2" max="2" width="39.5733333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="9" customWidth="1"/>
-    <col min="6" max="6" width="50" style="9" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="9"/>
+    <col min="1" max="1" width="9.14" style="7"/>
+    <col min="2" max="2" width="39.5733333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50" style="7" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="9">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="92" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="93" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="93" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="92" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="91" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="76" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="76" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13953,231 +13964,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>494</v>
+      <c r="A1" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38" t="s">
-        <v>520</v>
+      <c r="A16" s="36" t="s">
+        <v>522</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B23" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B24" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B25" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B26" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -14200,202 +14211,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="55.8533333333333" style="29" customWidth="1"/>
-    <col min="2" max="2" width="54.14" style="30" customWidth="1"/>
-    <col min="3" max="3" width="101.713333333333" style="31" customWidth="1"/>
+    <col min="1" max="1" width="55.8533333333333" style="27" customWidth="1"/>
+    <col min="2" max="2" width="54.14" style="28" customWidth="1"/>
+    <col min="3" max="3" width="101.713333333333" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>545</v>
+      <c r="A1" s="30" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" ht="12.75" spans="1:2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" ht="12.75" spans="1:2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" ht="12.75" spans="1:2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" ht="12.75" spans="1:2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" ht="12.75" spans="1:2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" ht="12.75" spans="1:2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" ht="12.75" spans="1:2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" ht="12.75" spans="1:2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
     </row>
     <row r="11" ht="12.75" spans="1:2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" ht="12.75" spans="1:2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" ht="12.75" spans="1:2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" ht="12.75" spans="1:2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" ht="17.25" spans="1:2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" ht="17.25" spans="1:2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" ht="17.25" spans="1:2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="33"/>
     </row>
     <row r="26" ht="17.25" spans="1:2">
-      <c r="A26" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>547</v>
+      <c r="A26" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="30" t="s">
-        <v>548</v>
+      <c r="A27" s="30"/>
+      <c r="B27" s="28" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="30" t="s">
-        <v>549</v>
+      <c r="A28" s="30"/>
+      <c r="B28" s="28" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="32"/>
+      <c r="A29" s="30"/>
     </row>
     <row r="30" ht="12.75" spans="1:3">
-      <c r="A30" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>552</v>
       </c>
+      <c r="B30" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="31" ht="12.75" spans="1:3">
-      <c r="A31" s="32"/>
-      <c r="C31" s="31" t="s">
-        <v>553</v>
+      <c r="A31" s="30"/>
+      <c r="C31" s="29" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="1:3">
-      <c r="A32" s="32"/>
-      <c r="C32" s="31" t="s">
-        <v>554</v>
+      <c r="A32" s="30"/>
+      <c r="C32" s="29" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:3">
-      <c r="A33" s="32"/>
-      <c r="C33" s="31" t="s">
-        <v>555</v>
+      <c r="A33" s="30"/>
+      <c r="C33" s="29" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="35" ht="114.75" spans="1:3">
-      <c r="A35" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="C35" s="99" t="s">
+      <c r="A35" s="30" t="s">
         <v>558</v>
       </c>
+      <c r="B35" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="36" ht="89.25" spans="1:3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="C36" s="99" t="s">
-        <v>560</v>
+      <c r="A36" s="30"/>
+      <c r="B36" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>562</v>
+      <c r="A37" s="30"/>
+      <c r="B37" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>564</v>
+      <c r="A38" s="30"/>
+      <c r="B38" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="32" t="s">
-        <v>565</v>
+      <c r="A40" s="30" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -14425,292 +14436,292 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="10" customWidth="1"/>
-    <col min="2" max="2" width="109" style="10" customWidth="1"/>
+    <col min="1" max="1" width="32" style="8" customWidth="1"/>
+    <col min="2" max="2" width="109" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>568</v>
       </c>
+      <c r="B1" s="93" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>570</v>
+      <c r="A2" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>572</v>
+      <c r="A3" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>574</v>
+      <c r="A4" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>576</v>
+      <c r="A5" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>577</v>
+      <c r="A6" s="8" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>579</v>
+      <c r="A7" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>581</v>
+      <c r="A8" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>583</v>
+      <c r="A12" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>585</v>
+      <c r="A13" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>587</v>
+      <c r="A14" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>589</v>
+      <c r="A15" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>591</v>
+      <c r="A16" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>593</v>
+      <c r="A17" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>595</v>
+      <c r="A18" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>597</v>
+      <c r="A19" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>598</v>
+      <c r="A20" s="8" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
-        <v>599</v>
+      <c r="A22" s="8" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="25"/>
+      <c r="B23" s="23"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
-        <v>600</v>
+      <c r="A25" s="8" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>601</v>
+      <c r="A28" s="8" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>603</v>
+      <c r="A31" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>605</v>
+      <c r="A33" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>607</v>
+      <c r="A34" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
-        <v>608</v>
+      <c r="A36" s="8" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
-        <v>609</v>
+      <c r="A38" s="8" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
-        <v>610</v>
+      <c r="A40" s="8" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
-        <v>611</v>
+      <c r="A42" s="8" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="10" t="s">
-        <v>612</v>
+      <c r="A44" s="8" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
-        <v>613</v>
+      <c r="A46" s="8" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
-        <v>614</v>
+      <c r="A48" s="8" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
-        <v>615</v>
+      <c r="A50" s="8" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="10" t="s">
-        <v>616</v>
+      <c r="A52" s="8" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>618</v>
+      <c r="A54" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="26"/>
-      <c r="B55" s="10" t="s">
-        <v>619</v>
+      <c r="A55" s="24"/>
+      <c r="B55" s="8" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="10" t="s">
-        <v>620</v>
+      <c r="A56" s="24"/>
+      <c r="B56" s="8" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
-      <c r="A58" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>622</v>
+      <c r="A58" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28" t="s">
-        <v>623</v>
+      <c r="A59" s="25"/>
+      <c r="B59" s="26" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28" t="s">
-        <v>624</v>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
-        <v>625</v>
+      <c r="A61" s="25"/>
+      <c r="B61" s="26" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28" t="s">
-        <v>626</v>
+      <c r="A62" s="25"/>
+      <c r="B62" s="26" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28" t="s">
-        <v>627</v>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28" t="s">
-        <v>628</v>
+      <c r="A64" s="25"/>
+      <c r="B64" s="26" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -14743,276 +14754,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
-        <v>631</v>
+      <c r="B2" s="15" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="1"/>
-      <c r="B5" s="17" t="s">
-        <v>635</v>
+      <c r="B5" s="15" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-      <c r="B6" s="17" t="s">
-        <v>636</v>
+      <c r="B6" s="15" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>638</v>
+        <v>639</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="1"/>
-      <c r="B8" s="17" t="s">
-        <v>639</v>
+      <c r="B8" s="15" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
-      <c r="B9" s="17" t="s">
-        <v>640</v>
+      <c r="B9" s="15" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
-      <c r="B10" s="17" t="s">
-        <v>641</v>
+      <c r="B10" s="15" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
-      <c r="B11" s="17" t="s">
-        <v>642</v>
+      <c r="B11" s="15" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="1"/>
-      <c r="B13" s="17" t="s">
-        <v>645</v>
+      <c r="B13" s="15" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
-        <v>646</v>
+      <c r="B14" s="15" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
-      <c r="B15" s="17" t="s">
-        <v>647</v>
+      <c r="B15" s="15" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
-      <c r="B16" s="17" t="s">
-        <v>648</v>
+      <c r="B16" s="15" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="17" t="s">
-        <v>649</v>
+      <c r="B17" s="15" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="17" t="s">
-        <v>650</v>
+      <c r="B18" s="15" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" s="17" t="s">
-        <v>651</v>
+      <c r="B19" s="15" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="18" t="s">
-        <v>652</v>
+      <c r="B20" s="16" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>654</v>
+      <c r="A21" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17" t="s">
-        <v>655</v>
+      <c r="A22" s="17"/>
+      <c r="B22" s="15" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17" t="s">
-        <v>656</v>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17" t="s">
-        <v>657</v>
+      <c r="A24" s="17"/>
+      <c r="B24" s="15" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17" t="s">
-        <v>658</v>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17" t="s">
-        <v>659</v>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17" t="s">
-        <v>660</v>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18" t="s">
-        <v>661</v>
+      <c r="A28" s="17"/>
+      <c r="B28" s="16" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
-      <c r="A29" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>663</v>
+      <c r="A29" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
-      <c r="B30" s="17" t="s">
-        <v>664</v>
+      <c r="B30" s="15" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>
-      <c r="B31" s="17" t="s">
-        <v>665</v>
+      <c r="B31" s="15" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
-      <c r="B32" s="17" t="s">
-        <v>666</v>
+      <c r="B32" s="15" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
-      <c r="B33" s="17" t="s">
-        <v>667</v>
+      <c r="B33" s="15" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="19" t="s">
-        <v>668</v>
+      <c r="A34" s="17" t="s">
+        <v>670</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -15021,10 +15032,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -15059,24 +15070,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="9" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>683</v>
+      <c r="A1" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>685</v>
+      <c r="A2" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -15134,22 +15145,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -15175,147 +15186,147 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>691</v>
+      <c r="A1" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1"/>
     </row>
     <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>693</v>
+      <c r="A3" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>695</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>695</v>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>697</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15" t="s">
-        <v>700</v>
+      <c r="A8" s="11"/>
+      <c r="B8" s="13" t="s">
+        <v>702</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16" t="s">
-        <v>707</v>
+      <c r="A14" s="11"/>
+      <c r="B14" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>709</v>
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
-        <v>710</v>
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
-        <v>711</v>
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="18" t="s">
-        <v>713</v>
+      <c r="A20" s="11"/>
+      <c r="B20" s="16" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -15325,83 +15336,83 @@
       <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
-        <v>715</v>
+      <c r="A24" s="11" t="s">
+        <v>717</v>
       </c>
       <c r="B24" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="19"/>
+      <c r="A30" s="17"/>
     </row>
     <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="13" t="s">
-        <v>722</v>
+      <c r="A31" s="11" t="s">
+        <v>724</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F31" s="20"/>
+        <v>725</v>
+      </c>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -15437,56 +15448,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="117" style="9" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="117" style="7" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="92" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="93" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15494,7 +15505,7 @@
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="93" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15507,10 +15518,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="93" t="s">
         <v>54</v>
       </c>
     </row>
@@ -15521,60 +15532,60 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="77" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="80" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="81" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="38"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1"/>
@@ -15589,7 +15600,7 @@
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15602,7 +15613,7 @@
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -15610,7 +15621,7 @@
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15626,25 +15637,25 @@
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -15655,7 +15666,7 @@
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -15663,7 +15674,7 @@
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -15676,7 +15687,7 @@
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -15684,7 +15695,7 @@
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15700,25 +15711,25 @@
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1"/>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -15726,13 +15737,13 @@
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" ht="51" spans="1:2">
       <c r="A45" s="1"/>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="26" t="s">
         <v>99</v>
       </c>
     </row>
@@ -15740,21 +15751,21 @@
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" ht="51" spans="1:2">
       <c r="A47" s="1"/>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -15762,7 +15773,7 @@
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15770,71 +15781,71 @@
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="28" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="53"/>
-      <c r="B57" s="28" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="53"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="53"/>
-      <c r="B59" s="84" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="82" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="53"/>
-      <c r="B60" s="85" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="83" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15842,7 +15853,7 @@
       <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15850,7 +15861,7 @@
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -15858,55 +15869,55 @@
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="86" t="s">
+      <c r="A65" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="86"/>
-      <c r="B66" s="69" t="s">
+      <c r="A66" s="84"/>
+      <c r="B66" s="67" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="86" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="89"/>
-      <c r="B68" s="49" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="47" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="89"/>
-      <c r="B69" s="85" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="83" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="89"/>
-      <c r="B70" s="88" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="86" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15914,19 +15925,19 @@
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1"/>
-      <c r="B72" s="69" t="s">
+      <c r="B72" s="67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" ht="51" spans="1:2">
       <c r="A73" s="1"/>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -15934,7 +15945,7 @@
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>142</v>
       </c>
     </row>
@@ -15942,37 +15953,37 @@
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" ht="63.75" spans="1:2">
       <c r="A76" s="1"/>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="63.75" spans="1:2">
       <c r="A77" s="1"/>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" ht="76.5" spans="1:2">
       <c r="A78" s="1"/>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" ht="63.75" spans="1:2">
       <c r="A79" s="1"/>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1"/>
-      <c r="B80" s="69" t="s">
+      <c r="B80" s="67" t="s">
         <v>149</v>
       </c>
     </row>
@@ -15987,99 +15998,107 @@
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="89" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="89"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="91" t="s">
+      <c r="A84" s="87"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="89" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="89"/>
-      <c r="B85" s="90" t="s">
+      <c r="A85" s="87"/>
+      <c r="B85" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="91" t="s">
+      <c r="C85" s="89" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="89"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="91" t="s">
+      <c r="A86" s="87"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="89" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="89"/>
-      <c r="B87" s="90" t="s">
+      <c r="A87" s="87"/>
+      <c r="B87" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="89" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="89"/>
-      <c r="B88" s="90" t="s">
+      <c r="A88" s="87"/>
+      <c r="B88" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="89" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="91" t="s">
+      <c r="A89" s="87"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="89" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="89"/>
-      <c r="B90" s="90" t="s">
+      <c r="A90" s="87"/>
+      <c r="B90" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="91"/>
+      <c r="C90" s="89"/>
     </row>
     <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="89"/>
-      <c r="B91" s="90" t="s">
+      <c r="A91" s="87"/>
+      <c r="B91" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="89" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="89"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="91" t="s">
+      <c r="A92" s="87"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="89" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="89"/>
-      <c r="B93" s="90" t="s">
+      <c r="A93" s="87"/>
+      <c r="B93" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="91" t="s">
+      <c r="C93" s="89" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="95" ht="191.25" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -16132,33 +16151,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="9"/>
+    <col min="1" max="1" width="23.2866666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>730</v>
+      <c r="A1" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>732</v>
+      <c r="A2" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>734</v>
+      <c r="A3" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -16200,96 +16219,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -16319,110 +16338,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>772</v>
+      <c r="A25" s="5" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>773</v>
+      <c r="A27" s="6" t="s">
+        <v>775</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -16442,7 +16461,7 @@
   <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -16454,90 +16473,90 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" ht="114.75" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" ht="165.75" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" ht="89.25" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" ht="191.25" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" ht="89.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" ht="38.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" ht="102" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>798</v>
+      <c r="A12" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -16566,88 +16585,88 @@
   </cols>
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>170</v>
+      <c r="A1" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>172</v>
+      <c r="A2" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>174</v>
+      <c r="A3" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="A4" s="70" t="s">
         <v>177</v>
       </c>
+      <c r="B4" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="43" t="s">
-        <v>178</v>
+      <c r="A5" s="71"/>
+      <c r="B5" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="40" t="s">
-        <v>179</v>
+      <c r="A6" s="71"/>
+      <c r="B6" s="38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="43" t="s">
-        <v>180</v>
+      <c r="A7" s="71"/>
+      <c r="B7" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="40" t="s">
-        <v>181</v>
+      <c r="A8" s="71"/>
+      <c r="B8" s="38" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="43" t="s">
-        <v>182</v>
+      <c r="A9" s="71"/>
+      <c r="B9" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="40" t="s">
-        <v>183</v>
+      <c r="A10" s="71"/>
+      <c r="B10" s="38" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74"/>
-      <c r="B11" s="43" t="s">
-        <v>184</v>
+      <c r="A11" s="72"/>
+      <c r="B11" s="41" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="27" t="s">
-        <v>185</v>
+      <c r="A13" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -16655,13 +16674,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -16678,7 +16697,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>133</v>
@@ -16686,108 +16705,108 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="75" t="s">
-        <v>194</v>
+      <c r="A23" s="73" t="s">
+        <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="39"/>
+        <v>215</v>
+      </c>
+      <c r="C32" s="37"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="1"/>
-      <c r="B33" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="39"/>
+      <c r="B33" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16817,767 +16836,767 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.2866666666667" style="30" customWidth="1"/>
-    <col min="2" max="2" width="107.853333333333" style="54" customWidth="1"/>
-    <col min="3" max="3" width="76.8533333333333" style="55" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="55"/>
+    <col min="1" max="1" width="35.2866666666667" style="28" customWidth="1"/>
+    <col min="2" max="2" width="107.853333333333" style="52" customWidth="1"/>
+    <col min="3" max="3" width="76.8533333333333" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="56"/>
+      <c r="A1" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>217</v>
+      <c r="A2" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>219</v>
+      <c r="A3" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>221</v>
+      <c r="A4" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>223</v>
+      <c r="A5" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="28" t="s">
         <v>226</v>
       </c>
+      <c r="B6" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>228</v>
+      <c r="A7" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>230</v>
+      <c r="A8" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>232</v>
+      <c r="A9" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
-      <c r="A10" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>234</v>
+      <c r="A10" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
-      <c r="A11" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>236</v>
+      <c r="A11" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
-      <c r="A13" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="56"/>
+      <c r="A13" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="54"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
-      <c r="A14" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>239</v>
+      <c r="A14" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
-      <c r="A15" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>241</v>
+      <c r="A15" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>243</v>
+      <c r="A16" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
-      <c r="A17" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>245</v>
+      <c r="A17" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>247</v>
+      <c r="A18" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
-      <c r="B19" s="58" t="s">
-        <v>248</v>
+      <c r="B19" s="56" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
-      <c r="B20" s="58" t="s">
-        <v>249</v>
+      <c r="B20" s="56" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
-      <c r="B21" s="58" t="s">
-        <v>250</v>
+      <c r="B21" s="56" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
-      <c r="A23" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>251</v>
+      <c r="A23" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>253</v>
+      <c r="A24" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>255</v>
+      <c r="A25" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
-      <c r="A26" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>257</v>
+      <c r="A26" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
-      <c r="B27" s="58" t="s">
-        <v>258</v>
+      <c r="B27" s="56" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
-      <c r="B28" s="58" t="s">
-        <v>259</v>
+      <c r="B28" s="56" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>261</v>
+      <c r="A29" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
-      <c r="A30" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="60" t="s">
         <v>264</v>
       </c>
+      <c r="B30" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="17" t="s">
-        <v>265</v>
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="15" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="17" t="s">
-        <v>266</v>
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
-      <c r="A34" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>269</v>
+      <c r="A34" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
-      <c r="A35" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>271</v>
+      <c r="A35" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
-      <c r="B36" s="58" t="s">
-        <v>272</v>
+      <c r="B36" s="56" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
-      <c r="B37" s="58" t="s">
-        <v>273</v>
+      <c r="B37" s="56" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
-      <c r="B38" s="58" t="s">
-        <v>274</v>
+      <c r="B38" s="56" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
-      <c r="B39" s="58" t="s">
-        <v>275</v>
+      <c r="B39" s="56" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
-      <c r="A40" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>277</v>
+      <c r="A40" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
-      <c r="B41" s="58" t="s">
-        <v>278</v>
+      <c r="B41" s="56" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="58" t="s">
-        <v>279</v>
+      <c r="B42" s="56" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>281</v>
+      <c r="A43" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
-      <c r="A44" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>283</v>
+      <c r="A44" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
-      <c r="B45" s="58" t="s">
-        <v>284</v>
+      <c r="B45" s="56" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
-      <c r="B46" s="28" t="s">
-        <v>285</v>
+      <c r="B46" s="26" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
-      <c r="B47" s="28" t="s">
-        <v>286</v>
+      <c r="B47" s="26" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
-      <c r="B48" s="28" t="s">
-        <v>287</v>
+      <c r="B48" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
-      <c r="A49" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B49" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="64" t="s">
+      <c r="A49" s="31" t="s">
         <v>290</v>
       </c>
+      <c r="B49" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="62"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="30" t="s">
-        <v>292</v>
+      <c r="A51" s="28" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="30" t="s">
-        <v>293</v>
+      <c r="A52" s="28" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>295</v>
+      <c r="A53" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
-      <c r="B54" s="58" t="s">
-        <v>296</v>
+      <c r="B54" s="56" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="30" t="s">
-        <v>297</v>
+      <c r="A56" s="28" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
-      <c r="A57" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B57" s="58" t="s">
-        <v>299</v>
+      <c r="A57" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
-      <c r="B58" s="28" t="s">
-        <v>300</v>
+      <c r="B58" s="26" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
-      <c r="B59" s="58" t="s">
-        <v>301</v>
+      <c r="B59" s="56" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
-      <c r="B60" s="28" t="s">
-        <v>302</v>
+      <c r="B60" s="26" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
-      <c r="B61" s="28" t="s">
-        <v>303</v>
+      <c r="B61" s="26" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
-      <c r="A63" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B63" s="56"/>
+      <c r="A63" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="54"/>
     </row>
     <row r="64" ht="153" spans="1:3">
-      <c r="A64" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C64" s="65" t="s">
+      <c r="A64" s="28" t="s">
         <v>307</v>
       </c>
+      <c r="B64" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
-      <c r="B65" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="C65" s="66"/>
+      <c r="B65" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="64"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
-      <c r="A66" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" s="66"/>
+      <c r="A66" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="64"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
-      <c r="A67" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="C67" s="66"/>
+      <c r="A67" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C67" s="64"/>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="B68" s="67" t="s">
-        <v>314</v>
+      <c r="A68" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="68" t="s">
-        <v>315</v>
+      <c r="B69" s="66" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="68" t="s">
-        <v>316</v>
+      <c r="B70" s="66" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="68" t="s">
-        <v>317</v>
+      <c r="B71" s="66" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="67"/>
+      <c r="B72" s="65"/>
     </row>
     <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="B73" s="67" t="s">
-        <v>319</v>
+      <c r="A73" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="65" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="57"/>
-      <c r="B74" s="67" t="s">
-        <v>320</v>
+      <c r="A74" s="55"/>
+      <c r="B74" s="65" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="57"/>
-      <c r="B75" s="67" t="s">
-        <v>321</v>
+      <c r="A75" s="55"/>
+      <c r="B75" s="65" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
-      <c r="A76" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="B76" s="58" t="s">
-        <v>323</v>
+      <c r="A76" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="56" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
-      <c r="B77" s="58" t="s">
-        <v>324</v>
+      <c r="B77" s="56" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
-      <c r="B78" s="58" t="s">
-        <v>325</v>
+      <c r="B78" s="56" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="30" t="s">
-        <v>326</v>
+      <c r="A80" s="28" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
-      <c r="A81" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>328</v>
+      <c r="A81" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
-      <c r="A82" s="57"/>
-      <c r="B82" s="69" t="s">
-        <v>329</v>
+      <c r="A82" s="55"/>
+      <c r="B82" s="67" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
-      <c r="A83" s="57"/>
-      <c r="B83" s="28" t="s">
-        <v>330</v>
+      <c r="A83" s="55"/>
+      <c r="B83" s="26" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
-      <c r="A84" s="57"/>
-      <c r="B84" s="28" t="s">
-        <v>331</v>
+      <c r="A84" s="55"/>
+      <c r="B84" s="26" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
-      <c r="A85" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="B85" s="58" t="s">
-        <v>333</v>
+      <c r="A85" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
-      <c r="B86" s="28" t="s">
-        <v>334</v>
+      <c r="B86" s="26" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
-      <c r="B87" s="58" t="s">
-        <v>335</v>
+      <c r="B87" s="56" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
-      <c r="A88" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>337</v>
+      <c r="A88" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
-      <c r="B89" s="28" t="s">
-        <v>338</v>
+      <c r="B89" s="26" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="70" t="s">
-        <v>339</v>
+      <c r="B90" s="68" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
-      <c r="B91" s="58" t="s">
-        <v>340</v>
+      <c r="B91" s="56" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
-      <c r="B92" s="58" t="s">
-        <v>341</v>
+      <c r="B92" s="56" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
-      <c r="B93" s="58" t="s">
-        <v>342</v>
+      <c r="B93" s="56" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
-      <c r="A95" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="B95" s="56"/>
+      <c r="A95" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="54"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
-      <c r="A96" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="B96" s="71" t="s">
-        <v>345</v>
+      <c r="A96" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B96" s="69" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
-      <c r="A97" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="B97" s="58" t="s">
-        <v>347</v>
+      <c r="A97" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="67" t="s">
-        <v>348</v>
+      <c r="B98" s="65" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
-      <c r="B99" s="58" t="s">
-        <v>349</v>
+      <c r="B99" s="56" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
-      <c r="A100" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="B100" s="58" t="s">
-        <v>351</v>
+      <c r="A100" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="56" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
-      <c r="B101" s="28" t="s">
-        <v>352</v>
+      <c r="B101" s="26" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
-      <c r="B102" s="28" t="s">
-        <v>353</v>
+      <c r="B102" s="26" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
-      <c r="B103" s="28" t="s">
-        <v>354</v>
+      <c r="B103" s="26" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
-      <c r="B104" s="28" t="s">
-        <v>355</v>
+      <c r="B104" s="26" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="70" t="s">
-        <v>356</v>
+      <c r="B105" s="68" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
-      <c r="A106" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="B106" s="58" t="s">
-        <v>358</v>
+      <c r="A106" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B106" s="56" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
-      <c r="A107" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="B107" s="58" t="s">
-        <v>360</v>
+      <c r="A107" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
-      <c r="B108" s="28" t="s">
-        <v>361</v>
+      <c r="B108" s="26" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
-      <c r="A109" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>363</v>
+      <c r="A109" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="57"/>
-      <c r="B110" s="28" t="s">
-        <v>364</v>
+      <c r="A110" s="55"/>
+      <c r="B110" s="26" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="B111" s="58" t="s">
-        <v>366</v>
+      <c r="A111" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="B111" s="56" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
-      <c r="A112" s="57"/>
-      <c r="B112" s="58" t="s">
-        <v>367</v>
+      <c r="A112" s="55"/>
+      <c r="B112" s="56" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
-      <c r="A113" s="57"/>
-      <c r="B113" s="58" t="s">
-        <v>368</v>
+      <c r="A113" s="55"/>
+      <c r="B113" s="56" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A114" s="57"/>
-      <c r="B114" s="58" t="s">
-        <v>369</v>
+      <c r="A114" s="55"/>
+      <c r="B114" s="56" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
-      <c r="A115" s="57"/>
-      <c r="B115" s="58" t="s">
-        <v>370</v>
+      <c r="A115" s="55"/>
+      <c r="B115" s="56" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
-      <c r="A116" s="57"/>
-      <c r="B116" s="58" t="s">
-        <v>371</v>
+      <c r="A116" s="55"/>
+      <c r="B116" s="56" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
-      <c r="A117" s="57"/>
-      <c r="B117" s="58" t="s">
-        <v>372</v>
+      <c r="A117" s="55"/>
+      <c r="B117" s="56" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
-      <c r="A118" s="57"/>
-      <c r="B118" s="54" t="s">
-        <v>373</v>
+      <c r="A118" s="55"/>
+      <c r="B118" s="52" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
-      <c r="A119" s="57"/>
-      <c r="B119" s="58" t="s">
-        <v>374</v>
+      <c r="A119" s="55"/>
+      <c r="B119" s="56" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
-      <c r="A120" s="57"/>
-      <c r="B120" s="54" t="s">
-        <v>375</v>
+      <c r="A120" s="55"/>
+      <c r="B120" s="52" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
-      <c r="A121" s="57"/>
-      <c r="B121" s="54" t="s">
-        <v>376</v>
+      <c r="A121" s="55"/>
+      <c r="B121" s="52" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="57"/>
-      <c r="B122" s="54" t="s">
-        <v>377</v>
+      <c r="A122" s="55"/>
+      <c r="B122" s="52" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -17635,307 +17654,307 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>379</v>
+      <c r="A1" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>381</v>
+      <c r="A2" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>383</v>
+      <c r="A3" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>385</v>
+      <c r="A4" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>387</v>
+      <c r="A5" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="9" t="s">
-        <v>388</v>
+      <c r="A6" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>389</v>
+      <c r="A7" s="8" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="50" t="s">
-        <v>390</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="C8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>392</v>
       </c>
+      <c r="B8" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="C9" s="44"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="C10" s="44"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="42"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="C12" s="45"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="43"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>398</v>
+      <c r="A15" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="10" t="s">
-        <v>399</v>
+      <c r="B16" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="10" t="s">
-        <v>400</v>
+      <c r="B17" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="10" t="s">
-        <v>401</v>
+      <c r="B18" s="8" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>402</v>
+      <c r="B20" s="8" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>405</v>
       </c>
+      <c r="B22" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>410</v>
       </c>
+      <c r="B26" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>412</v>
+      <c r="B28" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>414</v>
+      <c r="A29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>416</v>
+      <c r="A31" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>418</v>
+      <c r="A32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>420</v>
+      <c r="A33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C34" s="52" t="s">
+      <c r="A34" s="45" t="s">
         <v>423</v>
       </c>
+      <c r="B34" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>425</v>
+      <c r="A36" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>427</v>
+      <c r="A37" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
-        <v>428</v>
+      <c r="A38" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
-        <v>429</v>
+      <c r="A39" s="7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>431</v>
+      <c r="A40" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>434</v>
       </c>
+      <c r="B41" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>434</v>
+      <c r="A42" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="53" t="s">
-        <v>436</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="51" t="s">
         <v>438</v>
       </c>
+      <c r="B43" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="27" t="s">
-        <v>436</v>
+      <c r="A44" s="51"/>
+      <c r="B44" s="25" t="s">
+        <v>438</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="27" t="s">
-        <v>440</v>
+      <c r="A45" s="51"/>
+      <c r="B45" s="25" t="s">
+        <v>442</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="27" t="s">
-        <v>442</v>
+      <c r="A46" s="51"/>
+      <c r="B46" s="25" t="s">
+        <v>444</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -17977,225 +17996,225 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="46" t="s">
-        <v>444</v>
+      <c r="A1" s="44" t="s">
+        <v>446</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="17" t="s">
-        <v>446</v>
+      <c r="A2" s="30"/>
+      <c r="B2" s="15" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="17" t="s">
-        <v>447</v>
+      <c r="A3" s="30"/>
+      <c r="B3" s="15" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="17" t="s">
-        <v>448</v>
+      <c r="A4" s="30"/>
+      <c r="B4" s="15" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="17" t="s">
-        <v>449</v>
+      <c r="A5" s="30"/>
+      <c r="B5" s="15" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6" ht="114.75" spans="1:2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
-        <v>451</v>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="32"/>
-      <c r="C8" s="47"/>
+      <c r="A8" s="30"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="32"/>
+      <c r="A22" s="30"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="30"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="32"/>
+      <c r="A24" s="30"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="30"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="32"/>
+      <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="32"/>
+      <c r="A27" s="30"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="32"/>
+      <c r="A29" s="30"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="32"/>
+      <c r="A30" s="30"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="32"/>
+      <c r="A31" s="30"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="32"/>
+      <c r="A32" s="30"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="32"/>
+      <c r="A33" s="30"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="32"/>
+      <c r="A34" s="30"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="32"/>
+      <c r="A35" s="30"/>
     </row>
     <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="32" t="s">
-        <v>452</v>
+      <c r="A36" s="30" t="s">
+        <v>454</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="18" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="1:2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33" t="s">
-        <v>451</v>
-      </c>
-    </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="32"/>
+      <c r="A39" s="30"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="32"/>
+      <c r="A40" s="30"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="32"/>
+      <c r="A41" s="30"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="32"/>
+      <c r="A42" s="30"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="32"/>
+      <c r="A43" s="30"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="32"/>
+      <c r="A44" s="30"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="32"/>
+      <c r="A45" s="30"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="32"/>
+      <c r="A46" s="30"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="32"/>
+      <c r="A47" s="30"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="32"/>
+      <c r="A48" s="30"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="32"/>
+      <c r="A49" s="30"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="32"/>
+      <c r="A50" s="30"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="32"/>
+      <c r="A51" s="30"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="32"/>
+      <c r="A52" s="30"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="32"/>
+      <c r="A53" s="30"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="32"/>
+      <c r="A54" s="30"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="32"/>
+      <c r="A55" s="30"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="32"/>
+      <c r="A56" s="30"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="32"/>
+      <c r="A57" s="30"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="32"/>
+      <c r="A58" s="30"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="32"/>
+      <c r="A59" s="30"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="32"/>
+      <c r="A60" s="30"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="32"/>
+      <c r="A61" s="30"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="32"/>
+      <c r="A62" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18240,89 +18259,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>456</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>457</v>
       </c>
+      <c r="B1" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -18356,92 +18375,92 @@
   <sheetData>
     <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="39" t="s">
-        <v>486</v>
+      <c r="A11" s="37" t="s">
+        <v>488</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="39"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Java-Spring\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3D2209-98FD-46E5-9F9B-66A89C4D1DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="807">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -11686,14 +11692,50 @@
     <t>gRPC</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>HTTP1.1 vs HTTP2</t>
+  </si>
+  <si>
+    <t>gRPC - Unary</t>
+  </si>
+  <si>
+    <t>gRPC - Server - streaming</t>
+  </si>
+  <si>
+    <t>Streaming vs Unay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Streaming:
+  + Size - Potentially large / unknown: Huge file, Send info in chunks
+  + Time consuming - periiodic update
+  + More efficient than multiple RPC calls - avoid polling
+ - Unary:
+  + More efficient than streaming than RPC
+  + Size is not too big &amp; not very time consiming</t>
+  </si>
+  <si>
+    <t>Client Streaming</t>
+  </si>
+  <si>
+    <t>Bidirectional - Streaming</t>
+  </si>
+  <si>
+    <t>Metadata = Headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Ex: 
+   + Content-Type: application/json (for gRPC, application/grpc)
+   + Status: INVALID ARGUMENT, FAILED PRECONDITION, Trailer: "Custom Application Specific Status Code"
+ - Metadata is sent in the initial response
+ - Trailer:
+   + Are metadata sent by the server to the client at the end of an RPC
+   + They provide information about the status of the RPC
+   + It can include additional details such as custom metadata or error information</t>
+  </si>
+  <si>
+    <t>gRPC Channel</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> - gRPC: Client app directly invokes Server method on a different process/ machine
  - How to client directly invokes: proto file
  - Service is defined using proto
@@ -11705,7 +11747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>gRPC Communication Patterns</t>
@@ -11715,7 +11757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>:
@@ -11729,20 +11771,7 @@
     </r>
   </si>
   <si>
-    <t>HTTP1.1 vs HTTP2</t>
-  </si>
-  <si>
-    <t>gRPC - Unary</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <r>
       <t xml:space="preserve"> - Client send request to Server -&gt; Connection is established -&gt; Server send response back to the Client
  - How Client and Server interact: 
    + Proto file generate Client </t>
@@ -11753,7 +11782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Stub</t>
@@ -11763,7 +11792,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(fake service)</t>
@@ -11774,7 +11803,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -11784,7 +11813,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">and for Server </t>
@@ -11795,7 +11824,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Service</t>
@@ -11805,7 +11834,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(real service) file
@@ -11817,7 +11846,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>channel</t>
@@ -11827,7 +11856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> we establish the connection with the server, after that use </t>
@@ -11838,7 +11867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Stub</t>
@@ -11848,7 +11877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (fake service) invoke to </t>
@@ -11859,7 +11888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Service</t>
@@ -11869,7 +11898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (real service). It's a Http request will be sent to the server and Executed and response
@@ -11878,17 +11907,7 @@
     </r>
   </si>
   <si>
-    <t>gRPC - Server - streaming</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <r>
       <t xml:space="preserve"> - The Client send </t>
     </r>
     <r>
@@ -11897,7 +11916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>a request</t>
@@ -11907,7 +11926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for which the server might send </t>
@@ -11918,7 +11937,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>multiple responses</t>
@@ -11928,7 +11947,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. When something happens the server will give one response to the client 
@@ -11950,7 +11969,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">stream observer object </t>
@@ -11960,7 +11979,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(NOT thread safe)
@@ -11969,32 +11988,7 @@
     </r>
   </si>
   <si>
-    <t>Streaming vs Unay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Streaming:
-  + Size - Potentially large / unknown: Huge file, Send info in chunks
-  + Time consuming - periiodic update
-  + More efficient than multiple RPC calls - avoid polling
- - Unary:
-  + More efficient than streaming than RPC
-  + Size is not too big &amp; not very time consiming</t>
-  </si>
-  <si>
-    <t>Client Streaming</t>
-  </si>
-  <si>
-    <t>Bidirectional - Streaming</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <r>
       <t xml:space="preserve"> - Both client and server will send a stream of messages.
  - (</t>
     </r>
@@ -12004,7 +11998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Independent stream</t>
@@ -12014,7 +12008,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">) Client keeps sending messages to the server and server keeps responding
@@ -12022,35 +12016,55 @@
     </r>
   </si>
   <si>
-    <t>Metadata = Headers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Ex: 
-   + Content-Type: application/json (for gRPC, application/grpc)
-   + Status: INVALID ARGUMENT, FAILED PRECONDITION, Trailer: "Custom Application Specific Status Code"
- - Metadata is sent in the initial response
- - Trailer:
-   + Are metadata sent by the server to the client at the end of an RPC
-   + They provide information about the status of the RPC
-   + It can include additional details such as custom metadata or error information</t>
+    <t xml:space="preserve"> - MannagedChannel-gRPC takes care of it
+ - Connection creation is Lazy &amp; established during the first RPC
+ - 1 channel/ connection is enough for client/server communication even multiple concurent reqeusts
+   + Can also create more channels - but not really required
+   + Channel creation is an expensive process.
+       + Create when the app starts (Think of Spirng beans)
+       + Shutdown when the app terminates/when you do not need it
+   + Channels are thread-safe and intended to be reused for multiple RPC calls
+   + Can be shared with multiple stubs for server (BankService, TransferService,...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Channel is an abstract over a connection and presents the connection. 
+ - Is a virtual connection to an endpoint on a gRPC server. 
+ - It manages the lifecycle of remote procedure call (RPC) invocations, providing essential features such as connection pooling, load balancing, and retry policies. 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Creation: A gRPC channel is created to connect to a specific server address, which can include options for secure or insecure connections.
+ - Reusability: Channels are designed to be reused for multiple gRPC calls, which helps in managing resources efficiently
+ - Configuration: Channels can be configured with various options like timeouts, load balancing strategies, and custom interceptors
+ - Lifecycle Management: Channels handle the underlying transport connections, including connection pooling, retries, and error handling
+ - Thread Safety: Channels are thread-safe, allowing concurrent RPC calls to be made from different threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Load Balancing: Channels can be configured with different load balancing strategies to distribute the load across multiple server instances
+ - Interceptors: Channels can use client interceptors to add behavior like logging, metrics, or retry logic to the RPC calls
+ - Security: Secure channels can be created using TLS/SSL for encrypted communication.</t>
+  </si>
+  <si>
+    <t>Persitent connection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12175,120 +12189,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -12337,8 +12237,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12381,182 +12289,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -12640,230 +12374,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12871,104 +12390,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12978,215 +12465,231 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -13202,13 +12705,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Ảnh 2"/>
+        <xdr:cNvPr id="3" name="Ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13240,13 +12749,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Ảnh 3"/>
+        <xdr:cNvPr id="4" name="Ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13278,13 +12793,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Ảnh 4"/>
+        <xdr:cNvPr id="5" name="Ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13305,7 +12826,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -13321,13 +12842,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13348,7 +12875,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -13364,13 +12891,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13391,7 +12924,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -13407,13 +12940,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13434,7 +12973,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -13450,13 +12989,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13728,250 +13273,248 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="7"/>
-    <col min="2" max="2" width="39.5733333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="7" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50" style="7" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="7"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="39.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50" style="5" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="7">
+    <row r="1" spans="1:7" ht="90">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="75">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" ht="240">
+      <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:7" ht="300">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" ht="245.25" customHeight="1">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7" ht="223.5" customHeight="1">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7" ht="300">
+      <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:7" ht="30">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:7" ht="150">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:7" ht="180">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:7" ht="288.75" customHeight="1">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:7" ht="60">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:7" ht="240.75" customHeight="1">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:3" ht="180">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="2:3" ht="180">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="51" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId2" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -13987,7 +13530,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" ht="51" spans="1:2">
+    <row r="4" spans="1:2" ht="60">
       <c r="A4" t="s">
         <v>501</v>
       </c>
@@ -14027,7 +13570,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" ht="63.75" spans="1:2">
+    <row r="9" spans="1:2" ht="75">
       <c r="A9" t="s">
         <v>511</v>
       </c>
@@ -14043,22 +13586,22 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="14" ht="25.5" spans="1:2">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" t="s">
         <v>518</v>
       </c>
@@ -14066,7 +13609,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="1:2">
+    <row r="15" spans="1:2" ht="60">
       <c r="A15" t="s">
         <v>520</v>
       </c>
@@ -14075,24 +13618,24 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="29" t="s">
         <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="19" ht="51" spans="1:2">
+    <row r="19" spans="1:2" ht="60">
       <c r="A19" t="s">
         <v>526</v>
       </c>
@@ -14100,17 +13643,17 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>530</v>
       </c>
@@ -14147,8 +13690,8 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" ht="63.75" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="69" t="s">
         <v>539</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -14156,37 +13699,37 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="69"/>
       <c r="B29" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="69"/>
       <c r="B30" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="69"/>
       <c r="B31" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="69"/>
       <c r="B32" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="69"/>
       <c r="B33" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="69"/>
       <c r="B34" t="s">
         <v>546</v>
       </c>
@@ -14196,216 +13739,217 @@
     <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="55.8533333333333" style="27" customWidth="1"/>
-    <col min="2" max="2" width="54.14" style="28" customWidth="1"/>
-    <col min="3" max="3" width="101.713333333333" style="29" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="101.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="81" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="2" ht="12.75" spans="1:3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" ht="12.75" spans="1:2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" ht="12.75" spans="1:2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-    </row>
-    <row r="5" ht="12.75" spans="1:2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" ht="12.75" spans="1:2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-    </row>
-    <row r="7" ht="12.75" spans="1:2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-    </row>
-    <row r="8" ht="12.75" spans="1:2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-    </row>
-    <row r="9" ht="12.75" spans="1:2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" ht="12.75" spans="1:2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" ht="12.75" spans="1:2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" ht="12.75" spans="1:2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" ht="12.75" spans="1:2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" ht="12.75" spans="1:2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" ht="17.25" spans="1:2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" ht="17.25" spans="1:2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-    </row>
-    <row r="24" ht="17.25" spans="1:2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="33"/>
-    </row>
-    <row r="26" ht="17.25" spans="1:2">
-      <c r="A26" s="30" t="s">
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="81"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="81"/>
+      <c r="B3" s="95"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="81"/>
+      <c r="B4" s="95"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="81"/>
+      <c r="B5" s="95"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="81"/>
+      <c r="B6" s="95"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="81"/>
+      <c r="B7" s="95"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="81"/>
+      <c r="B8" s="95"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="81"/>
+      <c r="B9" s="95"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="81"/>
+      <c r="B10" s="95"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="81"/>
+      <c r="B11" s="95"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="81"/>
+      <c r="B12" s="95"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="81"/>
+      <c r="B13" s="95"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="81"/>
+      <c r="B14" s="95"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A15" s="81"/>
+      <c r="B15" s="95"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A16" s="81"/>
+      <c r="B16" s="95"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A17" s="81"/>
+      <c r="B17" s="95"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A18" s="81"/>
+      <c r="B18" s="95"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A19" s="81"/>
+      <c r="B19" s="95"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A20" s="81"/>
+      <c r="B20" s="95"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A21" s="81"/>
+      <c r="B21" s="95"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75">
+      <c r="A22" s="81"/>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75">
+      <c r="A23" s="81"/>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75">
+      <c r="A24" s="81"/>
+      <c r="B24" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
+      <c r="A26" s="81" t="s">
         <v>548</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="21" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="1:2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28" t="s">
+    <row r="27" spans="1:3" ht="18.75">
+      <c r="A27" s="81"/>
+      <c r="B27" s="21" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="1:3" ht="18.75">
+      <c r="A28" s="81"/>
+      <c r="B28" s="21" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="30"/>
-    </row>
-    <row r="30" ht="12.75" spans="1:3">
-      <c r="A30" s="30" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="81" t="s">
         <v>552</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="83" t="s">
         <v>553</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="22" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="31" ht="12.75" spans="1:3">
-      <c r="A31" s="30"/>
-      <c r="C31" s="29" t="s">
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="81"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="22" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="32" ht="12.75" spans="1:3">
-      <c r="A32" s="30"/>
-      <c r="C32" s="29" t="s">
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="81"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="22" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="33" ht="12.75" spans="1:3">
-      <c r="A33" s="30"/>
-      <c r="C33" s="29" t="s">
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="81"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="22" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="35" ht="114.75" spans="1:3">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:3" ht="165">
+      <c r="A35" s="81" t="s">
         <v>558</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="68" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="36" ht="89.25" spans="1:3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="28" t="s">
+    <row r="36" spans="1:3" ht="105">
+      <c r="A36" s="81"/>
+      <c r="B36" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="68" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="37" ht="76.5" spans="1:3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="28" t="s">
+    <row r="37" spans="1:3" ht="105">
+      <c r="A37" s="81"/>
+      <c r="B37" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="27" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="38" ht="51" spans="1:3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="28" t="s">
+    <row r="38" spans="1:3" ht="60">
+      <c r="A38" s="81"/>
+      <c r="B38" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="27" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="23" t="s">
         <v>567</v>
       </c>
     </row>
@@ -14420,307 +13964,305 @@
     <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" style="8" customWidth="1"/>
-    <col min="2" max="2" width="109" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="109" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" ht="150">
+      <c r="A1" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="200.25" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="120">
+      <c r="A3" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="65" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" ht="45">
+      <c r="A7" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" ht="150">
+      <c r="A8" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:3" ht="60">
+      <c r="A12" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:3" ht="60">
+      <c r="A13" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:3" ht="120">
+      <c r="A14" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:3" ht="120">
+      <c r="A15" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:2" ht="225">
+      <c r="A17" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:2" ht="345">
+      <c r="A19" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="23"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:2" ht="135">
+      <c r="A34" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="96"/>
+      <c r="B55" s="6" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="96"/>
+      <c r="B56" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="58" ht="25.5" spans="1:2">
-      <c r="A58" s="25" t="s">
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="70" t="s">
         <v>623</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26" t="s">
+      <c r="A59" s="70"/>
+      <c r="B59" s="19" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26" t="s">
+      <c r="A60" s="70"/>
+      <c r="B60" s="19" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26" t="s">
+      <c r="A61" s="70"/>
+      <c r="B61" s="19" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26" t="s">
+      <c r="A62" s="70"/>
+      <c r="B62" s="19" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26" t="s">
+      <c r="A63" s="70"/>
+      <c r="B63" s="19" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26" t="s">
+      <c r="A64" s="70"/>
+      <c r="B64" s="19" t="s">
         <v>630</v>
       </c>
     </row>
@@ -14730,298 +14272,296 @@
     <mergeCell ref="A58:A64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="HƯỚNG DẪN CÁC BƯỚC PHÁT TRIỂN HỆ THỐNG MICROSERVICE VỚI DOCKER | CO-WELL Asia"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.14" customWidth="1"/>
-    <col min="2" max="2" width="110.853333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="105">
+      <c r="A1" s="69" t="s">
         <v>631</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:2" ht="105">
+      <c r="A2" s="69"/>
+      <c r="B2" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:2" ht="135">
+      <c r="A3" s="69"/>
       <c r="B3" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="90">
+      <c r="A4" s="69" t="s">
         <v>635</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" s="69"/>
+      <c r="B5" s="10" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="10" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="69" t="s">
         <v>639</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="69"/>
+      <c r="B8" s="10" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="10" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="10" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="10" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="69" t="s">
         <v>645</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="69"/>
+      <c r="B13" s="10" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="14" ht="127.5" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:2" ht="165">
+      <c r="A14" s="69"/>
+      <c r="B14" s="10" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="10" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="10" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="17" ht="102" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:2" ht="120">
+      <c r="A17" s="69"/>
+      <c r="B17" s="10" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="69"/>
+      <c r="B18" s="10" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="10" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="11" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:2" ht="195">
+      <c r="A21" s="97" t="s">
         <v>655</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="10" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:2" ht="300">
+      <c r="A22" s="97"/>
+      <c r="B22" s="10" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15" t="s">
+    <row r="23" spans="1:2" ht="195">
+      <c r="A23" s="97"/>
+      <c r="B23" s="10" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="97"/>
+      <c r="B24" s="10" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="97"/>
+      <c r="B25" s="10" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="97"/>
+      <c r="B26" s="10" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="97"/>
+      <c r="B27" s="10" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="97"/>
+      <c r="B28" s="11" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="29" ht="38.25" spans="1:2">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="98" t="s">
         <v>664</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="10" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="10" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="10" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="97" t="s">
         <v>670</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="69"/>
       <c r="B35" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:2" ht="75">
+      <c r="A36" s="69"/>
       <c r="B36" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="37" ht="51" spans="1:2">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:2" ht="75">
+      <c r="A37" s="69"/>
       <c r="B37" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="69" t="s">
         <v>675</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="39" ht="76.5" spans="1:2">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="69"/>
       <c r="B39" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="69"/>
       <c r="B40" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="41" ht="25.5" spans="1:2">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="69"/>
       <c r="B41" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="69"/>
       <c r="B43" s="2" t="s">
         <v>681</v>
       </c>
@@ -15030,117 +14570,109 @@
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" ht="25.5" spans="1:2">
+    <row r="45" spans="1:2" ht="30">
       <c r="A45" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="14" t="s">
         <v>683</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A43"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
+    <hyperlink ref="B45" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="135">
+      <c r="A1" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="65" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" ht="210">
+      <c r="A2" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>687</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="60.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -15165,252 +14697,250 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="49.14" customWidth="1"/>
-    <col min="3" max="3" width="69.5733333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" ht="180">
+      <c r="A3" s="99" t="s">
         <v>694</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>695</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:3" ht="150">
+      <c r="A4" s="99"/>
+      <c r="B4" s="9" t="s">
         <v>697</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="99"/>
       <c r="B5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="99"/>
       <c r="B6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="99"/>
       <c r="B7" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:3" ht="90">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100" t="s">
         <v>702</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:3" ht="165">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:3" ht="105">
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
       <c r="C11" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
+    <row r="12" spans="1:3" ht="90">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="99"/>
       <c r="B13" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:3" ht="270">
+      <c r="A14" s="99"/>
+      <c r="B14" s="87" t="s">
         <v>709</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
+    <row r="15" spans="1:3" ht="210">
+      <c r="A15" s="99"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="10" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
+    <row r="16" spans="1:3" ht="120">
+      <c r="A16" s="99"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="10" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="99"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="10" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="1:6" ht="90">
+      <c r="A18" s="99"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="99"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="99"/>
+      <c r="B20" s="11" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="99"/>
       <c r="B21" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="99" t="s">
         <v>717</v>
       </c>
       <c r="B24" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="99"/>
       <c r="B25" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="99"/>
       <c r="B26" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="99"/>
       <c r="B27" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:6" ht="90">
+      <c r="A28" s="99"/>
       <c r="B28" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:6" ht="180">
+      <c r="A29" s="99"/>
       <c r="B29" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="17"/>
-    </row>
-    <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="11" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="180">
+      <c r="A31" s="99" t="s">
         <v>724</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="11"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="75">
+      <c r="A32" s="99"/>
       <c r="B32" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="99"/>
       <c r="B33" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="99"/>
       <c r="B34" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="99"/>
       <c r="B35" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:3" ht="150">
+      <c r="A36" s="99"/>
       <c r="B36" s="2" t="s">
         <v>730</v>
       </c>
@@ -15425,186 +14955,182 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="117" style="7" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="117" style="5" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:2" ht="360">
+      <c r="A4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="65" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:2">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="94" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:2" ht="195">
+      <c r="A12" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:2" ht="51">
+      <c r="A16" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="56" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="30"/>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" ht="25.5" spans="1:2">
+    <row r="23" spans="1:2" ht="30">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -15613,7 +15139,7 @@
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -15621,52 +15147,52 @@
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" ht="25.5" spans="1:2">
+    <row r="29" spans="1:2" ht="30">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -15674,32 +15200,32 @@
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" ht="25.5" spans="1:2">
+    <row r="37" spans="1:2" ht="30">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" ht="51" spans="1:2">
+    <row r="38" spans="1:2" ht="60">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" ht="38.25" spans="1:2">
+    <row r="39" spans="1:2" ht="45">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -15707,517 +15233,509 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="26" t="s">
+    <row r="45" spans="1:2" ht="60">
+      <c r="A45" s="69"/>
+      <c r="B45" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2" ht="75">
+      <c r="A46" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:2" ht="60">
+      <c r="A47" s="69"/>
+      <c r="B47" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" ht="63.75" spans="1:2">
+    <row r="49" spans="1:2" ht="75">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" ht="63.75" spans="1:2">
+    <row r="50" spans="1:2" ht="75">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="25" t="s">
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="1:2" ht="135">
+      <c r="A52" s="70"/>
+      <c r="B52" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="8" t="s">
+    <row r="53" spans="1:2" ht="105">
+      <c r="A53" s="70"/>
+      <c r="B53" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="51" t="s">
+    <row r="54" spans="1:2" ht="60">
+      <c r="A54" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="51"/>
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="1:2" ht="120">
+      <c r="A55" s="71"/>
+      <c r="B55" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="51"/>
-      <c r="B56" s="26" t="s">
+    <row r="56" spans="1:2" ht="180">
+      <c r="A56" s="71"/>
+      <c r="B56" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="51"/>
-      <c r="B57" s="26" t="s">
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="71"/>
+      <c r="B57" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="8" t="s">
+    <row r="58" spans="1:2" ht="240">
+      <c r="A58" s="71"/>
+      <c r="B58" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="51"/>
-      <c r="B59" s="82" t="s">
+    <row r="59" spans="1:2" ht="90">
+      <c r="A59" s="71"/>
+      <c r="B59" s="57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="51"/>
-      <c r="B60" s="83" t="s">
+    <row r="60" spans="1:2" ht="409.5">
+      <c r="A60" s="71"/>
+      <c r="B60" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" ht="63.75" spans="1:2">
+    <row r="61" spans="1:2" ht="75">
       <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" ht="204" spans="1:2">
+    <row r="62" spans="1:2" ht="255">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" ht="115.5" spans="1:2">
+    <row r="63" spans="1:2" ht="135">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="84" t="s">
+    <row r="64" spans="1:2" ht="135">
+      <c r="A64" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="84" t="s">
+    <row r="65" spans="1:2" ht="165">
+      <c r="A65" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="84"/>
-      <c r="B66" s="67" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="85" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="87"/>
-      <c r="B68" s="47" t="s">
+    <row r="68" spans="1:2" ht="60">
+      <c r="A68" s="74"/>
+      <c r="B68" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="87"/>
-      <c r="B69" s="83" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="74"/>
+      <c r="B69" s="58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="87"/>
-      <c r="B70" s="86" t="s">
+      <c r="A70" s="74"/>
+      <c r="B70" s="60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="19" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="67" t="s">
+      <c r="A72" s="69"/>
+      <c r="B72" s="46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="8" t="s">
+    <row r="73" spans="1:2" ht="60">
+      <c r="A73" s="69"/>
+      <c r="B73" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" ht="76.5" spans="1:2">
+    <row r="74" spans="1:2" ht="90">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="8" t="s">
+    <row r="76" spans="1:2" ht="75">
+      <c r="A76" s="69"/>
+      <c r="B76" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="8" t="s">
+    <row r="77" spans="1:2" ht="75">
+      <c r="A77" s="69"/>
+      <c r="B77" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="8" t="s">
+    <row r="78" spans="1:2" ht="90">
+      <c r="A78" s="69"/>
+      <c r="B78" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="26" t="s">
+    <row r="79" spans="1:2" ht="75">
+      <c r="A79" s="69"/>
+      <c r="B79" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="67" t="s">
+      <c r="A80" s="69"/>
+      <c r="B80" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="82" ht="13.5" spans="1:1">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="87" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="89" t="s">
+      <c r="C83" s="62" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="87"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="89" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="74"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="62" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="87"/>
-      <c r="B85" s="88" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="74"/>
+      <c r="B85" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="89" t="s">
+      <c r="C85" s="62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="87"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="89" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="74"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="62" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="87"/>
-      <c r="B87" s="88" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="74"/>
+      <c r="B87" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="89" t="s">
+      <c r="C87" s="62" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="74"/>
+      <c r="B88" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="89" t="s">
+      <c r="C88" s="62" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="87"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="89" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="74"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="87"/>
-      <c r="B90" s="88" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="74"/>
+      <c r="B90" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="89"/>
-    </row>
-    <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="87"/>
-      <c r="B91" s="88" t="s">
+      <c r="C90" s="62"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="74"/>
+      <c r="B91" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="89" t="s">
+      <c r="C91" s="62" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="87"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="89" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="74"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="62" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="87"/>
-      <c r="B93" s="88" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="74"/>
+      <c r="B93" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="89" t="s">
+      <c r="C93" s="62" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" ht="13.5" spans="1:1">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" ht="191.25" spans="1:2">
+    <row r="95" spans="1:3" ht="225">
       <c r="A95" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="6" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A83:A93"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A83:A93"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="7"/>
+    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="195">
+      <c r="A1" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="90">
+      <c r="A2" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" ht="180">
+      <c r="A3" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>736</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.8533333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="51" spans="1:2">
+    <row r="2" spans="1:2" ht="75">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -16225,7 +15743,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="3" ht="127.5" spans="1:2">
+    <row r="3" spans="1:2" ht="165">
       <c r="A3" t="s">
         <v>739</v>
       </c>
@@ -16233,7 +15751,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="4" ht="114.75" spans="1:2">
+    <row r="4" spans="1:2" ht="150">
       <c r="A4" t="s">
         <v>741</v>
       </c>
@@ -16241,7 +15759,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="5" ht="63.75" spans="1:2">
+    <row r="5" spans="1:2" ht="75">
       <c r="A5" t="s">
         <v>743</v>
       </c>
@@ -16249,7 +15767,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:2">
+    <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
         <v>745</v>
       </c>
@@ -16257,7 +15775,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="1:2">
+    <row r="7" spans="1:2" ht="60">
       <c r="A7" t="s">
         <v>747</v>
       </c>
@@ -16265,7 +15783,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="8" ht="63.75" spans="1:2">
+    <row r="8" spans="1:2" ht="75">
       <c r="A8" t="s">
         <v>749</v>
       </c>
@@ -16274,7 +15792,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="69" t="s">
         <v>751</v>
       </c>
       <c r="B9" t="s">
@@ -16282,31 +15800,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="69"/>
       <c r="B10" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="69"/>
       <c r="B11" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="69"/>
       <c r="B12" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="69"/>
       <c r="B13" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="69"/>
       <c r="B14" t="s">
         <v>757</v>
       </c>
@@ -16316,45 +15834,43 @@
     <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5733333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.5733333333333" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
+    <row r="4" spans="1:3" ht="75">
       <c r="A4" t="s">
         <v>762</v>
       </c>
@@ -16362,7 +15878,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="6" ht="51" spans="1:2">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" t="s">
         <v>764</v>
       </c>
@@ -16370,12 +15886,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="10" ht="38.25" spans="1:2">
+    <row r="10" spans="1:3" ht="45">
       <c r="A10" t="s">
         <v>767</v>
       </c>
@@ -16383,38 +15899,38 @@
         <v>768</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:2" ht="105">
+      <c r="A27" s="101" t="s">
         <v>775</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -16422,24 +15938,24 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="101"/>
       <c r="B28" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="101"/>
       <c r="B29" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="101"/>
       <c r="B30" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
         <v>771</v>
       </c>
@@ -16449,253 +15965,285 @@
     <mergeCell ref="A27:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://projectreactor.io/"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="97.6" customWidth="1"/>
+    <col min="1" max="1" width="26" style="104" customWidth="1"/>
+    <col min="2" max="2" width="111.7109375" style="104" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="102" t="s">
         <v>780</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="103" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2" ht="75">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="3" ht="114.75" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="135">
+      <c r="A3" s="105" t="s">
         <v>783</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="103" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="105" t="s">
         <v>785</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="103" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="5" ht="165.75" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="195">
+      <c r="A5" s="105" t="s">
         <v>787</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="103" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="105" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="120">
+      <c r="A7" s="105" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="7" ht="89.25" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="103" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="270">
+      <c r="A8" s="105" t="s">
         <v>790</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="103" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="105" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="8" ht="191.25" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="103" t="s">
         <v>792</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="105" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="9" ht="89.25" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="105" t="s">
         <v>794</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="103" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="120">
+      <c r="A12" s="105" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="103" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="11" ht="38.25" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:2" ht="75">
+      <c r="A13" s="102" t="s">
         <v>797</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="12" ht="102" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>800</v>
+      <c r="B13" s="103" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="120">
+      <c r="A14" s="102"/>
+      <c r="B14" s="103" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="102"/>
+      <c r="B15" s="103" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="135">
+      <c r="A16" s="102"/>
+      <c r="B16" s="103" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="102"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="105" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="122.713333333333" customWidth="1"/>
-    <col min="3" max="3" width="139.713333333333" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="139.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" ht="303" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5" ht="180">
+      <c r="A2" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:5" ht="90">
+      <c r="A3" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="77"/>
+      <c r="B5" s="32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="77"/>
+      <c r="B7" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="77"/>
+      <c r="B8" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="77"/>
+      <c r="B9" s="32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="77"/>
+      <c r="B10" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="78"/>
+      <c r="B11" s="32" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>191</v>
       </c>
@@ -16703,7 +16251,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
@@ -16711,7 +16259,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" ht="76.5" spans="1:2">
+    <row r="22" spans="1:3" ht="90">
       <c r="A22" s="1" t="s">
         <v>194</v>
       </c>
@@ -16719,15 +16267,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:3" ht="240">
+      <c r="A23" s="49" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" ht="76.5" spans="1:2">
+    <row r="24" spans="1:3" ht="90">
       <c r="A24" s="1" t="s">
         <v>198</v>
       </c>
@@ -16735,7 +16283,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" ht="38.25" spans="1:2">
+    <row r="25" spans="1:3" ht="45">
       <c r="A25" s="1" t="s">
         <v>200</v>
       </c>
@@ -16743,7 +16291,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" ht="204" spans="1:2">
+    <row r="26" spans="1:3" ht="240">
       <c r="A26" s="1" t="s">
         <v>202</v>
       </c>
@@ -16751,7 +16299,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" ht="140.25" spans="1:2">
+    <row r="27" spans="1:3" ht="165">
       <c r="A27" s="1" t="s">
         <v>204</v>
       </c>
@@ -16759,15 +16307,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" ht="89.25" spans="1:2">
+    <row r="28" spans="1:3" ht="120">
       <c r="A28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>208</v>
       </c>
@@ -16775,7 +16323,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
@@ -16784,29 +16332,29 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="69" t="s">
         <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="79" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="37"/>
-    </row>
-    <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="C32" s="80"/>
+    </row>
+    <row r="33" spans="1:3" ht="135">
+      <c r="A33" s="69"/>
+      <c r="B33" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16815,792 +16363,850 @@
     <mergeCell ref="C31:C33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId2" display="springboot3-security-jwt/src/main/java/com/sc/repository/UserInfoRepository.java at main · JavaaTechSolutions/springboot3-security-jwt (github.com)"/>
-    <hyperlink ref="E4" r:id="rId3" display="Learn Spring Course | Baeldung"/>
-    <hyperlink ref="C31" r:id="rId4" display="https://spring.io/blog/2013/11/01/exception-handling-in-spring-mvc"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C31" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="35.2866666666667" style="28" customWidth="1"/>
-    <col min="2" max="2" width="107.853333333333" style="52" customWidth="1"/>
-    <col min="3" max="3" width="76.8533333333333" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="53"/>
+    <col min="1" max="1" width="35.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="26.25">
+      <c r="A1" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="82"/>
+    </row>
+    <row r="2" spans="1:3" ht="192.75" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:3" ht="105">
+      <c r="A3" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="65" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" ht="84" spans="1:2">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:3" ht="89.25">
+      <c r="A5" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="38" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="40" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="40" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="40" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" ht="191.25" spans="1:2">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:3" ht="255">
+      <c r="A10" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" ht="51" spans="1:2">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:3" ht="60">
+      <c r="A11" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="42" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" ht="24" spans="1:2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:3" ht="26.25">
+      <c r="A13" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="54"/>
-    </row>
-    <row r="14" ht="76.5" spans="1:2">
-      <c r="A14" s="28" t="s">
+      <c r="B13" s="82"/>
+    </row>
+    <row r="14" spans="1:3" ht="90">
+      <c r="A14" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" ht="25.5" spans="1:2">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:3" ht="45">
+      <c r="A16" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" ht="25.5" spans="1:2">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:3" ht="75">
+      <c r="A18" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" ht="51" spans="2:2">
-      <c r="B19" s="56" t="s">
+    <row r="19" spans="1:3" ht="90">
+      <c r="A19" s="83"/>
+      <c r="B19" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" ht="38.25" spans="2:2">
-      <c r="B20" s="56" t="s">
+    <row r="20" spans="1:3" ht="45">
+      <c r="A20" s="83"/>
+      <c r="B20" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" ht="102" spans="2:2">
-      <c r="B21" s="56" t="s">
+    <row r="21" spans="1:3" ht="135">
+      <c r="A21" s="83"/>
+      <c r="B21" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="23" ht="38.25" spans="1:2">
-      <c r="A23" s="28" t="s">
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="83"/>
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:3" ht="60">
+      <c r="A24" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" ht="12.75" spans="1:2">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" ht="25.5" spans="2:2">
-      <c r="B27" s="56" t="s">
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="83"/>
+      <c r="B27" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" ht="25.5" spans="2:2">
-      <c r="B28" s="56" t="s">
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="83"/>
+      <c r="B28" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" ht="114.75" spans="1:3">
-      <c r="A30" s="60" t="s">
+    <row r="30" spans="1:3" ht="135">
+      <c r="A30" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" ht="63.75" spans="1:3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="15" t="s">
+    <row r="31" spans="1:3" ht="75">
+      <c r="A31" s="84"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" ht="25.5" spans="1:3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="15" t="s">
+    <row r="32" spans="1:3" ht="30">
+      <c r="A32" s="84"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" ht="153" spans="1:3">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="3" t="s">
+    <row r="33" spans="1:3" ht="210">
+      <c r="A33" s="84"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" ht="38.25" spans="1:2">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:3" ht="60">
+      <c r="A34" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" ht="51" spans="1:2">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:3" ht="60">
+      <c r="A35" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="36" ht="114.75" spans="2:2">
-      <c r="B36" s="56" t="s">
+    <row r="36" spans="1:3" ht="150">
+      <c r="A36" s="83"/>
+      <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" ht="63.75" spans="2:2">
-      <c r="B37" s="56" t="s">
+    <row r="37" spans="1:3" ht="75">
+      <c r="A37" s="83"/>
+      <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" ht="63.75" spans="2:2">
-      <c r="B38" s="56" t="s">
+    <row r="38" spans="1:3" ht="90">
+      <c r="A38" s="83"/>
+      <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="39" ht="65.25" spans="2:2">
-      <c r="B39" s="56" t="s">
+    <row r="39" spans="1:3" ht="75">
+      <c r="A39" s="83"/>
+      <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="40" ht="76.5" spans="1:2">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:3" ht="90">
+      <c r="A40" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" ht="63.75" spans="2:2">
-      <c r="B41" s="56" t="s">
+    <row r="41" spans="1:3" ht="75">
+      <c r="A41" s="83"/>
+      <c r="B41" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="56" t="s">
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="83"/>
+      <c r="B42" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="44" ht="38.25" spans="1:2">
-      <c r="A44" s="28" t="s">
+    <row r="44" spans="1:3" ht="45">
+      <c r="A44" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="45" ht="38.25" spans="2:2">
-      <c r="B45" s="56" t="s">
+    <row r="45" spans="1:3" ht="45">
+      <c r="A45" s="83"/>
+      <c r="B45" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="46" ht="51" spans="2:2">
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="1:3" ht="60">
+      <c r="A46" s="83"/>
+      <c r="B46" s="19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="47" ht="38.25" spans="2:2">
-      <c r="B47" s="26" t="s">
+    <row r="47" spans="1:3" ht="45">
+      <c r="A47" s="83"/>
+      <c r="B47" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="48" ht="63.75" spans="2:2">
-      <c r="B48" s="26" t="s">
+    <row r="48" spans="1:3" ht="90">
+      <c r="A48" s="83"/>
+      <c r="B48" s="19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="49" ht="216.75" spans="1:3">
-      <c r="A49" s="31" t="s">
+    <row r="49" spans="1:3" ht="285">
+      <c r="A49" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="43" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="62"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="28" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="43"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="21" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="28" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:3" ht="105">
+      <c r="A53" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="54" ht="63.75" spans="2:2">
-      <c r="B54" s="56" t="s">
+    <row r="54" spans="1:3" ht="105">
+      <c r="A54" s="83"/>
+      <c r="B54" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="28" t="s">
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="83"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" ht="63.75" spans="1:2">
-      <c r="A57" s="28" t="s">
+    <row r="57" spans="1:3" ht="75">
+      <c r="A57" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="58" ht="140.25" spans="2:2">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="1:3" ht="165">
+      <c r="A58" s="83"/>
+      <c r="B58" s="19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" ht="89.25" spans="2:2">
-      <c r="B59" s="56" t="s">
+    <row r="59" spans="1:3" ht="105">
+      <c r="A59" s="83"/>
+      <c r="B59" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" ht="38.25" spans="2:2">
-      <c r="B60" s="26" t="s">
+    <row r="60" spans="1:3" ht="60">
+      <c r="A60" s="83"/>
+      <c r="B60" s="19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" ht="89.25" spans="2:2">
-      <c r="B61" s="26" t="s">
+    <row r="61" spans="1:3" ht="120">
+      <c r="A61" s="83"/>
+      <c r="B61" s="19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="63" ht="24" spans="1:2">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:3" ht="26.25">
+      <c r="A63" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="B63" s="54"/>
-    </row>
-    <row r="64" ht="153" spans="1:3">
-      <c r="A64" s="28" t="s">
+      <c r="B63" s="82"/>
+    </row>
+    <row r="64" spans="1:3" ht="195">
+      <c r="A64" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="87" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="65" ht="140.25" spans="2:3">
-      <c r="B65" s="56" t="s">
+    <row r="65" spans="1:3" ht="165">
+      <c r="A65" s="83"/>
+      <c r="B65" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="64"/>
-    </row>
-    <row r="66" ht="76.5" spans="1:3">
-      <c r="A66" s="55" t="s">
+      <c r="C65" s="88"/>
+    </row>
+    <row r="66" spans="1:3" ht="90">
+      <c r="A66" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="64"/>
-    </row>
-    <row r="67" ht="25.5" spans="1:3">
-      <c r="A67" s="28" t="s">
+      <c r="C66" s="88"/>
+    </row>
+    <row r="67" spans="1:3" ht="60">
+      <c r="A67" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C67" s="64"/>
-    </row>
-    <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="28" t="s">
+      <c r="C67" s="88"/>
+    </row>
+    <row r="68" spans="1:3" ht="60">
+      <c r="A68" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="44" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="66" t="s">
+    <row r="69" spans="1:3" ht="225">
+      <c r="A69" s="83"/>
+      <c r="B69" s="45" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="66" t="s">
+    <row r="70" spans="1:3" ht="390">
+      <c r="A70" s="83"/>
+      <c r="B70" s="45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="66" t="s">
+    <row r="71" spans="1:3" ht="135">
+      <c r="A71" s="83"/>
+      <c r="B71" s="45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="65"/>
-    </row>
-    <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="55" t="s">
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="83"/>
+      <c r="B72" s="44"/>
+    </row>
+    <row r="73" spans="1:3" ht="60">
+      <c r="A73" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="44" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="55"/>
-      <c r="B74" s="65" t="s">
+    <row r="74" spans="1:3" ht="45">
+      <c r="A74" s="85"/>
+      <c r="B74" s="44" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="55"/>
-      <c r="B75" s="65" t="s">
+    <row r="75" spans="1:3" ht="45">
+      <c r="A75" s="85"/>
+      <c r="B75" s="44" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="76" ht="51" spans="1:2">
-      <c r="A76" s="28" t="s">
+    <row r="76" spans="1:3" ht="75">
+      <c r="A76" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="77" ht="114.75" spans="2:2">
-      <c r="B77" s="56" t="s">
+    <row r="77" spans="1:3" ht="150">
+      <c r="A77" s="83"/>
+      <c r="B77" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="78" ht="114.75" spans="2:2">
-      <c r="B78" s="56" t="s">
+    <row r="78" spans="1:3" ht="150">
+      <c r="A78" s="83"/>
+      <c r="B78" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="28" t="s">
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="83"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="21" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="81" ht="25.5" spans="1:2">
-      <c r="A81" s="55" t="s">
+    <row r="81" spans="1:2" ht="45">
+      <c r="A81" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="82" ht="12.75" spans="1:2">
-      <c r="A82" s="55"/>
-      <c r="B82" s="67" t="s">
+    <row r="82" spans="1:2" ht="15">
+      <c r="A82" s="85"/>
+      <c r="B82" s="46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="83" ht="63.75" spans="1:2">
-      <c r="A83" s="55"/>
-      <c r="B83" s="26" t="s">
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="85"/>
+      <c r="B83" s="19" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="84" ht="25.5" spans="1:2">
-      <c r="A84" s="55"/>
-      <c r="B84" s="26" t="s">
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="85"/>
+      <c r="B84" s="19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="85" ht="51" spans="1:2">
-      <c r="A85" s="28" t="s">
+    <row r="85" spans="1:2" ht="60">
+      <c r="A85" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="86" ht="63.75" spans="2:2">
-      <c r="B86" s="26" t="s">
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="83"/>
+      <c r="B86" s="19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="87" ht="195" customHeight="1" spans="2:2">
-      <c r="B87" s="56" t="s">
+    <row r="87" spans="1:2" ht="195" customHeight="1">
+      <c r="A87" s="83"/>
+      <c r="B87" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="88" ht="76.5" spans="1:2">
-      <c r="A88" s="28" t="s">
+    <row r="88" spans="1:2" ht="90">
+      <c r="A88" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="89" ht="76.5" spans="2:2">
-      <c r="B89" s="26" t="s">
+    <row r="89" spans="1:2" ht="120">
+      <c r="A89" s="83"/>
+      <c r="B89" s="19" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="68" t="s">
+    <row r="90" spans="1:2" ht="90">
+      <c r="A90" s="83"/>
+      <c r="B90" s="47" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="91" ht="25.5" spans="2:2">
-      <c r="B91" s="56" t="s">
+    <row r="91" spans="1:2" ht="30">
+      <c r="A91" s="83"/>
+      <c r="B91" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="92" ht="25.5" spans="2:2">
-      <c r="B92" s="56" t="s">
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="83"/>
+      <c r="B92" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="93" ht="25.5" spans="2:2">
-      <c r="B93" s="56" t="s">
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="83"/>
+      <c r="B93" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="95" ht="24" spans="1:2">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:2" ht="26.25">
+      <c r="A95" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B95" s="54"/>
-    </row>
-    <row r="96" ht="76.5" spans="1:2">
-      <c r="A96" s="55" t="s">
+      <c r="B95" s="82"/>
+    </row>
+    <row r="96" spans="1:2" ht="105">
+      <c r="A96" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="B96" s="69" t="s">
+      <c r="B96" s="48" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="97" ht="102" spans="1:2">
-      <c r="A97" s="28" t="s">
+    <row r="97" spans="1:2" ht="135">
+      <c r="A97" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="65" t="s">
+    <row r="98" spans="1:2" ht="195">
+      <c r="A98" s="83"/>
+      <c r="B98" s="44" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="99" ht="114.75" spans="2:2">
-      <c r="B99" s="56" t="s">
+    <row r="99" spans="1:2" ht="165">
+      <c r="A99" s="83"/>
+      <c r="B99" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="100" ht="76.5" spans="1:2">
-      <c r="A100" s="28" t="s">
+    <row r="100" spans="1:2" ht="120">
+      <c r="A100" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="101" ht="114.75" spans="2:2">
-      <c r="B101" s="26" t="s">
+    <row r="101" spans="1:2" ht="150">
+      <c r="A101" s="83"/>
+      <c r="B101" s="19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="102" ht="114.75" spans="2:2">
-      <c r="B102" s="26" t="s">
+    <row r="102" spans="1:2" ht="150">
+      <c r="A102" s="83"/>
+      <c r="B102" s="19" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="103" ht="153" spans="2:2">
-      <c r="B103" s="26" t="s">
+    <row r="103" spans="1:2" ht="195">
+      <c r="A103" s="83"/>
+      <c r="B103" s="19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="104" ht="51" spans="2:2">
-      <c r="B104" s="26" t="s">
+    <row r="104" spans="1:2" ht="60">
+      <c r="A104" s="83"/>
+      <c r="B104" s="19" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="68" t="s">
+    <row r="105" spans="1:2" ht="45">
+      <c r="A105" s="83"/>
+      <c r="B105" s="47" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="106" ht="165.75" spans="1:2">
-      <c r="A106" s="28" t="s">
+    <row r="106" spans="1:2" ht="210">
+      <c r="A106" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="107" ht="76.5" spans="1:2">
-      <c r="A107" s="28" t="s">
+    <row r="107" spans="1:2" ht="90">
+      <c r="A107" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="108" ht="127.5" spans="2:2">
-      <c r="B108" s="26" t="s">
+    <row r="108" spans="1:2" ht="165">
+      <c r="A108" s="83"/>
+      <c r="B108" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="109" ht="102" spans="1:2">
-      <c r="A109" s="55" t="s">
+    <row r="109" spans="1:2" ht="120">
+      <c r="A109" s="85" t="s">
         <v>364</v>
       </c>
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="55"/>
-      <c r="B110" s="26" t="s">
+    <row r="110" spans="1:2" ht="75">
+      <c r="A110" s="85"/>
+      <c r="B110" s="19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="55" t="s">
+    <row r="111" spans="1:2" ht="60">
+      <c r="A111" s="85" t="s">
         <v>367</v>
       </c>
-      <c r="B111" s="56" t="s">
+      <c r="B111" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="112" ht="38.25" spans="1:2">
-      <c r="A112" s="55"/>
-      <c r="B112" s="56" t="s">
+    <row r="112" spans="1:2" ht="45">
+      <c r="A112" s="85"/>
+      <c r="B112" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="113" ht="84" customHeight="1" spans="1:2">
-      <c r="A113" s="55"/>
-      <c r="B113" s="56" t="s">
+    <row r="113" spans="1:2" ht="84" customHeight="1">
+      <c r="A113" s="85"/>
+      <c r="B113" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="114" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A114" s="55"/>
-      <c r="B114" s="56" t="s">
+    <row r="114" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A114" s="85"/>
+      <c r="B114" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="115" ht="12.75" spans="1:2">
-      <c r="A115" s="55"/>
-      <c r="B115" s="56" t="s">
+    <row r="115" spans="1:2" ht="15">
+      <c r="A115" s="85"/>
+      <c r="B115" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1" spans="1:2">
-      <c r="A116" s="55"/>
-      <c r="B116" s="56" t="s">
+    <row r="116" spans="1:2" ht="15" customHeight="1">
+      <c r="A116" s="85"/>
+      <c r="B116" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="117" ht="63.75" spans="1:2">
-      <c r="A117" s="55"/>
-      <c r="B117" s="56" t="s">
+    <row r="117" spans="1:2" ht="90">
+      <c r="A117" s="85"/>
+      <c r="B117" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" spans="1:2">
-      <c r="A118" s="55"/>
-      <c r="B118" s="52" t="s">
+    <row r="118" spans="1:2" ht="15" customHeight="1">
+      <c r="A118" s="85"/>
+      <c r="B118" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" spans="1:2">
-      <c r="A119" s="55"/>
-      <c r="B119" s="56" t="s">
+    <row r="119" spans="1:2" ht="15" customHeight="1">
+      <c r="A119" s="85"/>
+      <c r="B119" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1" spans="1:2">
-      <c r="A120" s="55"/>
-      <c r="B120" s="52" t="s">
+    <row r="120" spans="1:2" ht="15" customHeight="1">
+      <c r="A120" s="85"/>
+      <c r="B120" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1" spans="1:2">
-      <c r="A121" s="55"/>
-      <c r="B121" s="52" t="s">
+    <row r="121" spans="1:2" ht="15" customHeight="1">
+      <c r="A121" s="85"/>
+      <c r="B121" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="55"/>
-      <c r="B122" s="52" t="s">
+    <row r="122" spans="1:2" ht="15" customHeight="1">
+      <c r="A122" s="85"/>
+      <c r="B122" s="5" t="s">
         <v>379</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A122"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A105"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A63:B63"/>
@@ -17617,340 +17223,328 @@
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A122"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C64:C67"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId2" display="https://docs.spring.io/spring-security/reference/features/authentication/password-storage.html"/>
-    <hyperlink ref="B9" r:id="rId3" display="https://github.com/spring-projects/spring-security-samples/blob/main/servlet/spring-boot/java/authentication/username-password/mfa/src/main/java/example/MfaService.java"/>
-    <hyperlink ref="B8" r:id="rId4" display="HttpSecurity (spring-security-docs 6.1.3 API)"/>
-    <hyperlink ref="B7" r:id="rId5" display="Samples :: Spring Security"/>
-    <hyperlink ref="C49" r:id="rId6" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java&#10;&#10;&#10;https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java"/>
-    <hyperlink ref="B96" r:id="rId7" display="https://www.keycloak.org/documentation&#10;https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93&#10;https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s&#10;https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java&#10;https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s&#10;https://www.keycloak.org/docs/24.0.1/authorization_services/"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C49" r:id="rId5" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java_x000a__x000a__x000a_https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B96" r:id="rId6" display="https://www.keycloak.org/documentation_x000a_https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93_x000a_https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s_x000a_https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java_x000a_https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s_x000a_https://www.keycloak.org/docs/24.0.1/authorization_services/" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="125.713333333333" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="125.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="60">
+      <c r="A1" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="75">
+      <c r="A2" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="96" t="s">
+    <row r="5" spans="1:3" ht="64.5" customHeight="1">
+      <c r="A5" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" ht="82.5" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="89" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="92" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="90"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="90"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="90"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="43"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="C12" s="91"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:11">
+      <c r="B17" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:11">
+      <c r="B18" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" ht="390">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" ht="120">
+      <c r="A22" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" ht="225">
+      <c r="A24" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:11" ht="75">
+      <c r="A26" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="1:11">
+      <c r="B28" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" ht="45">
+      <c r="A29" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" ht="135">
+      <c r="A31" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:11" ht="30">
+      <c r="A32" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:3" ht="180">
+      <c r="A33" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:3" ht="360">
+      <c r="A34" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="36" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:3" ht="45">
+      <c r="A36" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:3" ht="210">
+      <c r="A41" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="51" t="s">
+    <row r="43" spans="1:3" ht="180">
+      <c r="A43" s="71" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="10" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="25" t="s">
+    <row r="44" spans="1:3" ht="120">
+      <c r="A44" s="71"/>
+      <c r="B44" s="18" t="s">
         <v>438</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="25" t="s">
+    <row r="45" spans="1:3" ht="180">
+      <c r="A45" s="71"/>
+      <c r="B45" s="18" t="s">
         <v>442</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="25" t="s">
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="71"/>
+      <c r="B46" s="18" t="s">
         <v>444</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -17964,168 +17558,166 @@
     <mergeCell ref="C8:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C24" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C26" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C28" r:id="rId2" display="https://www.digitalocean.com/community/tutorials/spring-data-jpa"/>
-    <hyperlink ref="K26" r:id="rId3" display="https://docs.jboss.org/hibernate/orm/6.3/introduction/html_single/Hibernate_Introduction.html#entities"/>
-    <hyperlink ref="C34" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#pc-cascade"/>
-    <hyperlink ref="C40" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#associations-many-to-one"/>
-    <hyperlink ref="C41" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
-    <hyperlink ref="C42" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="K26" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C34" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C42" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="111.14" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="93" t="s">
         <v>446</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:3" ht="90">
+      <c r="A2" s="81"/>
+      <c r="B2" s="10" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" ht="63.75" spans="1:2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" s="81"/>
+      <c r="B3" s="10" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" s="81"/>
+      <c r="B4" s="10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="81"/>
+      <c r="B5" s="10" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" ht="114.75" spans="1:2">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:3" ht="135">
+      <c r="A6" s="81"/>
       <c r="B6" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="81"/>
+      <c r="B7" s="24" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="30"/>
-      <c r="C8" s="45"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="30"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="30"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="30"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="30"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="30"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="30"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="30"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="30"/>
+      <c r="A8" s="81"/>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="81"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="81"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="81"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="81"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="81"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="81"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="81"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="81"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="81"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="81"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="81"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="81"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="81"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="81"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="81"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="81"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="81"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="81"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="30"/>
+      <c r="A27" s="81"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="30"/>
+      <c r="A28" s="81"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="81"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="81"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="81"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="30"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="30"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="30"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="30"/>
-    </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="30" t="s">
+      <c r="A32" s="81"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="81"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="81"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="81"/>
+    </row>
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="81" t="s">
         <v>454</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -18133,88 +17725,88 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="11" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31" t="s">
+    <row r="38" spans="1:2" ht="18.75">
+      <c r="A38" s="81"/>
+      <c r="B38" s="24" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="30"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="30"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="30"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="30"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="30"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="30"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="30"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="30"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="30"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="30"/>
+    <row r="39" spans="1:2">
+      <c r="A39" s="81"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="81"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="81"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="81"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="81"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="81"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="81"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="81"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="81"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="81"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="30"/>
+      <c r="A49" s="81"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="30"/>
+      <c r="A50" s="81"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="30"/>
+      <c r="A51" s="81"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="30"/>
+      <c r="A52" s="81"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="30"/>
+      <c r="A53" s="81"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="30"/>
+      <c r="A54" s="81"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="30"/>
+      <c r="A55" s="81"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="30"/>
+      <c r="A56" s="81"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="30"/>
+      <c r="A57" s="81"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="30"/>
+      <c r="A58" s="81"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="30"/>
+      <c r="A59" s="81"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="30"/>
+      <c r="A60" s="81"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="30"/>
+      <c r="A61" s="81"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="30"/>
+      <c r="A62" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18222,96 +17814,92 @@
     <mergeCell ref="A36:A62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.4266666666667" customWidth="1"/>
-    <col min="3" max="3" width="45.4266666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="94" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="31" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="38"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B7" s="91"/>
+      <c r="C7" s="30"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -18319,12 +17907,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -18349,31 +17937,29 @@
     <mergeCell ref="B1:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://java-design-patterns.com/patterns/"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.8533333333333" customWidth="1"/>
-    <col min="2" max="2" width="82.2866666666667" customWidth="1"/>
-    <col min="3" max="3" width="30.14" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="140.25" spans="1:2">
+    <row r="2" spans="1:4" ht="165">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -18381,7 +17967,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" ht="25.5" spans="1:2">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" t="s">
         <v>474</v>
       </c>
@@ -18389,7 +17975,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -18397,7 +17983,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>478</v>
       </c>
@@ -18405,7 +17991,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>480</v>
       </c>
@@ -18413,7 +17999,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -18421,7 +18007,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1" spans="1:2">
+    <row r="9" spans="1:4" ht="45" customHeight="1">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -18429,7 +18015,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" ht="63.75" spans="1:2">
+    <row r="10" spans="1:4" ht="75">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -18437,8 +18023,8 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:4" ht="75">
+      <c r="A11" s="80" t="s">
         <v>488</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -18451,8 +18037,8 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="37"/>
+    <row r="12" spans="1:4" ht="90">
+      <c r="A12" s="80"/>
       <c r="B12" s="2" t="s">
         <v>492</v>
       </c>
@@ -18468,7 +18054,6 @@
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Java-Spring\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3D2209-98FD-46E5-9F9B-66A89C4D1DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="808">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -11692,50 +11686,14 @@
     <t>gRPC</t>
   </si>
   <si>
-    <t>HTTP1.1 vs HTTP2</t>
-  </si>
-  <si>
-    <t>gRPC - Unary</t>
-  </si>
-  <si>
-    <t>gRPC - Server - streaming</t>
-  </si>
-  <si>
-    <t>Streaming vs Unay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Streaming:
-  + Size - Potentially large / unknown: Huge file, Send info in chunks
-  + Time consuming - periiodic update
-  + More efficient than multiple RPC calls - avoid polling
- - Unary:
-  + More efficient than streaming than RPC
-  + Size is not too big &amp; not very time consiming</t>
-  </si>
-  <si>
-    <t>Client Streaming</t>
-  </si>
-  <si>
-    <t>Bidirectional - Streaming</t>
-  </si>
-  <si>
-    <t>Metadata = Headers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Ex: 
-   + Content-Type: application/json (for gRPC, application/grpc)
-   + Status: INVALID ARGUMENT, FAILED PRECONDITION, Trailer: "Custom Application Specific Status Code"
- - Metadata is sent in the initial response
- - Trailer:
-   + Are metadata sent by the server to the client at the end of an RPC
-   + They provide information about the status of the RPC
-   + It can include additional details such as custom metadata or error information</t>
-  </si>
-  <si>
-    <t>gRPC Channel</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - gRPC: Client app directly invokes Server method on a different process/ machine
  - How to client directly invokes: proto file
  - Service is defined using proto
@@ -11747,7 +11705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>gRPC Communication Patterns</t>
@@ -11757,7 +11715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:
@@ -11771,7 +11729,20 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>HTTP1.1 vs HTTP2</t>
+  </si>
+  <si>
+    <t>gRPC - Unary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Client send request to Server -&gt; Connection is established -&gt; Server send response back to the Client
  - How Client and Server interact: 
    + Proto file generate Client </t>
@@ -11782,7 +11753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Stub</t>
@@ -11792,7 +11763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(fake service)</t>
@@ -11803,7 +11774,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -11813,7 +11784,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">and for Server </t>
@@ -11824,7 +11795,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Service</t>
@@ -11834,7 +11805,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">(real service) file
@@ -11846,7 +11817,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>channel</t>
@@ -11856,7 +11827,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> we establish the connection with the server, after that use </t>
@@ -11867,7 +11838,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Stub</t>
@@ -11877,7 +11848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (fake service) invoke to </t>
@@ -11888,7 +11859,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Service</t>
@@ -11898,7 +11869,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (real service). It's a Http request will be sent to the server and Executed and response
@@ -11907,7 +11878,17 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>gRPC - Server - streaming</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - The Client send </t>
     </r>
     <r>
@@ -11916,7 +11897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>a request</t>
@@ -11926,7 +11907,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for which the server might send </t>
@@ -11937,7 +11918,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>multiple responses</t>
@@ -11947,7 +11928,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. When something happens the server will give one response to the client 
@@ -11969,7 +11950,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">stream observer object </t>
@@ -11979,7 +11960,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(NOT thread safe)
@@ -11988,7 +11969,32 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>Streaming vs Unay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Streaming:
+  + Size - Potentially large / unknown: Huge file, Send info in chunks
+  + Time consuming - periiodic update
+  + More efficient than multiple RPC calls - avoid polling
+ - Unary:
+  + More efficient than streaming than RPC
+  + Size is not too big &amp; not very time consiming</t>
+  </si>
+  <si>
+    <t>Client Streaming</t>
+  </si>
+  <si>
+    <t>Bidirectional - Streaming</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Both client and server will send a stream of messages.
  - (</t>
     </r>
@@ -11998,7 +12004,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Independent stream</t>
@@ -12008,12 +12014,46 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">) Client keeps sending messages to the server and server keeps responding
  - </t>
     </r>
+  </si>
+  <si>
+    <t>Metadata = Headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Ex: 
+   + Content-Type: application/json (for gRPC, application/grpc)
+   + Status: INVALID ARGUMENT, FAILED PRECONDITION, Trailer: "Custom Application Specific Status Code"
+ - Metadata is sent in the initial response
+ - Trailer:
+   + Are metadata sent by the server to the client at the end of an RPC
+   + They provide information about the status of the RPC
+   + It can include additional details such as custom metadata or error information</t>
+  </si>
+  <si>
+    <t>gRPC Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Channel is an abstract over a connection and presents the connection. 
+ - Is a virtual connection to an endpoint on a gRPC server. 
+ - It manages the lifecycle of remote procedure call (RPC) invocations, providing essential features such as connection pooling, load balancing, and retry policies. 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Creation: A gRPC channel is created to connect to a specific server address, which can include options for secure or insecure connections.
+ - Reusability: Channels are designed to be reused for multiple gRPC calls, which helps in managing resources efficiently
+ - Configuration: Channels can be configured with various options like timeouts, load balancing strategies, and custom interceptors
+ - Lifecycle Management: Channels handle the underlying transport connections, including connection pooling, retries, and error handling
+ - Thread Safety: Channels are thread-safe, allowing concurrent RPC calls to be made from different threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Load Balancing: Channels can be configured with different load balancing strategies to distribute the load across multiple server instances
+ - Interceptors: Channels can use client interceptors to add behavior like logging, metrics, or retry logic to the RPC calls
+ - Security: Secure channels can be created using TLS/SSL for encrypted communication.</t>
   </si>
   <si>
     <t xml:space="preserve"> - MannagedChannel-gRPC takes care of it
@@ -12027,44 +12067,28 @@
    + Can be shared with multiple stubs for server (BankService, TransferService,...)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Channel is an abstract over a connection and presents the connection. 
- - Is a virtual connection to an endpoint on a gRPC server. 
- - It manages the lifecycle of remote procedure call (RPC) invocations, providing essential features such as connection pooling, load balancing, and retry policies. 
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Creation: A gRPC channel is created to connect to a specific server address, which can include options for secure or insecure connections.
- - Reusability: Channels are designed to be reused for multiple gRPC calls, which helps in managing resources efficiently
- - Configuration: Channels can be configured with various options like timeouts, load balancing strategies, and custom interceptors
- - Lifecycle Management: Channels handle the underlying transport connections, including connection pooling, retries, and error handling
- - Thread Safety: Channels are thread-safe, allowing concurrent RPC calls to be made from different threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Load Balancing: Channels can be configured with different load balancing strategies to distribute the load across multiple server instances
- - Interceptors: Channels can use client interceptors to add behavior like logging, metrics, or retry logic to the RPC calls
- - Security: Secure channels can be created using TLS/SSL for encrypted communication.</t>
-  </si>
-  <si>
     <t>Persitent connection</t>
+  </si>
+  <si>
+    <t>Load Balancing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12189,6 +12213,120 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -12237,16 +12375,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12289,8 +12419,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -12374,88 +12678,339 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12465,231 +13020,196 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -12705,19 +13225,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Ảnh 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Ảnh 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12749,19 +13263,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Ảnh 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Ảnh 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12793,19 +13301,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Ảnh 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Ảnh 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12826,7 +13328,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -12842,19 +13344,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12875,7 +13371,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -12891,19 +13387,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12924,7 +13414,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -12940,19 +13430,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12973,7 +13457,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -12989,19 +13473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13273,252 +13751,254 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="39.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="95.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50" style="5" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.14" style="9"/>
+    <col min="2" max="2" width="39.5733333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="9" customWidth="1"/>
+    <col min="6" max="6" width="50" style="9" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="90">
-      <c r="A1" s="5">
+    <row r="1" ht="76.5" spans="1:3">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75">
-      <c r="A2" s="5">
+    <row r="2" ht="63.75" spans="1:3">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="5">
+    <row r="3" ht="38.25" spans="1:3">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="5">
+    <row r="4" ht="38.25" spans="1:3">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="89" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="240">
-      <c r="A5" s="5">
+    <row r="5" ht="178.5" spans="1:3">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="5">
+    <row r="6" ht="25.5" spans="1:3">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="300">
-      <c r="A7" s="5">
+    <row r="7" ht="229.5" spans="1:3">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="245.25" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" ht="245.25" customHeight="1" spans="1:3">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="223.5" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" ht="223.5" customHeight="1" spans="1:3">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="300">
-      <c r="A10" s="5">
+    <row r="10" ht="204" spans="1:4">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="B11" s="5" t="s">
+    <row r="11" ht="25.5" spans="2:3">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="150">
-      <c r="B12" s="5" t="s">
+    <row r="12" ht="102" spans="2:3">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="180">
-      <c r="B13" s="5" t="s">
+    <row r="13" ht="140.25" spans="2:3">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="288.75" customHeight="1">
-      <c r="B14" s="5" t="s">
+    <row r="14" ht="288.75" customHeight="1" spans="2:7">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
-      <c r="B15" s="5" t="s">
+    <row r="15" ht="38.25" spans="2:3">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="240.75" customHeight="1">
-      <c r="B16" s="5" t="s">
+    <row r="16" ht="240.75" customHeight="1" spans="2:2">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="180">
-      <c r="B17" s="5" t="s">
+    <row r="17" ht="153" spans="2:3">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="73" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="180">
-      <c r="B18" s="5" t="s">
+    <row r="18" ht="153" spans="2:3">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="73" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.2866666666667" customWidth="1"/>
+    <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="38" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
+    <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
         <v>497</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>498</v>
       </c>
     </row>
@@ -13530,11 +14010,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60">
+    <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
         <v>501</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13570,11 +14050,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75">
+    <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
         <v>511</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>512</v>
       </c>
     </row>
@@ -13586,74 +14066,74 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
         <v>518</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
+    <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
         <v>520</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="38" t="s">
         <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="60">
+    <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
         <v>526</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>530</v>
       </c>
@@ -13690,46 +14170,46 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="69" t="s">
+    <row r="28" ht="63.75" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="69"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="69"/>
+      <c r="A30" s="8"/>
       <c r="B30" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="69"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="69"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="69"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>546</v>
       </c>
@@ -13739,217 +14219,216 @@
     <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="101.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="55.8533333333333" style="29" customWidth="1"/>
+    <col min="2" max="2" width="54.14" style="30" customWidth="1"/>
+    <col min="3" max="3" width="101.713333333333" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="81" t="s">
+    <row r="1" ht="12.75" spans="1:1">
+      <c r="A1" s="32" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="81"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="95"/>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="95"/>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="95"/>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="95"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="95"/>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="95"/>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="95"/>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="95"/>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="81"/>
-      <c r="B11" s="95"/>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="81"/>
-      <c r="B12" s="95"/>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="81"/>
-      <c r="B13" s="95"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="81"/>
-      <c r="B14" s="95"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="95"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="95"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="95"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="95"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="95"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="95"/>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="95"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75">
-      <c r="A22" s="81"/>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.75">
-      <c r="A23" s="81"/>
-      <c r="B23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" ht="18.75">
-      <c r="A24" s="81"/>
-      <c r="B24" s="26"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.75">
-      <c r="A26" s="81" t="s">
+    <row r="2" ht="12.75" spans="1:3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" ht="12.75" spans="1:2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+    </row>
+    <row r="4" ht="12.75" spans="1:2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+    </row>
+    <row r="5" ht="12.75" spans="1:2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+    </row>
+    <row r="6" ht="12.75" spans="1:2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" ht="12.75" spans="1:2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+    </row>
+    <row r="8" ht="12.75" spans="1:2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+    </row>
+    <row r="9" ht="12.75" spans="1:2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+    </row>
+    <row r="10" ht="12.75" spans="1:2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" ht="12.75" spans="1:2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" ht="12.75" spans="1:2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" ht="12.75" spans="1:2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+    </row>
+    <row r="14" ht="12.75" spans="1:2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+    </row>
+    <row r="22" ht="17.25" spans="1:2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:2">
+      <c r="A26" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="30" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75">
-      <c r="A27" s="81"/>
-      <c r="B27" s="21" t="s">
+    <row r="27" ht="17.25" spans="1:2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="30" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75">
-      <c r="A28" s="81"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" ht="17.25" spans="1:2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="30" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="81" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="32"/>
+    </row>
+    <row r="30" ht="12.75" spans="1:3">
+      <c r="A30" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="31" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="81"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="22" t="s">
+    <row r="31" ht="12.75" spans="1:3">
+      <c r="A31" s="32"/>
+      <c r="C31" s="31" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="81"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="22" t="s">
+    <row r="32" ht="12.75" spans="1:3">
+      <c r="A32" s="32"/>
+      <c r="C32" s="31" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="81"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="22" t="s">
+    <row r="33" ht="12.75" spans="1:3">
+      <c r="A33" s="32"/>
+      <c r="C33" s="31" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="165">
-      <c r="A35" s="81" t="s">
+    <row r="35" ht="114.75" spans="1:3">
+      <c r="A35" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="92" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="105">
-      <c r="A36" s="81"/>
-      <c r="B36" s="21" t="s">
+    <row r="36" ht="89.25" spans="1:3">
+      <c r="A36" s="32"/>
+      <c r="B36" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="92" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="105">
-      <c r="A37" s="81"/>
-      <c r="B37" s="21" t="s">
+    <row r="37" ht="76.5" spans="1:3">
+      <c r="A37" s="32"/>
+      <c r="B37" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="36" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60">
-      <c r="A38" s="81"/>
-      <c r="B38" s="21" t="s">
+    <row r="38" ht="51" spans="1:3">
+      <c r="A38" s="32"/>
+      <c r="B38" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="36" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="32" t="s">
         <v>567</v>
       </c>
     </row>
@@ -13964,305 +14443,307 @@
     <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="109" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32" style="10" customWidth="1"/>
+    <col min="2" max="2" width="109" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="150">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="127.5" spans="1:3">
+      <c r="A1" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="89" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="24" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="200.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="200.25" customHeight="1" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="120">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="102" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="25.5" spans="1:2">
+      <c r="A4" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="89" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="38.25" spans="1:1">
+      <c r="A6" s="10" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="38.25" spans="1:2">
+      <c r="A7" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="150">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="114.75" spans="1:2">
+      <c r="A8" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="51" spans="1:2">
+      <c r="A12" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60">
-      <c r="A13" s="6" t="s">
+    <row r="13" ht="51" spans="1:2">
+      <c r="A13" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="120">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="89.25" spans="1:2">
+      <c r="A14" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120">
-      <c r="A15" s="6" t="s">
+    <row r="15" ht="102" spans="1:2">
+      <c r="A15" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="225">
-      <c r="A17" s="6" t="s">
+    <row r="17" ht="178.5" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="6" t="s">
+    <row r="18" ht="25.5" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="345">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="280.5" spans="1:2">
+      <c r="A19" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="10" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="17"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="25"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="10" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="10" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="6" t="s">
+    <row r="33" ht="38.25" spans="1:2">
+      <c r="A33" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="135">
-      <c r="A34" s="6" t="s">
+    <row r="34" ht="114.75" spans="1:2">
+      <c r="A34" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="10" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="10" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="10" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="10" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="10" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="10" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="10" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="10" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="96" t="s">
+      <c r="A54" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="96"/>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="10" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="96"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="10" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="70" t="s">
+    <row r="58" ht="25.5" spans="1:2">
+      <c r="A58" s="27" t="s">
         <v>623</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="10" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="70"/>
-      <c r="B59" s="19" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="19" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="19" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="28" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="70"/>
-      <c r="B62" s="19" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="70"/>
-      <c r="B63" s="19" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="28" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="70"/>
-      <c r="B64" s="19" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28" t="s">
         <v>630</v>
       </c>
     </row>
@@ -14272,407 +14753,417 @@
     <mergeCell ref="A58:A64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1" display="HƯỚNG DẪN CÁC BƯỚC PHÁT TRIỂN HỆ THỐNG MICROSERVICE VỚI DOCKER | CO-WELL Asia"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.14" customWidth="1"/>
+    <col min="2" max="2" width="110.853333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="105">
-      <c r="A1" s="69" t="s">
+    <row r="1" ht="89.25" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105">
-      <c r="A2" s="69"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" ht="89.25" spans="1:2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="17" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="135">
-      <c r="A3" s="69"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="102" spans="1:2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90">
-      <c r="A4" s="69" t="s">
+    <row r="4" ht="63.75" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="69"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" ht="63.75" spans="1:2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="17" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="17" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="69" t="s">
+    <row r="7" ht="38.25" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="69"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" ht="38.25" spans="1:2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="17" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="17" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="17" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="17" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="69" t="s">
+    <row r="12" ht="51" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="69"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" ht="63.75" spans="1:2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="17" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="165">
-      <c r="A14" s="69"/>
-      <c r="B14" s="10" t="s">
+    <row r="14" ht="127.5" spans="1:2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="17" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="17" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="17" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="120">
-      <c r="A17" s="69"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" ht="102" spans="1:2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="17" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="69"/>
-      <c r="B18" s="10" t="s">
+    <row r="18" ht="38.25" spans="1:2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="17" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="17" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="18" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="195">
-      <c r="A21" s="97" t="s">
+    <row r="21" ht="165.75" spans="1:2">
+      <c r="A21" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="17" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="300">
-      <c r="A22" s="97"/>
-      <c r="B22" s="10" t="s">
+    <row r="22" ht="242.25" spans="1:2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="195">
-      <c r="A23" s="97"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" ht="153" spans="1:2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="17" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="97"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" ht="38.25" spans="1:2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="17" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="97"/>
-      <c r="B25" s="10" t="s">
+    <row r="25" ht="25.5" spans="1:2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="97"/>
-      <c r="B26" s="10" t="s">
+    <row r="26" ht="51" spans="1:2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="17" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="97"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="97"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="18" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="98" t="s">
+    <row r="29" ht="38.25" spans="1:2">
+      <c r="A29" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="17" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="69"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="17" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="17" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="17" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="97" t="s">
+    <row r="34" ht="51" spans="1:2">
+      <c r="A34" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="60">
-      <c r="A35" s="69"/>
-      <c r="B35" s="2" t="s">
+    <row r="35" ht="38.25" spans="1:2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75">
-      <c r="A36" s="69"/>
-      <c r="B36" s="2" t="s">
+    <row r="36" ht="51" spans="1:2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="5" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="69"/>
-      <c r="B37" s="2" t="s">
+    <row r="37" ht="51" spans="1:2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="69" t="s">
+    <row r="38" ht="25.5" spans="1:2">
+      <c r="A38" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="69"/>
-      <c r="B39" s="2" t="s">
+    <row r="39" ht="76.5" spans="1:2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="69"/>
-      <c r="B40" s="2" t="s">
+    <row r="40" ht="25.5" spans="1:2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="69"/>
-      <c r="B41" s="2" t="s">
+    <row r="41" ht="25.5" spans="1:2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="69"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="69"/>
-      <c r="B43" s="2" t="s">
+    <row r="43" ht="25.5" spans="1:2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="1" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" ht="25.5" spans="1:2">
+      <c r="A45" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="22" t="s">
         <v>683</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A43"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B45" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="135">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="89.25" spans="1:2">
+      <c r="A1" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="89" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="210">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="178.5" spans="1:2">
+      <c r="A2" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>687</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.4266666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -14697,254 +15188,256 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="49.14" customWidth="1"/>
+    <col min="3" max="3" width="69.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="26.25" customHeight="1" spans="1:2">
+      <c r="A1" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="180">
-      <c r="A3" s="99" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" ht="140.25" spans="1:3">
+      <c r="A3" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="150">
-      <c r="A4" s="99"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" ht="127.5" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="99"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="99"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="99"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100" t="s">
+    <row r="8" ht="76.5" spans="1:3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="165">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="2" t="s">
+    <row r="9" ht="102" spans="1:3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="105">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="2" t="s">
+    <row r="10" ht="76.5" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="5" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="90">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="2" t="s">
+    <row r="12" ht="63.75" spans="1:3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="99"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="270">
-      <c r="A14" s="99"/>
-      <c r="B14" s="87" t="s">
+    <row r="14" ht="191.25" spans="1:3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="210">
-      <c r="A15" s="99"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="10" t="s">
+    <row r="15" ht="153" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="120">
-      <c r="A16" s="99"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="10" t="s">
+    <row r="16" ht="102" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="99"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="10" t="s">
+    <row r="17" ht="38.25" spans="1:3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="90">
-      <c r="A18" s="99"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="2" t="s">
+    <row r="18" ht="76.5" spans="1:3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="99"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="99"/>
-      <c r="B20" s="11" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="99"/>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="99" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
         <v>717</v>
       </c>
       <c r="B24" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="99"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="99"/>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="99"/>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="90">
-      <c r="A28" s="99"/>
-      <c r="B28" s="2" t="s">
+    <row r="28" ht="51" spans="1:2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="180">
-      <c r="A29" s="99"/>
-      <c r="B29" s="2" t="s">
+    <row r="29" ht="127.5" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="5" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="180">
-      <c r="A31" s="99" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="19"/>
+    </row>
+    <row r="31" ht="102" spans="1:6">
+      <c r="A31" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" ht="75">
-      <c r="A32" s="99"/>
-      <c r="B32" s="2" t="s">
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" ht="51" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="5" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30">
-      <c r="A33" s="99"/>
-      <c r="B33" s="2" t="s">
+    <row r="33" ht="25.5" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="5" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="99"/>
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="99"/>
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="5" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="150">
-      <c r="A36" s="99"/>
-      <c r="B36" s="2" t="s">
+    <row r="36" ht="114.75" spans="1:3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14955,844 +15448,856 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="117" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="117" style="9" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="38.25" spans="1:2">
+      <c r="A1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="18" t="s">
+    <row r="2" ht="38.25" spans="1:2">
+      <c r="A2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45">
-      <c r="A3" s="18" t="s">
+    <row r="3" ht="38.25" spans="1:2">
+      <c r="A3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="89" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="360">
-      <c r="A4" s="18" t="s">
+    <row r="4" ht="280.5" spans="1:2">
+      <c r="A4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="88" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="18" t="s">
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="38.25" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="89" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="66" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" ht="25.5" spans="1:2">
+      <c r="A9" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="89" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="195">
-      <c r="A12" s="18" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" ht="165.75" spans="1:1">
+      <c r="A12" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="52" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="74" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="76" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="51">
-      <c r="A16" s="53" t="s">
+    <row r="16" ht="48" spans="1:2">
+      <c r="A16" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="30"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="1" t="s">
+      <c r="B19" s="40"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" ht="25.5" spans="1:2">
+      <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" ht="25.5" spans="1:2">
+      <c r="A29" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="1" t="s">
+    <row r="37" ht="25.5" spans="1:2">
+      <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="1" t="s">
+    <row r="38" ht="51" spans="1:2">
+      <c r="A38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="1" t="s">
+    <row r="39" ht="38.25" spans="1:2">
+      <c r="A39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="69" t="s">
+    <row r="40" ht="38.25" spans="1:2">
+      <c r="A40" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="69"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="69"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="69"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="60">
-      <c r="A44" s="69" t="s">
+    <row r="44" ht="51" spans="1:2">
+      <c r="A44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="60">
-      <c r="A45" s="69"/>
-      <c r="B45" s="19" t="s">
+    <row r="45" ht="51" spans="1:2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="69" t="s">
+    <row r="46" ht="63.75" spans="1:2">
+      <c r="A46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="69"/>
-      <c r="B47" s="6" t="s">
+    <row r="47" ht="51" spans="1:2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="5" t="s">
+    <row r="48" ht="38.25" spans="1:2">
+      <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="1" t="s">
+    <row r="49" ht="63.75" spans="1:2">
+      <c r="A49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="1" t="s">
+    <row r="50" ht="63.75" spans="1:2">
+      <c r="A50" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="70" t="s">
+    <row r="51" ht="76.5" spans="1:2">
+      <c r="A51" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="135">
-      <c r="A52" s="70"/>
-      <c r="B52" s="6" t="s">
+    <row r="52" ht="114.75" spans="1:2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="70"/>
-      <c r="B53" s="6" t="s">
+    <row r="53" ht="76.5" spans="1:2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="71" t="s">
+    <row r="54" ht="51" spans="1:2">
+      <c r="A54" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="120">
-      <c r="A55" s="71"/>
-      <c r="B55" s="6" t="s">
+    <row r="55" ht="102" spans="1:2">
+      <c r="A55" s="53"/>
+      <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="71"/>
-      <c r="B56" s="19" t="s">
+    <row r="56" ht="127.5" spans="1:2">
+      <c r="A56" s="53"/>
+      <c r="B56" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="71"/>
-      <c r="B57" s="19" t="s">
+    <row r="57" ht="165.75" spans="1:2">
+      <c r="A57" s="53"/>
+      <c r="B57" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="240">
-      <c r="A58" s="71"/>
-      <c r="B58" s="6" t="s">
+    <row r="58" ht="178.5" spans="1:2">
+      <c r="A58" s="53"/>
+      <c r="B58" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="90">
-      <c r="A59" s="71"/>
-      <c r="B59" s="57" t="s">
+    <row r="59" ht="76.5" spans="1:2">
+      <c r="A59" s="53"/>
+      <c r="B59" s="79" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="409.5">
-      <c r="A60" s="71"/>
-      <c r="B60" s="58" t="s">
+    <row r="60" ht="318.75" spans="1:2">
+      <c r="A60" s="53"/>
+      <c r="B60" s="80" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="1" t="s">
+    <row r="61" ht="63.75" spans="1:2">
+      <c r="A61" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="255">
-      <c r="A62" s="1" t="s">
+    <row r="62" ht="204" spans="1:2">
+      <c r="A62" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="135">
-      <c r="A63" s="1" t="s">
+    <row r="63" ht="115.5" spans="1:2">
+      <c r="A63" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="135">
-      <c r="A64" s="59" t="s">
+    <row r="64" ht="116.25" spans="1:2">
+      <c r="A64" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="165">
-      <c r="A65" s="72" t="s">
+    <row r="65" ht="129" spans="1:2">
+      <c r="A65" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="72"/>
-      <c r="B66" s="46" t="s">
+    <row r="66" ht="14.25" spans="1:2">
+      <c r="A66" s="81"/>
+      <c r="B66" s="64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="73" t="s">
+    <row r="67" ht="13.5" spans="1:2">
+      <c r="A67" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="83" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="60">
-      <c r="A68" s="74"/>
-      <c r="B68" s="35" t="s">
+    <row r="68" ht="51" spans="1:2">
+      <c r="A68" s="84"/>
+      <c r="B68" s="49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="74"/>
-      <c r="B69" s="58" t="s">
+    <row r="69" ht="25.5" spans="1:2">
+      <c r="A69" s="84"/>
+      <c r="B69" s="80" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="74"/>
-      <c r="B70" s="60" t="s">
+      <c r="A70" s="84"/>
+      <c r="B70" s="83" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="69" t="s">
+    <row r="71" ht="51" spans="1:2">
+      <c r="A71" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="69"/>
-      <c r="B72" s="46" t="s">
+      <c r="A72" s="8"/>
+      <c r="B72" s="64" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="60">
-      <c r="A73" s="69"/>
-      <c r="B73" s="6" t="s">
+    <row r="73" ht="51" spans="1:2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="90">
-      <c r="A74" s="1" t="s">
+    <row r="74" ht="76.5" spans="1:2">
+      <c r="A74" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="60">
-      <c r="A75" s="69" t="s">
+    <row r="75" ht="38.25" spans="1:2">
+      <c r="A75" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="69"/>
-      <c r="B76" s="6" t="s">
+    <row r="76" ht="63.75" spans="1:2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="75">
-      <c r="A77" s="69"/>
-      <c r="B77" s="6" t="s">
+    <row r="77" ht="63.75" spans="1:2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="90">
-      <c r="A78" s="69"/>
-      <c r="B78" s="6" t="s">
+    <row r="78" ht="76.5" spans="1:2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="69"/>
-      <c r="B79" s="19" t="s">
+    <row r="79" ht="63.75" spans="1:2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="69"/>
-      <c r="B80" s="46" t="s">
+      <c r="A80" s="8"/>
+      <c r="B80" s="64" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
+    <row r="82" ht="13.5" spans="1:1">
+      <c r="A82" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="74" t="s">
+    <row r="83" ht="14.25" spans="1:3">
+      <c r="A83" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="75" t="s">
+      <c r="B83" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="86" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="74"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="62" t="s">
+    <row r="84" ht="14.25" spans="1:3">
+      <c r="A84" s="84"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="86" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="74"/>
-      <c r="B85" s="75" t="s">
+    <row r="85" ht="14.25" spans="1:3">
+      <c r="A85" s="84"/>
+      <c r="B85" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="62" t="s">
+    <row r="86" ht="14.25" spans="1:3">
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="86" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="74"/>
-      <c r="B87" s="61" t="s">
+    <row r="87" ht="14.25" spans="1:3">
+      <c r="A87" s="84"/>
+      <c r="B87" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="62" t="s">
+      <c r="C87" s="86" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="74"/>
-      <c r="B88" s="75" t="s">
+    <row r="88" ht="14.25" spans="1:3">
+      <c r="A88" s="84"/>
+      <c r="B88" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="62" t="s">
+      <c r="C88" s="86" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="74"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="62" t="s">
+    <row r="89" ht="14.25" spans="1:3">
+      <c r="A89" s="84"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="86" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="74"/>
-      <c r="B90" s="61" t="s">
+    <row r="90" ht="14.25" spans="1:3">
+      <c r="A90" s="84"/>
+      <c r="B90" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="62"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="74"/>
-      <c r="B91" s="75" t="s">
+      <c r="C90" s="86"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:3">
+      <c r="A91" s="84"/>
+      <c r="B91" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="86" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="74"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="62" t="s">
+    <row r="92" ht="14.25" spans="1:3">
+      <c r="A92" s="84"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="86" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="74"/>
-      <c r="B93" s="61" t="s">
+    <row r="93" ht="14.25" spans="1:3">
+      <c r="A93" s="84"/>
+      <c r="B93" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
+    <row r="94" ht="13.5" spans="1:1">
+      <c r="A94" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="225">
-      <c r="A95" s="1" t="s">
+    <row r="95" ht="191.25" spans="1:2">
+      <c r="A95" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="10" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A60"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="A83:A93"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23.2866666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="195">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="153" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="76.5" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="180">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="153" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>736</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.8533333333333" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="75">
+    <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
         <v>737</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="165">
+    <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
         <v>739</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="150">
+    <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
         <v>741</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75">
+    <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
         <v>743</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60">
+    <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
         <v>745</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60">
+    <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
         <v>747</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75">
+    <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
         <v>749</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="8" t="s">
         <v>751</v>
       </c>
       <c r="B9" t="s">
@@ -15800,31 +16305,31 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="8"/>
       <c r="B14" t="s">
         <v>757</v>
       </c>
@@ -15834,128 +16339,130 @@
     <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.5733333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75">
+    <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
         <v>762</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
         <v>764</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
         <v>767</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="105">
-      <c r="A27" s="101" t="s">
+    <row r="27" ht="89.25" spans="1:2">
+      <c r="A27" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="101"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="101"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="101"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>771</v>
       </c>
@@ -15965,147 +16472,154 @@
     <mergeCell ref="A27:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://projectreactor.io/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26" style="104" customWidth="1"/>
-    <col min="2" max="2" width="111.7109375" style="104" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="104"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="111.713333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="102" t="s">
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103" t="s">
+    <row r="2" ht="63.75" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="135">
-      <c r="A3" s="105" t="s">
+    <row r="3" ht="114.75" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45">
-      <c r="A4" s="105" t="s">
+    <row r="4" ht="38.25" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="195">
-      <c r="A5" s="105" t="s">
+    <row r="5" ht="165.75" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" ht="89.25" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" ht="191.25" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" ht="89.25" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="105" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="120">
-      <c r="A7" s="105" t="s">
-        <v>789</v>
-      </c>
-      <c r="B7" s="103" t="s">
+    <row r="12" ht="102" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="270">
-      <c r="A8" s="105" t="s">
-        <v>790</v>
-      </c>
-      <c r="B8" s="103" t="s">
+      <c r="B12" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="105" t="s">
-        <v>791</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="105" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="105" t="s">
-        <v>794</v>
-      </c>
-      <c r="B11" s="103" t="s">
+    <row r="13" ht="63.75" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="120">
-      <c r="A12" s="105" t="s">
-        <v>795</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="102" t="s">
-        <v>797</v>
-      </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" ht="63.75" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="120">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103" t="s">
+    <row r="15" ht="38.25" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103" t="s">
+    <row r="16" ht="114.75" spans="1:2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="135">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103" t="s">
-        <v>802</v>
-      </c>
-    </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="102"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="2" t="s">
         <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -16114,247 +16628,249 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="139.7109375" customWidth="1"/>
+    <col min="2" max="2" width="122.713333333333" customWidth="1"/>
+    <col min="3" max="3" width="139.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="303" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="303" customHeight="1" spans="1:2">
+      <c r="A1" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="180">
-      <c r="A2" s="18" t="s">
+    <row r="2" ht="153" spans="1:2">
+      <c r="A2" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90">
-      <c r="A3" s="18" t="s">
+    <row r="3" ht="76.5" spans="1:2">
+      <c r="A3" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="77"/>
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="43" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="77"/>
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="40" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="77"/>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="43" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="77"/>
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="77"/>
-      <c r="B9" s="32" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="68"/>
+      <c r="B9" s="43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="77"/>
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="40" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="78"/>
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="69"/>
+      <c r="B11" s="43" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="90">
-      <c r="A22" s="1" t="s">
+    <row r="22" ht="76.5" spans="1:2">
+      <c r="A22" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="240">
-      <c r="A23" s="49" t="s">
+    <row r="23" ht="204" spans="1:2">
+      <c r="A23" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90">
-      <c r="A24" s="1" t="s">
+    <row r="24" ht="76.5" spans="1:2">
+      <c r="A24" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45">
-      <c r="A25" s="1" t="s">
+    <row r="25" ht="38.25" spans="1:2">
+      <c r="A25" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="240">
-      <c r="A26" s="1" t="s">
+    <row r="26" ht="204" spans="1:2">
+      <c r="A26" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="165">
-      <c r="A27" s="1" t="s">
+    <row r="27" ht="140.25" spans="1:2">
+      <c r="A27" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="120">
-      <c r="A28" s="1" t="s">
+    <row r="28" ht="89.25" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="71" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="69"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="80"/>
-    </row>
-    <row r="33" spans="1:3" ht="135">
-      <c r="A33" s="69"/>
-      <c r="B33" s="50" t="s">
+      <c r="C32" s="39"/>
+    </row>
+    <row r="33" ht="114.75" spans="1:3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="80"/>
+      <c r="C33" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16363,850 +16879,791 @@
     <mergeCell ref="C31:C33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C31" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C15" r:id="rId2" display="springboot3-security-jwt/src/main/java/com/sc/repository/UserInfoRepository.java at main · JavaaTechSolutions/springboot3-security-jwt (github.com)"/>
+    <hyperlink ref="E4" r:id="rId3" display="Learn Spring Course | Baeldung"/>
+    <hyperlink ref="C31" r:id="rId4" display="https://spring.io/blog/2013/11/01/exception-handling-in-spring-mvc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="107.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="76.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.2866666666667" style="30" customWidth="1"/>
+    <col min="2" max="2" width="107.853333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="76.8533333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
-      <c r="A1" s="81" t="s">
+    <row r="1" ht="24" spans="1:2">
+      <c r="A1" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="82"/>
-    </row>
-    <row r="2" spans="1:3" ht="192.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="B1" s="54"/>
+    </row>
+    <row r="2" ht="192.75" customHeight="1" spans="1:2">
+      <c r="A2" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="105">
-      <c r="A3" s="37" t="s">
+    <row r="3" ht="89.25" spans="1:2">
+      <c r="A3" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="89" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="37" t="s">
+    <row r="4" ht="38.25" spans="1:2">
+      <c r="A4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="89.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" ht="84" spans="1:2">
+      <c r="A5" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="56" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="58" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="58" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="58" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="255">
-      <c r="A10" s="21" t="s">
+    <row r="10" ht="191.25" spans="1:2">
+      <c r="A10" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60">
-      <c r="A11" s="41" t="s">
+    <row r="11" ht="51" spans="1:2">
+      <c r="A11" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="60" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25">
-      <c r="A13" s="81" t="s">
+    <row r="13" ht="24" spans="1:2">
+      <c r="A13" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="82"/>
-    </row>
-    <row r="14" spans="1:3" ht="90">
-      <c r="A14" s="21" t="s">
+      <c r="B13" s="54"/>
+    </row>
+    <row r="14" ht="76.5" spans="1:2">
+      <c r="A14" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="21" t="s">
+    <row r="15" ht="25.5" spans="1:2">
+      <c r="A15" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45">
-      <c r="A16" s="21" t="s">
+    <row r="16" ht="38.25" spans="1:2">
+      <c r="A16" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="21" t="s">
+    <row r="17" ht="25.5" spans="1:2">
+      <c r="A17" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75">
-      <c r="A18" s="83" t="s">
+    <row r="18" ht="38.25" spans="1:2">
+      <c r="A18" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90">
-      <c r="A19" s="83"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" ht="51" spans="2:2">
+      <c r="B19" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
-      <c r="A20" s="83"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" ht="38.25" spans="2:2">
+      <c r="B20" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="135">
-      <c r="A21" s="83"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" ht="102" spans="2:2">
+      <c r="B21" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="83"/>
-    </row>
-    <row r="23" spans="1:3" ht="45">
-      <c r="A23" s="21" t="s">
+    <row r="23" ht="38.25" spans="1:2">
+      <c r="A23" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60">
-      <c r="A24" s="21" t="s">
+    <row r="24" ht="51" spans="1:2">
+      <c r="A24" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="83" t="s">
+    <row r="26" ht="12.75" spans="1:2">
+      <c r="A26" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="83"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" ht="25.5" spans="2:2">
+      <c r="B27" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
-      <c r="A28" s="83"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" ht="25.5" spans="2:2">
+      <c r="B28" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="135">
-      <c r="A30" s="84" t="s">
+    <row r="30" ht="114.75" spans="1:3">
+      <c r="A30" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="75">
-      <c r="A31" s="84"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="10" t="s">
+    <row r="31" ht="63.75" spans="1:3">
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="17" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
-      <c r="A32" s="84"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="10" t="s">
+    <row r="32" ht="25.5" spans="1:3">
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="210">
-      <c r="A33" s="84"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="2" t="s">
+    <row r="33" ht="153" spans="1:3">
+      <c r="A33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60">
-      <c r="A34" s="21" t="s">
+    <row r="34" ht="38.25" spans="1:2">
+      <c r="A34" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
-      <c r="A35" s="83" t="s">
+    <row r="35" ht="51" spans="1:2">
+      <c r="A35" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="150">
-      <c r="A36" s="83"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" ht="114.75" spans="2:2">
+      <c r="B36" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="75">
-      <c r="A37" s="83"/>
-      <c r="B37" s="6" t="s">
+    <row r="37" ht="63.75" spans="2:2">
+      <c r="B37" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="90">
-      <c r="A38" s="83"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" ht="63.75" spans="2:2">
+      <c r="B38" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="75">
-      <c r="A39" s="83"/>
-      <c r="B39" s="6" t="s">
+    <row r="39" ht="65.25" spans="2:2">
+      <c r="B39" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="90">
-      <c r="A40" s="83" t="s">
+    <row r="40" ht="76.5" spans="1:2">
+      <c r="A40" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="75">
-      <c r="A41" s="83"/>
-      <c r="B41" s="6" t="s">
+    <row r="41" ht="63.75" spans="2:2">
+      <c r="B41" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="83"/>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="41" t="s">
+    <row r="43" ht="25.5" spans="1:2">
+      <c r="A43" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45">
-      <c r="A44" s="83" t="s">
+    <row r="44" ht="38.25" spans="1:2">
+      <c r="A44" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45">
-      <c r="A45" s="83"/>
-      <c r="B45" s="6" t="s">
+    <row r="45" ht="38.25" spans="2:2">
+      <c r="B45" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="60">
-      <c r="A46" s="83"/>
-      <c r="B46" s="19" t="s">
+    <row r="46" ht="51" spans="2:2">
+      <c r="B46" s="28" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45">
-      <c r="A47" s="83"/>
-      <c r="B47" s="19" t="s">
+    <row r="47" ht="38.25" spans="2:2">
+      <c r="B47" s="28" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="90">
-      <c r="A48" s="83"/>
-      <c r="B48" s="19" t="s">
+    <row r="48" ht="63.75" spans="2:2">
+      <c r="B48" s="28" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="285">
-      <c r="A49" s="24" t="s">
+    <row r="49" ht="216.75" spans="1:3">
+      <c r="A49" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="61" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="43"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="21" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="61"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="30" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="105">
-      <c r="A53" s="83" t="s">
+    <row r="53" ht="76.5" spans="1:2">
+      <c r="A53" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="105">
-      <c r="A54" s="83"/>
-      <c r="B54" s="6" t="s">
+    <row r="54" ht="63.75" spans="2:2">
+      <c r="B54" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="83"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="21" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="30" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="75">
-      <c r="A57" s="83" t="s">
+    <row r="57" ht="63.75" spans="1:2">
+      <c r="A57" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="165">
-      <c r="A58" s="83"/>
-      <c r="B58" s="19" t="s">
+    <row r="58" ht="140.25" spans="2:2">
+      <c r="B58" s="28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="105">
-      <c r="A59" s="83"/>
-      <c r="B59" s="6" t="s">
+    <row r="59" ht="89.25" spans="2:2">
+      <c r="B59" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="60">
-      <c r="A60" s="83"/>
-      <c r="B60" s="19" t="s">
+    <row r="60" ht="38.25" spans="2:2">
+      <c r="B60" s="28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="120">
-      <c r="A61" s="83"/>
-      <c r="B61" s="19" t="s">
+    <row r="61" ht="89.25" spans="2:2">
+      <c r="B61" s="28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="26.25">
-      <c r="A63" s="81" t="s">
+    <row r="63" ht="24" spans="1:2">
+      <c r="A63" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="B63" s="82"/>
-    </row>
-    <row r="64" spans="1:3" ht="195">
-      <c r="A64" s="83" t="s">
+      <c r="B63" s="54"/>
+    </row>
+    <row r="64" ht="153" spans="1:3">
+      <c r="A64" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="C64" s="87" t="s">
+      <c r="C64" s="16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="165">
-      <c r="A65" s="83"/>
-      <c r="B65" s="6" t="s">
+    <row r="65" ht="140.25" spans="2:3">
+      <c r="B65" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="88"/>
-    </row>
-    <row r="66" spans="1:3" ht="90">
-      <c r="A66" s="37" t="s">
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" ht="76.5" spans="1:3">
+      <c r="A66" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="88"/>
-    </row>
-    <row r="67" spans="1:3" ht="60">
-      <c r="A67" s="21" t="s">
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" ht="25.5" spans="1:3">
+      <c r="A67" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C67" s="88"/>
-    </row>
-    <row r="68" spans="1:3" ht="60">
-      <c r="A68" s="83" t="s">
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" ht="51" spans="1:2">
+      <c r="A68" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="62" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="225">
-      <c r="A69" s="83"/>
-      <c r="B69" s="45" t="s">
+    <row r="69" ht="165.75" spans="2:2">
+      <c r="B69" s="63" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="390">
-      <c r="A70" s="83"/>
-      <c r="B70" s="45" t="s">
+    <row r="70" ht="293.25" spans="2:2">
+      <c r="B70" s="63" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="135">
-      <c r="A71" s="83"/>
-      <c r="B71" s="45" t="s">
+    <row r="71" ht="102" spans="2:2">
+      <c r="B71" s="63" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="83"/>
-      <c r="B72" s="44"/>
-    </row>
-    <row r="73" spans="1:3" ht="60">
-      <c r="A73" s="85" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="62"/>
+    </row>
+    <row r="73" ht="38.25" spans="1:2">
+      <c r="A73" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="62" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="45">
-      <c r="A74" s="85"/>
-      <c r="B74" s="44" t="s">
+    <row r="74" ht="38.25" spans="1:2">
+      <c r="A74" s="55"/>
+      <c r="B74" s="62" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
-      <c r="A75" s="85"/>
-      <c r="B75" s="44" t="s">
+    <row r="75" ht="38.25" spans="1:2">
+      <c r="A75" s="55"/>
+      <c r="B75" s="62" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="75">
-      <c r="A76" s="83" t="s">
+    <row r="76" ht="51" spans="1:2">
+      <c r="A76" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="150">
-      <c r="A77" s="83"/>
-      <c r="B77" s="6" t="s">
+    <row r="77" ht="114.75" spans="2:2">
+      <c r="B77" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="150">
-      <c r="A78" s="83"/>
-      <c r="B78" s="6" t="s">
+    <row r="78" ht="114.75" spans="2:2">
+      <c r="B78" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="83"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="21" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="30" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45">
-      <c r="A81" s="85" t="s">
+    <row r="81" ht="25.5" spans="1:2">
+      <c r="A81" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15">
-      <c r="A82" s="85"/>
-      <c r="B82" s="46" t="s">
+    <row r="82" ht="12.75" spans="1:2">
+      <c r="A82" s="55"/>
+      <c r="B82" s="64" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="85"/>
-      <c r="B83" s="19" t="s">
+    <row r="83" ht="63.75" spans="1:2">
+      <c r="A83" s="55"/>
+      <c r="B83" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="85"/>
-      <c r="B84" s="19" t="s">
+    <row r="84" ht="25.5" spans="1:2">
+      <c r="A84" s="55"/>
+      <c r="B84" s="28" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="83" t="s">
+    <row r="85" ht="51" spans="1:2">
+      <c r="A85" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="83"/>
-      <c r="B86" s="19" t="s">
+    <row r="86" ht="63.75" spans="2:2">
+      <c r="B86" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="195" customHeight="1">
-      <c r="A87" s="83"/>
-      <c r="B87" s="6" t="s">
+    <row r="87" ht="195" customHeight="1" spans="2:2">
+      <c r="B87" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="90">
-      <c r="A88" s="83" t="s">
+    <row r="88" ht="76.5" spans="1:2">
+      <c r="A88" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="28" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="120">
-      <c r="A89" s="83"/>
-      <c r="B89" s="19" t="s">
+    <row r="89" ht="76.5" spans="2:2">
+      <c r="B89" s="28" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="90">
-      <c r="A90" s="83"/>
-      <c r="B90" s="47" t="s">
+    <row r="90" ht="76.5" spans="2:2">
+      <c r="B90" s="65" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="83"/>
-      <c r="B91" s="6" t="s">
+    <row r="91" ht="25.5" spans="2:2">
+      <c r="B91" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="83"/>
-      <c r="B92" s="6" t="s">
+    <row r="92" ht="25.5" spans="2:2">
+      <c r="B92" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="83"/>
-      <c r="B93" s="6" t="s">
+    <row r="93" ht="25.5" spans="2:2">
+      <c r="B93" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="26.25">
-      <c r="A95" s="81" t="s">
+    <row r="95" ht="24" spans="1:2">
+      <c r="A95" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="B95" s="82"/>
-    </row>
-    <row r="96" spans="1:2" ht="105">
-      <c r="A96" s="37" t="s">
+      <c r="B95" s="54"/>
+    </row>
+    <row r="96" ht="76.5" spans="1:2">
+      <c r="A96" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="66" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="135">
-      <c r="A97" s="83" t="s">
+    <row r="97" ht="102" spans="1:2">
+      <c r="A97" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="195">
-      <c r="A98" s="83"/>
-      <c r="B98" s="44" t="s">
+    <row r="98" ht="153" spans="2:2">
+      <c r="B98" s="62" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="165">
-      <c r="A99" s="83"/>
-      <c r="B99" s="6" t="s">
+    <row r="99" ht="114.75" spans="2:2">
+      <c r="B99" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="120">
-      <c r="A100" s="83" t="s">
+    <row r="100" ht="76.5" spans="1:2">
+      <c r="A100" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="150">
-      <c r="A101" s="83"/>
-      <c r="B101" s="19" t="s">
+    <row r="101" ht="114.75" spans="2:2">
+      <c r="B101" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="150">
-      <c r="A102" s="83"/>
-      <c r="B102" s="19" t="s">
+    <row r="102" ht="114.75" spans="2:2">
+      <c r="B102" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="195">
-      <c r="A103" s="83"/>
-      <c r="B103" s="19" t="s">
+    <row r="103" ht="153" spans="2:2">
+      <c r="B103" s="28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="60">
-      <c r="A104" s="83"/>
-      <c r="B104" s="19" t="s">
+    <row r="104" ht="51" spans="2:2">
+      <c r="B104" s="28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="83"/>
-      <c r="B105" s="47" t="s">
+    <row r="105" ht="38.25" spans="2:2">
+      <c r="B105" s="65" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="210">
-      <c r="A106" s="21" t="s">
+    <row r="106" ht="165.75" spans="1:2">
+      <c r="A106" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="90">
-      <c r="A107" s="83" t="s">
+    <row r="107" ht="76.5" spans="1:2">
+      <c r="A107" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="165">
-      <c r="A108" s="83"/>
-      <c r="B108" s="19" t="s">
+    <row r="108" ht="127.5" spans="2:2">
+      <c r="B108" s="28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="120">
-      <c r="A109" s="85" t="s">
+    <row r="109" ht="102" spans="1:2">
+      <c r="A109" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="28" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="75">
-      <c r="A110" s="85"/>
-      <c r="B110" s="19" t="s">
+    <row r="110" ht="63.75" spans="1:2">
+      <c r="A110" s="55"/>
+      <c r="B110" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="60">
-      <c r="A111" s="85" t="s">
+    <row r="111" ht="38.25" spans="1:2">
+      <c r="A111" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45">
-      <c r="A112" s="85"/>
-      <c r="B112" s="6" t="s">
+    <row r="112" ht="38.25" spans="1:2">
+      <c r="A112" s="55"/>
+      <c r="B112" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="84" customHeight="1">
-      <c r="A113" s="85"/>
-      <c r="B113" s="6" t="s">
+    <row r="113" ht="84" customHeight="1" spans="1:2">
+      <c r="A113" s="55"/>
+      <c r="B113" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A114" s="85"/>
-      <c r="B114" s="6" t="s">
+    <row r="114" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A114" s="55"/>
+      <c r="B114" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15">
-      <c r="A115" s="85"/>
-      <c r="B115" s="6" t="s">
+    <row r="115" ht="12.75" spans="1:2">
+      <c r="A115" s="55"/>
+      <c r="B115" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1">
-      <c r="A116" s="85"/>
-      <c r="B116" s="6" t="s">
+    <row r="116" ht="15" customHeight="1" spans="1:2">
+      <c r="A116" s="55"/>
+      <c r="B116" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="90">
-      <c r="A117" s="85"/>
-      <c r="B117" s="6" t="s">
+    <row r="117" ht="63.75" spans="1:2">
+      <c r="A117" s="55"/>
+      <c r="B117" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1">
-      <c r="A118" s="85"/>
-      <c r="B118" s="5" t="s">
+    <row r="118" ht="15" customHeight="1" spans="1:2">
+      <c r="A118" s="55"/>
+      <c r="B118" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1">
-      <c r="A119" s="85"/>
-      <c r="B119" s="6" t="s">
+    <row r="119" ht="15" customHeight="1" spans="1:2">
+      <c r="A119" s="55"/>
+      <c r="B119" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1">
-      <c r="A120" s="85"/>
-      <c r="B120" s="5" t="s">
+    <row r="120" ht="15" customHeight="1" spans="1:2">
+      <c r="A120" s="55"/>
+      <c r="B120" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1">
-      <c r="A121" s="85"/>
-      <c r="B121" s="5" t="s">
+    <row r="121" ht="15" customHeight="1" spans="1:2">
+      <c r="A121" s="55"/>
+      <c r="B121" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1">
-      <c r="A122" s="85"/>
-      <c r="B122" s="5" t="s">
+    <row r="122" ht="15" customHeight="1" spans="1:2">
+      <c r="A122" s="55"/>
+      <c r="B122" s="9" t="s">
         <v>379</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A122"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A105"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A63:B63"/>
@@ -17223,331 +17680,343 @@
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A122"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C64:C67"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C49" r:id="rId5" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java_x000a__x000a__x000a_https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B96" r:id="rId6" display="https://www.keycloak.org/documentation_x000a_https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93_x000a_https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s_x000a_https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java_x000a_https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s_x000a_https://www.keycloak.org/docs/24.0.1/authorization_services/" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://docs.spring.io/spring-security/reference/features/authentication/password-storage.html"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://github.com/spring-projects/spring-security-samples/blob/main/servlet/spring-boot/java/authentication/username-password/mfa/src/main/java/example/MfaService.java"/>
+    <hyperlink ref="B8" r:id="rId4" display="HttpSecurity (spring-security-docs 6.1.3 API)"/>
+    <hyperlink ref="B7" r:id="rId5" display="Samples :: Spring Security"/>
+    <hyperlink ref="C49" r:id="rId6" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java&#10;&#10;&#10;https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java"/>
+    <hyperlink ref="B96" r:id="rId7" display="https://www.keycloak.org/documentation&#10;https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93&#10;https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s&#10;https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java&#10;https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s&#10;https://www.keycloak.org/docs/24.0.1/authorization_services/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="83.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="125.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="51" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="63.75" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="34" t="s">
+    <row r="3" ht="25.5" spans="1:2">
+      <c r="A3" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="49" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="49" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="64.5" customHeight="1">
-      <c r="A5" s="67" t="s">
+    <row r="5" ht="64.5" customHeight="1" spans="1:2">
+      <c r="A5" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="52.5" customHeight="1" spans="1:1">
+      <c r="A6" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="82.5" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="82.5" customHeight="1" spans="1:1">
+      <c r="A7" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="51" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="90"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="91"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="C12" s="45"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="390">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="293.25" spans="1:2">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="120">
-      <c r="A22" s="5" t="s">
+    <row r="22" ht="89.25" spans="1:3">
+      <c r="A22" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="225">
-      <c r="A24" s="5" t="s">
+    <row r="24" ht="153" spans="1:3">
+      <c r="A24" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="75">
-      <c r="A26" s="5" t="s">
+    <row r="26" ht="63.75" spans="1:11">
+      <c r="A26" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45">
-      <c r="A29" s="5" t="s">
+    <row r="29" ht="25.5" spans="1:2">
+      <c r="A29" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="135">
-      <c r="A31" s="5" t="s">
+    <row r="31" ht="102" spans="1:2">
+      <c r="A31" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="10" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="25.5" spans="1:2">
+      <c r="A32" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="10" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="180">
-      <c r="A33" s="5" t="s">
+    <row r="33" ht="127.5" spans="1:2">
+      <c r="A33" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="360">
-      <c r="A34" s="33" t="s">
+    <row r="34" ht="229.5" spans="1:3">
+      <c r="A34" s="47" t="s">
         <v>423</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="52" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="45">
-      <c r="A36" s="5" t="s">
+    <row r="36" ht="38.25" spans="1:2">
+      <c r="A36" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="10" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="210">
-      <c r="A41" s="5" t="s">
+    <row r="41" ht="165.75" spans="1:3">
+      <c r="A41" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="180">
-      <c r="A43" s="71" t="s">
+    <row r="43" ht="140.25" spans="1:3">
+      <c r="A43" s="53" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="17" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="120">
-      <c r="A44" s="71"/>
-      <c r="B44" s="18" t="s">
+    <row r="44" ht="102" spans="1:3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="180">
-      <c r="A45" s="71"/>
-      <c r="B45" s="18" t="s">
+    <row r="45" ht="140.25" spans="1:3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="71"/>
-      <c r="B46" s="18" t="s">
+    <row r="46" ht="25.5" spans="1:3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>445</v>
       </c>
     </row>
@@ -17558,255 +18027,257 @@
     <mergeCell ref="C8:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="K26" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C34" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C42" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C22" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
+    <hyperlink ref="C24" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
+    <hyperlink ref="C26" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
+    <hyperlink ref="C28" r:id="rId2" display="https://www.digitalocean.com/community/tutorials/spring-data-jpa"/>
+    <hyperlink ref="K26" r:id="rId3" display="https://docs.jboss.org/hibernate/orm/6.3/introduction/html_single/Hibernate_Introduction.html#entities"/>
+    <hyperlink ref="C34" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#pc-cascade"/>
+    <hyperlink ref="C40" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#associations-many-to-one"/>
+    <hyperlink ref="C41" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
+    <hyperlink ref="C42" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="111.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="111.14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="93" t="s">
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="81"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" ht="76.5" spans="1:2">
+      <c r="A2" s="32"/>
+      <c r="B2" s="17" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75">
-      <c r="A3" s="81"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" ht="63.75" spans="1:2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="17" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75">
-      <c r="A4" s="81"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" ht="63.75" spans="1:2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="17" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="81"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="135">
-      <c r="A6" s="81"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" ht="114.75" spans="1:2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" s="81"/>
-      <c r="B7" s="24" t="s">
+    <row r="7" ht="17.25" spans="1:2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="81"/>
-      <c r="C8" s="33"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="81"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="81"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="81"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="81"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="81"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="81"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="81"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="81"/>
+      <c r="A8" s="32"/>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="32"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="32"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="32"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="32"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="32"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="32"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="32"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="32"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="81"/>
+      <c r="A17" s="32"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="81"/>
+      <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="32"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="81"/>
+      <c r="A20" s="32"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="81"/>
+      <c r="A21" s="32"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="81"/>
+      <c r="A22" s="32"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="81"/>
+      <c r="A23" s="32"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="81"/>
+      <c r="A24" s="32"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="81"/>
+      <c r="A25" s="32"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="81"/>
+      <c r="A26" s="32"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="81"/>
+      <c r="A27" s="32"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="81"/>
+      <c r="A28" s="32"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="81"/>
+      <c r="A29" s="32"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="81"/>
+      <c r="A30" s="32"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="32"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="81"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="81"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="81"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="81"/>
-    </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="81" t="s">
+      <c r="A32" s="32"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="32"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="32"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="32"/>
+    </row>
+    <row r="36" ht="51" spans="1:2">
+      <c r="A36" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="18" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75">
-      <c r="A38" s="81"/>
-      <c r="B38" s="24" t="s">
+    <row r="38" ht="17.25" spans="1:2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="81"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="81"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="81"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="81"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="81"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="81"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="81"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="81"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="81"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="81"/>
+    <row r="39" spans="1:1">
+      <c r="A39" s="32"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="32"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="32"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="32"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="32"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="32"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="32"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="32"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="32"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="32"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="81"/>
+      <c r="A49" s="32"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="81"/>
+      <c r="A50" s="32"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="81"/>
+      <c r="A51" s="32"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="81"/>
+      <c r="A52" s="32"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="81"/>
+      <c r="A53" s="32"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="81"/>
+      <c r="A54" s="32"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="81"/>
+      <c r="A55" s="32"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="81"/>
+      <c r="A56" s="32"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="81"/>
+      <c r="A57" s="32"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="81"/>
+      <c r="A58" s="32"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="81"/>
+      <c r="A59" s="32"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="81"/>
+      <c r="A60" s="32"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="81"/>
+      <c r="A61" s="32"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="81"/>
+      <c r="A62" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17814,92 +18285,96 @@
     <mergeCell ref="A36:A62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.2866666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.4266666666667" customWidth="1"/>
+    <col min="3" max="3" width="45.4266666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="42" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="30"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="40"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -17907,12 +18382,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -17937,45 +18412,47 @@
     <mergeCell ref="B1:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://java-design-patterns.com/patterns/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.8533333333333" customWidth="1"/>
+    <col min="2" max="2" width="82.2866666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.14" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="165">
+    <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -17983,7 +18460,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>478</v>
       </c>
@@ -17991,7 +18468,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>480</v>
       </c>
@@ -17999,7 +18476,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -18007,7 +18484,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" customHeight="1">
+    <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -18015,37 +18492,37 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75">
+    <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
         <v>486</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75">
-      <c r="A11" s="80" t="s">
+    <row r="11" ht="63.75" spans="1:4">
+      <c r="A11" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90">
-      <c r="A12" s="80"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" ht="76.5" spans="1:4">
+      <c r="A12" s="39"/>
+      <c r="B12" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>494</v>
       </c>
     </row>
@@ -18054,6 +18531,7 @@
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="1.Java" sheetId="6" r:id="rId2"/>
-    <sheet name="2.Spring" sheetId="9" r:id="rId3"/>
-    <sheet name="3. Spring Security" sheetId="8" r:id="rId4"/>
-    <sheet name="3. DB-ORM(HBN)-JPA " sheetId="5" r:id="rId5"/>
-    <sheet name="4. Data Structure - Algorithm" sheetId="30" r:id="rId6"/>
-    <sheet name="5.SpringBoot" sheetId="26" r:id="rId7"/>
-    <sheet name="6.DesignPattern" sheetId="10" r:id="rId8"/>
-    <sheet name="7.OOP - AOP" sheetId="15" r:id="rId9"/>
+    <sheet name="1.OOP - AOP" sheetId="15" r:id="rId2"/>
+    <sheet name="1.Java" sheetId="6" r:id="rId3"/>
+    <sheet name="2.Spring" sheetId="9" r:id="rId4"/>
+    <sheet name="3. Spring Security" sheetId="8" r:id="rId5"/>
+    <sheet name="3. DB-ORM(HBN)-JPA " sheetId="5" r:id="rId6"/>
+    <sheet name="4. Data Structure - Algorithm" sheetId="30" r:id="rId7"/>
+    <sheet name="5.SpringBoot" sheetId="26" r:id="rId8"/>
+    <sheet name="6.DesignPattern" sheetId="10" r:id="rId9"/>
     <sheet name="8.Annotations" sheetId="21" r:id="rId10"/>
     <sheet name="9.Architechture" sheetId="22" r:id="rId11"/>
     <sheet name="10.Microservice" sheetId="3" r:id="rId12"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="814">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -665,6 +665,274 @@
       </rPr>
       <t xml:space="preserve"> lưu trong một table tuân theo nguyên tắc Hashing</t>
     </r>
+  </si>
+  <si>
+    <t>AOP (Aspect - Oriented Programming</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Programming technoque based on concept of an Aspect
+ - Aspect encapsulates cross-cutting logic
+ - Cross-Cutting Concerns
+ - "Concern" means logic / functionality
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Benefit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+   + Code for Aspect is defined in a single class: better than being scattered everywhere, promotes code reuse and easier to change
+  + Business code in your application is cleaner: Only applies to business functionality, reduces code complexity
+  + Configurable: base on configuration, applu Aspects selectively to different parts of app. No need to make changes to main application code ... very important! </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspects </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Aspect can be reused at multiple loications
+ - Same aspect / class … applied based on configuration</t>
+  </si>
+  <si>
+    <t>AOP Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Apply the Proxy design pattern</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Module of code for a cross-cutting concern (logging, security,…)</t>
+  </si>
+  <si>
+    <t>Advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - What action is taken and when it should be applied</t>
+  </si>
+  <si>
+    <t>Join Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - When to apply code during program execution </t>
+  </si>
+  <si>
+    <t>Pointcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - A predicate expression for where advice should be applied (pointcut expression language)</t>
+  </si>
+  <si>
+    <t>Advice Types</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Before advice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : run before the method</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - After finally advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run after the method (finally)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - After returning advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run after the method (success execution)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - After throwing advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run after method (if exception thrown)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - Around advice: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run before and after method</t>
+    </r>
+  </si>
+  <si>
+    <t>AOP Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring AOP
+ - Spring provides AOP support
+ - Key component of Spring: Security, transactions, caching etc
+ - Uses runtime weaving of aspects</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Simpler to use than AspectJ
+ - Uses Proxy pattern
+ - Can migrate to AspectJ when using @Aspect annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Only supports method-level joint point
+ - Can only apply aspects to beans created by Spring app context
+ - Minor performance cost for aspect execution (run-time weaving)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AspectJ
+ - Original AOP framework, released in 2001
+ - Provides complete support for AOP
+ - Rich support for
+   + Join points: method-level, constructor, field
+   + code weavingL compile-time, post compile-time and load-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Support all joint points 
+ - Works with any POJO, not just beans from app conext
+ - Faster performance compared to Spring AOP
+ - Complete AOP support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Compile-time weaving requires extra compilation step
+ - AspectJ pointcut syntax can become complex</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>Greate software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Greate software is code that is object-oriented. The good OO programmers are always looking for ways to make their code more flexible.
+  + So there's not a bunch(nhóm) of duplicate code
+  + Each object pretty much controls its own behavior
+  + It's also easy to extend(kế thừa, tái sử dụng) because your design is really solid(vững vàng, chắc chắn) and flexible (linh hoạt)
+- First: greate software must satisfy(thỏa mãn) the customer.
+- Second: greate software is well-designed, well-coded and easy to maintain, reuse and extend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Greate software in 3 easy steps:
+ 1. Make sure your software does what the customer wants it to do
+ 2. Apply basic OO principles to add flexibility
+ 3. Strive(cố gắng) for a maintainable, reusable design: It's time to apply patterns and principles to make sure your software is ready to use for years to come.</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - The idea behind encapsulation is to protect information in one part of your application from the other part of your application
+ - That's the power of encapsulation by breaking up the different parts of your app, you can change one part without having to change all the other parts.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -8190,247 +8458,6 @@
     <t>Abstract Factory Design Pattern</t>
   </si>
   <si>
-    <t>AOP (Aspect - Oriented Programming</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Programming technoque based on concept of an Aspect
- - Aspect encapsulates cross-cutting logic
- - Cross-Cutting Concerns
- - "Concern" means logic / functionality
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Benefit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-   + Code for Aspect is defined in a single class: better than being scattered everywhere, promotes code reuse and easier to change
-  + Business code in your application is cleaner: Only applies to business functionality, reduces code complexity
-  + Configurable: base on configuration, applu Aspects selectively to different parts of app. No need to make changes to main application code ... very important! </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspects </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Aspect can be reused at multiple loications
- - Same aspect / class … applied based on configuration</t>
-  </si>
-  <si>
-    <t>AOP Solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Apply the Proxy design pattern</t>
-  </si>
-  <si>
-    <t>Aspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Module of code for a cross-cutting concern (logging, security,…)</t>
-  </si>
-  <si>
-    <t>Advice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - What action is taken and when it should be applied</t>
-  </si>
-  <si>
-    <t>Join Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - When to apply code during program execution </t>
-  </si>
-  <si>
-    <t>Pointcut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - A predicate expression for where advice should be applied (pointcut expression language)</t>
-  </si>
-  <si>
-    <t>Advice Types</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Before advice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : run before the method</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - After finally advice: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>run after the method (finally)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - After returning advice: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>run after the method (success execution)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - After throwing advice: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>run after method (if exception thrown)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - Around advice: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>run before and after method</t>
-    </r>
-  </si>
-  <si>
-    <t>AOP Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spring AOP
- - Spring provides AOP support
- - Key component of Spring: Security, transactions, caching etc
- - Uses runtime weaving of aspects</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Simpler to use than AspectJ
- - Uses Proxy pattern
- - Can migrate to AspectJ when using @Aspect annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Only supports method-level joint point
- - Can only apply aspects to beans created by Spring app context
- - Minor performance cost for aspect execution (run-time weaving)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AspectJ
- - Original AOP framework, released in 2001
- - Provides complete support for AOP
- - Rich support for
-   + Join points: method-level, constructor, field
-   + code weavingL compile-time, post compile-time and load-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Support all joint points 
- - Works with any POJO, not just beans from app conext
- - Faster performance compared to Spring AOP
- - Complete AOP support</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Compile-time weaving requires extra compilation step
- - AspectJ pointcut syntax can become complex</t>
-  </si>
-  <si>
     <t>Annotaions name</t>
   </si>
   <si>
@@ -12078,12 +12105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12213,23 +12240,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12244,17 +12265,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12282,9 +12295,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12305,23 +12339,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12421,19 +12456,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12451,91 +12600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12553,43 +12624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12679,21 +12714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -12713,16 +12733,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12751,149 +12782,153 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12901,7 +12936,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12997,9 +13032,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -13086,6 +13118,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -13129,6 +13164,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -13331,6 +13375,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20067</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>562112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10891520" y="3429000"/>
+          <a:ext cx="5470525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -13370,7 +13457,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13402,49 +13489,6 @@
         <a:xfrm>
           <a:off x="21525865" y="6315075"/>
           <a:ext cx="11078210" cy="5410200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>20067</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2619375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>562112</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10891520" y="3267075"/>
-          <a:ext cx="5470525" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13782,7 +13826,7 @@
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13793,7 +13837,7 @@
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="91" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13801,10 +13845,10 @@
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="91" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13815,7 +13859,7 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13837,7 +13881,7 @@
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="92" t="s">
         <v>11</v>
       </c>
     </row>
@@ -13870,7 +13914,7 @@
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="91" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13884,7 +13928,7 @@
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="57" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13988,230 +14032,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="38" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B24" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B25" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B26" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8"/>
       <c r="B30" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8"/>
       <c r="B31" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="8"/>
       <c r="B33" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="8"/>
       <c r="B34" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -14241,7 +14285,7 @@
   <sheetData>
     <row r="1" ht="12.75" spans="1:1">
       <c r="A1" s="32" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:3">
@@ -14339,22 +14383,22 @@
     </row>
     <row r="26" ht="17.25" spans="1:2">
       <c r="A26" s="32" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:2">
       <c r="A27" s="32"/>
       <c r="B27" s="30" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:2">
       <c r="A28" s="32"/>
       <c r="B28" s="30" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -14362,74 +14406,74 @@
     </row>
     <row r="30" ht="12.75" spans="1:3">
       <c r="A30" s="32" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="1:3">
       <c r="A31" s="32"/>
       <c r="C31" s="31" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="1:3">
       <c r="A32" s="32"/>
       <c r="C32" s="31" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:3">
       <c r="A33" s="32"/>
       <c r="C33" s="31" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" ht="114.75" spans="1:3">
       <c r="A35" s="32" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>560</v>
+        <v>565</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="36" ht="89.25" spans="1:3">
       <c r="A36" s="32"/>
       <c r="B36" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>562</v>
+        <v>567</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:3">
       <c r="A37" s="32"/>
       <c r="B37" s="30" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:3">
       <c r="A38" s="32"/>
       <c r="B38" s="30" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="32" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -14465,140 +14509,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>569</v>
+        <v>574</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>575</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>576</v>
+        <v>581</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="10" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="10" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -14606,145 +14650,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="10" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="10" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="10" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="10" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="10" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="10" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="26" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="26"/>
       <c r="B55" s="10" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="26"/>
       <c r="B56" s="10" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="27" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="27"/>
       <c r="B59" s="28" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="27"/>
       <c r="B60" s="28" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="27"/>
       <c r="B63" s="28" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="27"/>
       <c r="B64" s="28" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -14777,276 +14821,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="8"/>
       <c r="B2" s="17" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="8"/>
       <c r="B3" s="5" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="8"/>
       <c r="B5" s="17" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8"/>
       <c r="B6" s="17" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="8"/>
       <c r="B8" s="17" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8"/>
       <c r="B9" s="17" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8"/>
       <c r="B10" s="17" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8"/>
       <c r="B11" s="17" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="8"/>
       <c r="B13" s="17" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="8"/>
       <c r="B14" s="17" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8"/>
       <c r="B15" s="17" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8"/>
       <c r="B16" s="17" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="8"/>
       <c r="B17" s="17" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="8"/>
       <c r="B18" s="17" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8"/>
       <c r="B19" s="17" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8"/>
       <c r="B20" s="18" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="19" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="19"/>
       <c r="B22" s="17" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="19"/>
       <c r="B23" s="17" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="19"/>
       <c r="B24" s="17" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="19"/>
       <c r="B25" s="17" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="19"/>
       <c r="B26" s="17" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="19"/>
       <c r="B27" s="17" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="19"/>
       <c r="B28" s="18" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="21" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8"/>
       <c r="B30" s="17" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8"/>
       <c r="B31" s="17" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8"/>
       <c r="B32" s="17" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="8"/>
       <c r="B33" s="17" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="19" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="8"/>
       <c r="B36" s="5" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="8"/>
       <c r="B37" s="5" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="8" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="8"/>
       <c r="B39" s="5" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="8"/>
       <c r="B40" s="5" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="8"/>
       <c r="B41" s="5" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8"/>
       <c r="B42" s="5" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="8"/>
       <c r="B43" s="5" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -15055,10 +15099,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="8" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -15099,18 +15143,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>685</v>
+        <v>690</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -15168,22 +15212,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -15210,10 +15254,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -15221,120 +15265,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="13"/>
       <c r="B8" s="15" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="13"/>
       <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="13"/>
       <c r="B10" s="15"/>
       <c r="C10" s="5" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13"/>
       <c r="B11" s="15"/>
       <c r="C11" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="13"/>
       <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="13"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="5" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -15343,13 +15387,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" s="18" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -15360,40 +15404,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="13" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B24" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="13"/>
       <c r="B29" s="5" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -15401,41 +15445,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="13" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="13"/>
       <c r="B32" s="5" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="13"/>
       <c r="B33" s="5" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="13"/>
       <c r="B34" s="5" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="13"/>
       <c r="B35" s="5" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -15471,679 +15515,149 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A3:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="117" style="9" customWidth="1"/>
-    <col min="3" max="3" width="85" customWidth="1"/>
+    <col min="1" max="1" width="31.8533333333333" customWidth="1"/>
+    <col min="2" max="2" width="82.2866666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.14" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="27" t="s">
+    <row r="3" ht="140.25" spans="1:2">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="27" t="s">
+    <row r="4" ht="25.5" spans="1:2">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="27" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="27" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="27" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="10" ht="45" customHeight="1" spans="1:2">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="90" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="89" t="s">
+    </row>
+    <row r="11" ht="63.75" spans="1:2">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="27" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="74" t="s">
+    <row r="12" ht="63.75" spans="1:4">
+      <c r="A12" s="71" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="75" t="s">
+      <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="C12" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="74" t="s">
+      <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="77" t="s">
+    </row>
+    <row r="13" ht="76.5" spans="1:4">
+      <c r="A13" s="71"/>
+      <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="75" t="s">
+      <c r="C13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="D13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="74" t="s">
+    <row r="20" ht="26.25" spans="1:4">
+      <c r="A20" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+    </row>
+    <row r="21" ht="102" spans="1:2">
+      <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
+      <c r="B21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="43" t="s">
+    </row>
+    <row r="22" ht="63.75" spans="1:2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="74" t="s">
+    <row r="24" ht="51" spans="1:2">
+      <c r="A24" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="B24" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="53"/>
-      <c r="B57" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="53"/>
-      <c r="B58" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="53"/>
-      <c r="B59" s="79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="53"/>
-      <c r="B60" s="80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="81"/>
-      <c r="B66" s="64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="84"/>
-      <c r="B68" s="49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="84"/>
-      <c r="B69" s="80" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="84"/>
-      <c r="B70" s="83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="84"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="84"/>
-      <c r="B85" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="86" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="84"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="84"/>
-      <c r="B87" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="C87" s="86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="84"/>
-      <c r="B88" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="C88" s="86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="84"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="84"/>
-      <c r="B90" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="C90" s="86"/>
-    </row>
-    <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="84"/>
-      <c r="B91" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="C91" s="86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="84"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="84"/>
-      <c r="B93" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="86" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" ht="191.25" spans="1:2">
-      <c r="A95" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>170</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A83:A93"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B92"/>
+  <mergeCells count="3">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16181,26 +15695,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -16242,96 +15756,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="B9" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -16361,110 +15875,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -16497,116 +16011,116 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" ht="114.75" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" ht="165.75" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" ht="89.25" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" ht="191.25" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" ht="89.25" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" ht="38.25" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" ht="102" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" ht="63.75" spans="1:2">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" ht="114.75" spans="1:2">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -16614,12 +16128,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -16633,6 +16147,685 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="36.8533333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="117" style="9" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38.25" spans="1:2">
+      <c r="A1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" ht="38.25" spans="1:2">
+      <c r="A2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="38.25" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="280.5" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="38.25" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" ht="25.5" spans="1:2">
+      <c r="A9" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" ht="165.75" spans="1:1">
+      <c r="A12" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" ht="48" spans="1:2">
+      <c r="A16" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="39"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" ht="25.5" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" ht="25.5" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" spans="1:2">
+      <c r="A37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="51" spans="1:2">
+      <c r="A38" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" ht="38.25" spans="1:2">
+      <c r="A39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" ht="38.25" spans="1:2">
+      <c r="A40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" ht="51" spans="1:2">
+      <c r="A44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" ht="51" spans="1:2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" ht="63.75" spans="1:2">
+      <c r="A46" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" ht="51" spans="1:2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" ht="38.25" spans="1:2">
+      <c r="A48" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" ht="63.75" spans="1:2">
+      <c r="A49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" ht="63.75" spans="1:2">
+      <c r="A50" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" ht="76.5" spans="1:2">
+      <c r="A51" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" ht="114.75" spans="1:2">
+      <c r="A52" s="27"/>
+      <c r="B52" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" ht="76.5" spans="1:2">
+      <c r="A53" s="27"/>
+      <c r="B53" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" ht="51" spans="1:2">
+      <c r="A54" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" ht="102" spans="1:2">
+      <c r="A55" s="52"/>
+      <c r="B55" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" ht="127.5" spans="1:2">
+      <c r="A56" s="52"/>
+      <c r="B56" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" ht="165.75" spans="1:2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" ht="178.5" spans="1:2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" ht="76.5" spans="1:2">
+      <c r="A59" s="52"/>
+      <c r="B59" s="79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" ht="318.75" spans="1:2">
+      <c r="A60" s="52"/>
+      <c r="B60" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" ht="63.75" spans="1:2">
+      <c r="A61" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" ht="204" spans="1:2">
+      <c r="A62" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" ht="115.5" spans="1:2">
+      <c r="A63" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" ht="116.25" spans="1:2">
+      <c r="A64" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" ht="129" spans="1:2">
+      <c r="A65" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:2">
+      <c r="A66" s="81"/>
+      <c r="B66" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" spans="1:2">
+      <c r="A67" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" ht="51" spans="1:2">
+      <c r="A68" s="84"/>
+      <c r="B68" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" spans="1:2">
+      <c r="A69" s="84"/>
+      <c r="B69" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="84"/>
+      <c r="B70" s="83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" ht="51" spans="1:2">
+      <c r="A71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" ht="51" spans="1:2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" ht="76.5" spans="1:2">
+      <c r="A74" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" ht="38.25" spans="1:2">
+      <c r="A75" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" ht="63.75" spans="1:2">
+      <c r="A76" s="8"/>
+      <c r="B76" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" ht="63.75" spans="1:2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" ht="76.5" spans="1:2">
+      <c r="A78" s="8"/>
+      <c r="B78" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" ht="63.75" spans="1:2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" ht="13.5" spans="1:1">
+      <c r="A82" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:3">
+      <c r="A83" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:3">
+      <c r="A84" s="84"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="1:3">
+      <c r="A85" s="84"/>
+      <c r="B85" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="1:3">
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:3">
+      <c r="A87" s="84"/>
+      <c r="B87" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:3">
+      <c r="A88" s="84"/>
+      <c r="B88" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:3">
+      <c r="A89" s="84"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:3">
+      <c r="A90" s="84"/>
+      <c r="B90" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="86"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:3">
+      <c r="A91" s="84"/>
+      <c r="B91" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:3">
+      <c r="A92" s="84"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:3">
+      <c r="A93" s="84"/>
+      <c r="B93" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" ht="13.5" spans="1:1">
+      <c r="A94" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" ht="191.25" spans="1:2">
+      <c r="A95" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A83:A93"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B92"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E33"/>
@@ -16650,79 +16843,79 @@
   <sheetData>
     <row r="1" ht="303" customHeight="1" spans="1:2">
       <c r="A1" s="27" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" ht="76.5" spans="1:2">
       <c r="A3" s="27" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>178</v>
+      <c r="A4" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>207</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="43" t="s">
-        <v>180</v>
+      <c r="A5" s="67"/>
+      <c r="B5" s="42" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="40" t="s">
-        <v>181</v>
+      <c r="A6" s="67"/>
+      <c r="B6" s="39" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="43" t="s">
-        <v>182</v>
+      <c r="A7" s="67"/>
+      <c r="B7" s="42" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="40" t="s">
-        <v>183</v>
+      <c r="A8" s="67"/>
+      <c r="B8" s="39" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="43" t="s">
-        <v>184</v>
+      <c r="A9" s="67"/>
+      <c r="B9" s="42" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="40" t="s">
-        <v>185</v>
+      <c r="A10" s="67"/>
+      <c r="B10" s="39" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="43" t="s">
-        <v>186</v>
+      <c r="A11" s="68"/>
+      <c r="B11" s="42" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -16730,7 +16923,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="27" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -16738,13 +16931,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -16761,116 +16954,116 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" ht="76.5" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="70" t="s">
-        <v>196</v>
+      <c r="A23" s="69" t="s">
+        <v>225</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" ht="76.5" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" ht="204" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" ht="140.25" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>214</v>
+        <v>242</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="8"/>
       <c r="B32" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="39"/>
+        <v>244</v>
+      </c>
+      <c r="C32" s="71"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
       <c r="A33" s="8"/>
       <c r="B33" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="39"/>
+        <v>245</v>
+      </c>
+      <c r="C33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16889,7 +17082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C122"/>
@@ -16907,759 +17100,759 @@
   <sheetData>
     <row r="1" ht="24" spans="1:2">
       <c r="A1" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="54"/>
+        <v>246</v>
+      </c>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="55" t="s">
-        <v>218</v>
+      <c r="A2" s="54" t="s">
+        <v>247</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>221</v>
+      <c r="A3" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="55" t="s">
-        <v>222</v>
+      <c r="A4" s="54" t="s">
+        <v>251</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:2">
       <c r="A5" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>225</v>
+        <v>253</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>256</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>230</v>
+        <v>258</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>232</v>
+        <v>260</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>234</v>
+        <v>262</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" ht="191.25" spans="1:2">
       <c r="A10" s="30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
-      <c r="A11" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>238</v>
+      <c r="A11" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:2">
       <c r="A13" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="54"/>
+        <v>268</v>
+      </c>
+      <c r="B13" s="53"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
       <c r="A14" s="30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:2">
       <c r="A15" s="30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:2">
       <c r="A16" s="30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" ht="25.5" spans="1:2">
       <c r="A17" s="30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" ht="51" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="2:2">
       <c r="B20" s="10" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" ht="102" spans="2:2">
       <c r="B21" s="10" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:2">
       <c r="A23" s="30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" ht="51" spans="1:2">
       <c r="A24" s="30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="1:2">
       <c r="A26" s="30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="2:2">
       <c r="B27" s="10" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" ht="25.5" spans="2:2">
       <c r="B28" s="10" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
-      <c r="A30" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>265</v>
+      <c r="A30" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>294</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="17" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="17" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="5" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" ht="38.25" spans="1:2">
       <c r="A34" s="30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" ht="51" spans="1:2">
       <c r="A35" s="30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="2:2">
       <c r="B36" s="10" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" ht="63.75" spans="2:2">
       <c r="B37" s="10" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" ht="63.75" spans="2:2">
       <c r="B38" s="10" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" ht="65.25" spans="2:2">
       <c r="B39" s="10" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" ht="76.5" spans="1:2">
       <c r="A40" s="30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" ht="63.75" spans="2:2">
       <c r="B41" s="10" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="59" t="s">
-        <v>282</v>
+      <c r="A43" s="58" t="s">
+        <v>311</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:2">
       <c r="A44" s="30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" ht="38.25" spans="2:2">
       <c r="B45" s="10" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" ht="51" spans="2:2">
       <c r="B46" s="28" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" ht="38.25" spans="2:2">
       <c r="B47" s="28" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" ht="63.75" spans="2:2">
       <c r="B48" s="28" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" ht="216.75" spans="1:3">
       <c r="A49" s="33" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>292</v>
+        <v>320</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="61"/>
+      <c r="C50" s="60"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="30" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" ht="76.5" spans="1:2">
       <c r="A53" s="30" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" ht="63.75" spans="2:2">
       <c r="B54" s="10" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="30" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" ht="63.75" spans="1:2">
       <c r="A57" s="30" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" ht="140.25" spans="2:2">
       <c r="B58" s="28" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" ht="89.25" spans="2:2">
       <c r="B59" s="10" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" ht="38.25" spans="2:2">
       <c r="B60" s="28" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" ht="89.25" spans="2:2">
       <c r="B61" s="28" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:2">
       <c r="A63" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="B63" s="54"/>
+        <v>335</v>
+      </c>
+      <c r="B63" s="53"/>
     </row>
     <row r="64" ht="153" spans="1:3">
       <c r="A64" s="30" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" ht="140.25" spans="2:3">
       <c r="B65" s="10" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C65" s="14"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
-      <c r="A66" s="55" t="s">
-        <v>311</v>
+      <c r="A66" s="54" t="s">
+        <v>340</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C66" s="14"/>
     </row>
     <row r="67" ht="25.5" spans="1:3">
       <c r="A67" s="30" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="C67" s="14"/>
     </row>
     <row r="68" ht="51" spans="1:2">
       <c r="A68" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>316</v>
+        <v>344</v>
+      </c>
+      <c r="B68" s="61" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="63" t="s">
-        <v>317</v>
+      <c r="B69" s="62" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="63" t="s">
-        <v>318</v>
+      <c r="B70" s="62" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="63" t="s">
-        <v>319</v>
+      <c r="B71" s="62" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="62"/>
+      <c r="B72" s="61"/>
     </row>
     <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>321</v>
+      <c r="A73" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" s="61" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="55"/>
-      <c r="B74" s="62" t="s">
-        <v>322</v>
+      <c r="A74" s="54"/>
+      <c r="B74" s="61" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="55"/>
-      <c r="B75" s="62" t="s">
-        <v>323</v>
+      <c r="A75" s="54"/>
+      <c r="B75" s="61" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="76" ht="51" spans="1:2">
       <c r="A76" s="30" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" ht="114.75" spans="2:2">
       <c r="B77" s="10" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" ht="114.75" spans="2:2">
       <c r="B78" s="10" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="30" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
-      <c r="A81" s="55" t="s">
-        <v>329</v>
+      <c r="A81" s="54" t="s">
+        <v>358</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
-      <c r="A82" s="55"/>
-      <c r="B82" s="64" t="s">
-        <v>331</v>
+      <c r="A82" s="54"/>
+      <c r="B82" s="63" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
-      <c r="A83" s="55"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="28" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
-      <c r="A84" s="55"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="28" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" ht="51" spans="1:2">
       <c r="A85" s="30" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" ht="63.75" spans="2:2">
       <c r="B86" s="28" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" ht="195" customHeight="1" spans="2:2">
       <c r="B87" s="10" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" ht="76.5" spans="1:2">
       <c r="A88" s="30" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" ht="76.5" spans="2:2">
       <c r="B89" s="28" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="65" t="s">
-        <v>341</v>
+      <c r="B90" s="64" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="2:2">
       <c r="B91" s="10" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" ht="25.5" spans="2:2">
       <c r="B92" s="10" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" ht="25.5" spans="2:2">
       <c r="B93" s="10" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:2">
       <c r="A95" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="B95" s="54"/>
+        <v>374</v>
+      </c>
+      <c r="B95" s="53"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
-      <c r="A96" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="B96" s="66" t="s">
-        <v>347</v>
+      <c r="A96" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="97" ht="102" spans="1:2">
       <c r="A97" s="30" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="62" t="s">
-        <v>350</v>
+      <c r="B98" s="61" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="99" ht="114.75" spans="2:2">
       <c r="B99" s="10" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" ht="76.5" spans="1:2">
       <c r="A100" s="30" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" ht="114.75" spans="2:2">
       <c r="B101" s="28" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" ht="114.75" spans="2:2">
       <c r="B102" s="28" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" ht="153" spans="2:2">
       <c r="B103" s="28" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" ht="51" spans="2:2">
       <c r="B104" s="28" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="65" t="s">
-        <v>358</v>
+      <c r="B105" s="64" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="106" ht="165.75" spans="1:2">
       <c r="A106" s="30" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" ht="76.5" spans="1:2">
       <c r="A107" s="30" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" ht="127.5" spans="2:2">
       <c r="B108" s="28" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
-      <c r="A109" s="55" t="s">
-        <v>364</v>
+      <c r="A109" s="54" t="s">
+        <v>393</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="55"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="28" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="55" t="s">
-        <v>367</v>
+      <c r="A111" s="54" t="s">
+        <v>396</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
-      <c r="A112" s="55"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="10" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
-      <c r="A113" s="55"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="10" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A114" s="55"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="10" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
-      <c r="A115" s="55"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="10" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
-      <c r="A116" s="55"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="10" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
-      <c r="A117" s="55"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="10" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
-      <c r="A118" s="55"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="9" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
-      <c r="A119" s="55"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="10" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
-      <c r="A120" s="55"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="9" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
-      <c r="A121" s="55"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="9" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="55"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="9" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -17706,7 +17899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K46"/>
@@ -17724,114 +17917,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>385</v>
+      <c r="A3" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>387</v>
+      <c r="A4" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="91" t="s">
-        <v>388</v>
+      <c r="A5" s="94" t="s">
+        <v>417</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>394</v>
+      <c r="A8" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="44"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="44"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="45"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="44"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="10" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="10" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="10" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -17839,185 +18032,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="9" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="28" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="9" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="9" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="9" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="47" t="s">
-        <v>423</v>
+      <c r="A34" s="46" t="s">
+        <v>452</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>425</v>
+        <v>453</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="9" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="9" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="53" t="s">
-        <v>438</v>
+      <c r="A43" s="52" t="s">
+        <v>467</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="53"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="27" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="53"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="27" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="53"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="27" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -18043,13 +18236,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -18059,52 +18252,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="46" t="s">
-        <v>446</v>
+      <c r="A1" s="45" t="s">
+        <v>475</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="32"/>
       <c r="B2" s="17" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:2">
       <c r="A3" s="32"/>
       <c r="B3" s="17" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="32"/>
       <c r="B4" s="17" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="32"/>
       <c r="B5" s="17" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" ht="114.75" spans="1:2">
       <c r="A6" s="32"/>
       <c r="B6" s="5" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
       <c r="A7" s="32"/>
       <c r="B7" s="33" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="32"/>
-      <c r="C8" s="47"/>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="32"/>
@@ -18189,22 +18382,22 @@
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="32" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="32"/>
       <c r="B37" s="18" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:2">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -18289,7 +18482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -18305,7 +18498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C19"/>
@@ -18322,89 +18515,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>459</v>
+      <c r="A1" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -18417,121 +18610,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="31.8533333333333" customWidth="1"/>
-    <col min="2" max="2" width="82.2866666666667" customWidth="1"/>
-    <col min="3" max="3" width="30.14" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="140.25" spans="1:2">
-      <c r="A2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>482</v>
-      </c>
-      <c r="B8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" ht="63.75" spans="1:2">
-      <c r="A10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" ht="63.75" spans="1:4">
-      <c r="A11" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" ht="76.5" spans="1:4">
-      <c r="A12" s="39"/>
-      <c r="B12" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:A12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Java-Spring\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A389145-7F98-4679-B719-A3D28A7384EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="815">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -2900,85 +2906,6 @@
     <t>Spring Dependency Injection</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - The dependency inversion principle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - The client delegates to anpther object the responsibility of providing its dependencies
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Injection Types:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   + Constructor Injection :
-      * Use this when you have required dependencies
-      * Generally recommended by the spring.io development team as firs choice
-   + Setter Injection:
-      * Use this then you have optional dependencies
-      * If dependency is not provide, your app can provide reasonable default logic
-   + Field Injection
-      * It makes the code harder to unit test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- AutoWiring:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  + For dependency injection, Spring can use autiwiring
-  + Spring will look for a class that matches, matches by type: class or interface
-  + Spring will inject it automatically ... hence it is autowired</t>
-    </r>
-  </si>
-  <si>
     <t>Component Scanning</t>
   </si>
   <si>
@@ -3001,182 +2928,7 @@
     <t>Initialization</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - By default, when your application starts, all beans are initialized: @Component, etc …
- - Spring will create an instance of each and make them available
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Lazy Initialization :
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ Instead of creating all beans up front, we can specify lazy initialization
-   + A bean will only be initialized in the following cases: 
-      * It is needed for dependency injection
-      * Or it is explicity requested
-   + Add </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Lazy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> annotation to a given class
-   + global configuration: spring.main.lazy-initialization = true
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Advantages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-   + Only create objects as needed
-   + May help with faster startup time if you have lage number of components
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Disadvantages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   + If you have related components like @RestController, not created until requested
-   + May not discover configuration issues until too late
-   + Need to make sure you have enough memory for all beans once created</t>
-    </r>
-  </si>
-  <si>
     <t>Bean Scopes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Scope refers to the lifecycle of a bean
- - How long does the bean live ?
- - How many instances are created ?
- - How the beans is share ? 
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Singleton :
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ Spring container creates only one instance of the bean, by default
-  + It is cached in memory
-  + All dependency injections for the bean: 
-     * will referenced the SAME bean
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Prototype
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+ Creates a new bean instance for each container request</t>
-    </r>
   </si>
   <si>
     <t>Bean Lifecycle</t>
@@ -12099,23 +11851,315 @@
   <si>
     <t>Load Balancing</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The dependency inversion principle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - The client delegates to anpther object the responsibility of providing its dependencies
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Injection Types:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + Constructor Injection :
+      * Use this when you have required dependencies
+      * Generally recommended by the spring.io development team as firs choice
+   + Setter Injection:
+      * Use this then you have optional dependencies
+      * If dependency is not provide, your app can provide reasonable default logic
+   + Field Injection
+      * It makes the code harder to unit test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- AutoWiring:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  + For dependency injection, Spring can use autiwiring
+  + Spring will look for a class that matches, matches by type: class or interface
+  + Spring will inject it automatically ... hence it is autowired</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - By default, when your application starts, all beans are initialized: @Component, etc …
+ - Spring will create an instance of each and make them available
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lazy Initialization :
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Instead of creating all beans up front, we can specify lazy initialization
+   + A bean will only be initialized in the following cases: 
+      * It is needed for dependency injection
+      * Or it is explicity requested
+   + Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Lazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation to a given class
+   + global configuration: spring.main.lazy-initialization = true
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+   + Only create objects as needed
+   + May help with faster startup time if you have lage number of components
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + If you have related components like @RestController, not created until requested
+   + May not discover configuration issues until too late
+   + Need to make sure you have enough memory for all beans once created</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Scope refers to the lifecycle of a bean
+ - How long does the bean live ?
+ - How many instances are created ?
+ - How the beans is share ? 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Singleton :
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Spring container creates only one instance of the bean, by default
+  + It is cached in memory
+  + All dependency injections for the bean: 
+     * will referenced the SAME bean
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prototype
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Creates a new bean instance for each container request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Is a design principle in SE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>where the control of objects or portions(các phần) of a program is transferred from the code itself to container or framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, is core concept in dependency injection (DI)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key Concepts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1. Control Reversal 
+2. Dependency Injection
+3. Decoupling</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12248,120 +12292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -12410,8 +12340,31 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12454,182 +12407,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -12713,336 +12492,88 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13052,208 +12583,240 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -13269,13 +12832,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Ảnh 2"/>
+        <xdr:cNvPr id="3" name="Ảnh 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13307,13 +12876,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Ảnh 3"/>
+        <xdr:cNvPr id="4" name="Ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13345,13 +12920,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Ảnh 4"/>
+        <xdr:cNvPr id="5" name="Ảnh 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13372,7 +12953,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -13388,13 +12969,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13415,7 +13002,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -13431,13 +13018,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13458,7 +13051,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -13474,13 +13067,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13501,7 +13100,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -13517,13 +13116,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13795,467 +13400,465 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14" style="9"/>
-    <col min="2" max="2" width="39.5733333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="95.5733333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="60.7133333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="58.8533333333333" style="9" customWidth="1"/>
-    <col min="6" max="6" width="50" style="9" customWidth="1"/>
-    <col min="7" max="7" width="49.7133333333333" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.14" style="9"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="39.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50" style="5" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" spans="1:3">
-      <c r="A1" s="9">
+    <row r="1" spans="1:7" ht="90">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" ht="75">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="178.5" spans="1:3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" ht="240">
+      <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="229.5" spans="1:3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" ht="300">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="245.25" customHeight="1" spans="1:3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" ht="245.25" customHeight="1">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="223.5" customHeight="1" spans="1:3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" ht="223.5" customHeight="1">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="204" spans="1:4">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" ht="300">
+      <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="2:3">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:7" ht="30">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="102" spans="2:3">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:7" ht="150">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="140.25" spans="2:3">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:7" ht="180">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" ht="288.75" customHeight="1" spans="2:7">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:7" ht="288.75" customHeight="1">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="38.25" spans="2:3">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:7" ht="60">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="240.75" customHeight="1" spans="2:2">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:7" ht="240.75" customHeight="1">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="153" spans="2:3">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:3" ht="180">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="153" spans="2:3">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:3" ht="180">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="49" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId2" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60">
+      <c r="A4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" ht="51" spans="1:2">
-      <c r="A4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75">
+      <c r="A9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" ht="63.75" spans="1:2">
-      <c r="A9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>519</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B14" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B15" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="29" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>526</v>
       </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="38" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>528</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B19" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="19" ht="51" spans="1:2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="69" t="s">
+        <v>542</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="69"/>
+      <c r="B29" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="28" ht="63.75" spans="1:2">
-      <c r="A28" s="8" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="69"/>
+      <c r="B30" t="s">
         <v>545</v>
       </c>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="69"/>
+      <c r="B31" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8"/>
-      <c r="B29" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="69"/>
+      <c r="B32" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="69"/>
+      <c r="B33" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="69"/>
+      <c r="B34" t="s">
         <v>549</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="8"/>
-      <c r="B34" t="s">
-        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -14263,217 +13866,218 @@
     <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="55.8533333333333" style="29" customWidth="1"/>
-    <col min="2" max="2" width="54.14" style="30" customWidth="1"/>
-    <col min="3" max="3" width="101.713333333333" style="31" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="101.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="79" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="79"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="79"/>
+      <c r="B3" s="93"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="79"/>
+      <c r="B4" s="93"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="79"/>
+      <c r="B5" s="93"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="79"/>
+      <c r="B6" s="93"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="79"/>
+      <c r="B7" s="93"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="79"/>
+      <c r="B8" s="93"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="79"/>
+      <c r="B9" s="93"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="79"/>
+      <c r="B10" s="93"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="79"/>
+      <c r="B11" s="93"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="79"/>
+      <c r="B12" s="93"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="79"/>
+      <c r="B13" s="93"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="79"/>
+      <c r="B14" s="93"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A15" s="79"/>
+      <c r="B15" s="93"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A16" s="79"/>
+      <c r="B16" s="93"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A17" s="79"/>
+      <c r="B17" s="93"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A18" s="79"/>
+      <c r="B18" s="93"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A19" s="79"/>
+      <c r="B19" s="93"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A20" s="79"/>
+      <c r="B20" s="93"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A21" s="79"/>
+      <c r="B21" s="93"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75">
+      <c r="A22" s="79"/>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75">
+      <c r="A23" s="79"/>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75">
+      <c r="A24" s="79"/>
+      <c r="B24" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75">
+      <c r="A26" s="79" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75">
+      <c r="A27" s="79"/>
+      <c r="B27" s="21" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="2" ht="12.75" spans="1:3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" ht="12.75" spans="1:2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-    </row>
-    <row r="4" ht="12.75" spans="1:2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-    </row>
-    <row r="5" ht="12.75" spans="1:2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-    </row>
-    <row r="6" ht="12.75" spans="1:2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-    </row>
-    <row r="7" ht="12.75" spans="1:2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-    </row>
-    <row r="8" ht="12.75" spans="1:2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-    </row>
-    <row r="9" ht="12.75" spans="1:2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-    </row>
-    <row r="10" ht="12.75" spans="1:2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-    </row>
-    <row r="11" ht="12.75" spans="1:2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-    </row>
-    <row r="12" ht="12.75" spans="1:2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-    </row>
-    <row r="13" ht="12.75" spans="1:2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-    </row>
-    <row r="14" ht="12.75" spans="1:2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-    </row>
-    <row r="22" ht="17.25" spans="1:2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-    </row>
-    <row r="23" ht="17.25" spans="1:2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-    </row>
-    <row r="24" ht="17.25" spans="1:2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
-    </row>
-    <row r="26" ht="17.25" spans="1:2">
-      <c r="A26" s="32" t="s">
+    <row r="28" spans="1:3" ht="18.75">
+      <c r="A28" s="79"/>
+      <c r="B28" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="B26" s="30" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="79" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="30" t="s">
+      <c r="B30" s="81" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="28" ht="17.25" spans="1:2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="30" t="s">
+      <c r="C30" s="22" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="32"/>
-    </row>
-    <row r="30" ht="12.75" spans="1:3">
-      <c r="A30" s="32" t="s">
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="79"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="B30" s="30" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="C30" s="31" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="79"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="22" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="31" ht="12.75" spans="1:3">
-      <c r="A31" s="32"/>
-      <c r="C31" s="31" t="s">
+    <row r="35" spans="1:3" ht="165">
+      <c r="A35" s="79" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="32" ht="12.75" spans="1:3">
-      <c r="A32" s="32"/>
-      <c r="C32" s="31" t="s">
+      <c r="B35" s="21" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="33" ht="12.75" spans="1:3">
-      <c r="A33" s="32"/>
-      <c r="C33" s="31" t="s">
+      <c r="C35" s="66" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="35" ht="114.75" spans="1:3">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:3" ht="105">
+      <c r="A36" s="79"/>
+      <c r="B36" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="C36" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="C35" s="95" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="105">
+      <c r="A37" s="79"/>
+      <c r="B37" s="21" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="36" ht="89.25" spans="1:3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="30" t="s">
+      <c r="C37" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="C36" s="95" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="60">
+      <c r="A38" s="79"/>
+      <c r="B38" s="21" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="37" ht="76.5" spans="1:3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="30" t="s">
+      <c r="C38" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="C37" s="36" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="23" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="38" ht="51" spans="1:3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="32" t="s">
-        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -14487,308 +14091,306 @@
     <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" style="10" customWidth="1"/>
-    <col min="2" max="2" width="109" style="10" customWidth="1"/>
+    <col min="1" max="1" width="32" style="6" customWidth="1"/>
+    <col min="2" max="2" width="109" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="127.5" spans="1:3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" ht="150">
+      <c r="A1" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="200.25" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B2" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C1" s="24" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="120">
+      <c r="A3" s="6" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="2" ht="200.25" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="6" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="B4" s="63" t="s">
         <v>579</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B4" s="92" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="10" t="s">
+    <row r="7" spans="1:3" ht="45">
+      <c r="A7" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:1">
-      <c r="A6" s="10" t="s">
+    <row r="8" spans="1:3" ht="150">
+      <c r="A8" s="6" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="60">
+      <c r="A12" s="6" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="8" ht="114.75" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B8" s="10" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="60">
+      <c r="A13" s="6" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="120">
+      <c r="A14" s="6" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="13" ht="51" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="120">
+      <c r="A15" s="6" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="14" ht="89.25" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="15" ht="102" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B15" s="10" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="225">
+      <c r="A17" s="6" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="6" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="17" ht="178.5" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B17" s="10" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="345">
+      <c r="A19" s="6" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="18" ht="25.5" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B18" s="10" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="19" ht="280.5" spans="1:2">
-      <c r="A19" s="10" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="25"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="6" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B31" s="10" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="135">
+      <c r="A34" s="6" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B33" s="10" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="34" ht="114.75" spans="1:2">
-      <c r="A34" s="10" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="B34" s="10" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="10" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="94" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="10" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="94"/>
+      <c r="B55" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="26" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="94"/>
+      <c r="B56" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B54" s="10" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="70" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="26"/>
-      <c r="B55" s="10" t="s">
+      <c r="B58" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="10" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="19" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="58" ht="25.5" spans="1:2">
-      <c r="A58" s="27" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="B58" s="10" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="19" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="19" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="70"/>
+      <c r="B63" s="19" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="70"/>
+      <c r="B64" s="19" t="s">
         <v>633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28" t="s">
-        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -14797,691 +14399,679 @@
     <mergeCell ref="A58:A64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="HƯỚNG DẪN CÁC BƯỚC PHÁT TRIỂN HỆ THỐNG MICROSERVICE VỚI DOCKER | CO-WELL Asia"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.14" customWidth="1"/>
-    <col min="2" max="2" width="110.853333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="105">
+      <c r="A1" s="69" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105">
+      <c r="A2" s="69"/>
+      <c r="B2" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135">
+      <c r="A3" s="69"/>
+      <c r="B3" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="90">
+      <c r="A4" s="69" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="2" ht="89.25" spans="1:2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="17" t="s">
+      <c r="B4" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="3" ht="102" spans="1:2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" s="69"/>
+      <c r="B5" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="69"/>
+      <c r="B6" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="69" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="17" t="s">
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="69"/>
+      <c r="B8" s="10" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" s="8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="69"/>
+      <c r="B9" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B7" s="17" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="69"/>
+      <c r="B10" s="10" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="8" ht="38.25" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="69"/>
+      <c r="B11" s="10" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="17" t="s">
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="69" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17" t="s">
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="69"/>
+      <c r="B13" s="10" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="1:2">
-      <c r="A12" s="8" t="s">
+    <row r="14" spans="1:2" ht="165">
+      <c r="A14" s="69"/>
+      <c r="B14" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B12" s="17" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="69"/>
+      <c r="B15" s="10" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="69"/>
+      <c r="B16" s="10" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="14" ht="127.5" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17" t="s">
+    <row r="17" spans="1:2" ht="120">
+      <c r="A17" s="69"/>
+      <c r="B17" s="10" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17" t="s">
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="69"/>
+      <c r="B18" s="10" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="69"/>
+      <c r="B19" s="10" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="17" ht="102" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="17" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="69"/>
+      <c r="B20" s="11" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17" t="s">
+    <row r="21" spans="1:2" ht="195">
+      <c r="A21" s="95" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17" t="s">
+      <c r="B21" s="10" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="18" t="s">
+    <row r="22" spans="1:2" ht="300">
+      <c r="A22" s="95"/>
+      <c r="B22" s="10" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="21" ht="165.75" spans="1:2">
-      <c r="A21" s="19" t="s">
+    <row r="23" spans="1:2" ht="195">
+      <c r="A23" s="95"/>
+      <c r="B23" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B21" s="17" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="95"/>
+      <c r="B24" s="10" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="22" ht="242.25" spans="1:2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="95"/>
+      <c r="B25" s="10" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="23" ht="153" spans="1:2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17" t="s">
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="95"/>
+      <c r="B26" s="10" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="24" ht="38.25" spans="1:2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="95"/>
+      <c r="B27" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="25" ht="25.5" spans="1:2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="95"/>
+      <c r="B28" s="11" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="26" ht="51" spans="1:2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17" t="s">
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="96" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17" t="s">
+      <c r="B29" s="10" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="10" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="29" ht="38.25" spans="1:2">
-      <c r="A29" s="21" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B29" s="17" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="69"/>
+      <c r="B32" s="10" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="17" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="69"/>
+      <c r="B33" s="10" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="17" t="s">
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="95" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="17" t="s">
+      <c r="B34" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="17" t="s">
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="69"/>
+      <c r="B35" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="34" ht="51" spans="1:2">
-      <c r="A34" s="19" t="s">
+    <row r="36" spans="1:2" ht="75">
+      <c r="A36" s="69"/>
+      <c r="B36" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B34" s="5" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="75">
+      <c r="A37" s="69"/>
+      <c r="B37" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="35" ht="38.25" spans="1:2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5" t="s">
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="69" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="37" ht="51" spans="1:2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5" t="s">
+    <row r="39" spans="1:2" ht="90">
+      <c r="A39" s="69"/>
+      <c r="B39" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="38" ht="25.5" spans="1:2">
-      <c r="A38" s="8" t="s">
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="69"/>
+      <c r="B40" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B38" s="5" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="69"/>
+      <c r="B41" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="39" ht="76.5" spans="1:2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="5" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="69"/>
+      <c r="B42" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="40" ht="25.5" spans="1:2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="5" t="s">
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="69"/>
+      <c r="B43" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="41" ht="25.5" spans="1:2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="5" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5" t="s">
+      <c r="B45" s="14" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" ht="25.5" spans="1:2">
-      <c r="A45" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A43"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
+    <hyperlink ref="B45" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.2866666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="77.4266666666667" style="9" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="89.25" spans="1:2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="135">
+      <c r="A1" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210">
+      <c r="A2" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="2" ht="178.5" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>693</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="60.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="49.14" customWidth="1"/>
-    <col min="3" max="3" width="69.5733333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="180">
+      <c r="A3" s="97" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C3" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="8"/>
-    </row>
-    <row r="3" ht="140.25" spans="1:3">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:3" ht="150">
+      <c r="A4" s="97"/>
+      <c r="B4" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="97"/>
+      <c r="B5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="4" ht="127.5" spans="1:3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="97"/>
+      <c r="B6" t="s">
         <v>703</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="97"/>
+      <c r="B7" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13"/>
-      <c r="B5" t="s">
+    <row r="8" spans="1:3" ht="90">
+      <c r="A8" s="97"/>
+      <c r="B8" s="98" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13"/>
-      <c r="B6" t="s">
+      <c r="C8" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s">
+    <row r="9" spans="1:3" ht="165">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="8" ht="76.5" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15" t="s">
+    <row r="10" spans="1:3" ht="105">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="9" ht="102" spans="1:3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="5" t="s">
+    <row r="12" spans="1:3" ht="90">
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="10" ht="76.5" spans="1:3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="5" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="97"/>
+      <c r="B13" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
-      <c r="C11" t="s">
+    <row r="14" spans="1:3" ht="270">
+      <c r="A14" s="97"/>
+      <c r="B14" s="85" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="12" ht="63.75" spans="1:3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:3" ht="210">
+      <c r="A15" s="97"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="10" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="14" ht="191.25" spans="1:3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16" t="s">
+    <row r="16" spans="1:3" ht="120">
+      <c r="A16" s="97"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="97"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="10" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="15" ht="153" spans="1:3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+    <row r="18" spans="1:6" ht="90">
+      <c r="A18" s="97"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="97"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="97"/>
+      <c r="B20" s="11" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="17" ht="38.25" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="97"/>
+      <c r="B21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="18" ht="76.5" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="5" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="97" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="18" t="s">
+      <c r="B24" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="97"/>
+      <c r="B25" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="97"/>
+      <c r="B26" t="s">
         <v>723</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="97"/>
+      <c r="B27" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="13"/>
-      <c r="B25" t="s">
+    <row r="28" spans="1:6" ht="90">
+      <c r="A28" s="97"/>
+      <c r="B28" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" t="s">
+    <row r="29" spans="1:6" ht="180">
+      <c r="A29" s="97"/>
+      <c r="B29" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="180">
+      <c r="A31" s="97" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="28" ht="51" spans="1:2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="29" ht="127.5" spans="1:2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="5" t="s">
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="75">
+      <c r="A32" s="97"/>
+      <c r="B32" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="19"/>
-    </row>
-    <row r="31" ht="102" spans="1:6">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="97"/>
+      <c r="B33" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B31" s="5" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="97"/>
+      <c r="B34" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" ht="51" spans="1:2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="5" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="97"/>
+      <c r="B35" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="33" ht="25.5" spans="1:2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="5" t="s">
+    <row r="36" spans="1:3" ht="150">
+      <c r="A36" s="97"/>
+      <c r="B36" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="36" ht="114.75" spans="1:3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15492,60 +15082,56 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.8533333333333" customWidth="1"/>
-    <col min="2" max="2" width="82.2866666666667" customWidth="1"/>
-    <col min="3" max="3" width="30.14" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="140.25" spans="1:2">
+    <row r="3" spans="1:4" ht="165">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:2">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -15553,7 +15139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -15561,7 +15147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -15569,7 +15155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -15577,7 +15163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:2">
+    <row r="10" spans="1:4" ht="45" customHeight="1">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -15585,67 +15171,67 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="63.75" spans="1:2">
+    <row r="11" spans="1:4" ht="75">
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" ht="63.75" spans="1:4">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:4" ht="75">
+      <c r="A12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" ht="76.5" spans="1:4">
-      <c r="A13" s="71"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:4" ht="90">
+      <c r="A13" s="68"/>
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="26.25" spans="1:4">
-      <c r="A20" s="87" t="s">
+    <row r="20" spans="1:4" ht="28.5">
+      <c r="A20" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-    </row>
-    <row r="21" ht="102" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+    </row>
+    <row r="21" spans="1:4" ht="135">
+      <c r="A21" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="63.75" spans="1:2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:4" ht="75">
+      <c r="A22" s="69"/>
+      <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="88" t="s">
+    <row r="24" spans="1:4" ht="60">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -15656,196 +15242,188 @@
     <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.2866666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="57.7133333333333" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.14" style="9"/>
+    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="195">
+      <c r="A1" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90">
+      <c r="A2" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="180">
+      <c r="A3" s="6" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="3" ht="153" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>742</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.8533333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="51" spans="1:2">
+    <row r="2" spans="1:2" ht="75">
       <c r="A2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="165">
+      <c r="A3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="150">
+      <c r="A4" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="3" ht="127.5" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B4" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="75">
+      <c r="A5" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="4" ht="114.75" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B5" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="60">
+      <c r="A6" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="5" ht="63.75" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="75">
+      <c r="A8" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="7" ht="38.25" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="69" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="8" ht="63.75" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>755</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="69"/>
+      <c r="B10" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="69"/>
+      <c r="B11" t="s">
         <v>757</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="69"/>
+      <c r="B12" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="69"/>
+      <c r="B13" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="69"/>
+      <c r="B14" t="s">
         <v>760</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s">
-        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -15853,132 +15431,130 @@
     <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5733333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.5733333333333" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>764</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B4" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" ht="60">
+      <c r="A6" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B6" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="6" ht="51" spans="1:2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" t="s">
         <v>770</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="10" ht="38.25" spans="1:2">
-      <c r="A10" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>773</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="27" spans="1:2" ht="105">
+      <c r="A27" s="99" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B27" s="2" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="99"/>
+      <c r="B28" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="7" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="99"/>
+      <c r="B29" t="s">
         <v>781</v>
       </c>
-      <c r="B27" s="5" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="99"/>
+      <c r="B30" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="7"/>
-      <c r="B29" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -15986,154 +15562,151 @@
     <mergeCell ref="A27:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://projectreactor.io/"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="111.713333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85333333333333" style="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="111.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="69" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75">
+      <c r="A2" s="69"/>
+      <c r="B2" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135">
+      <c r="A3" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="3" ht="114.75" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="195">
+      <c r="A5" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="5" ht="165.75" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:2" ht="105">
+      <c r="A7" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:2" ht="225">
+      <c r="A8" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="7" ht="89.25" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="8" ht="191.25" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="9" ht="89.25" spans="1:2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:2" ht="120">
+      <c r="A12" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="11" ht="38.25" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="75">
+      <c r="A13" s="69" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="12" ht="102" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="120">
+      <c r="A14" s="69"/>
+      <c r="B14" s="2" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="13" ht="63.75" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="69"/>
+      <c r="B15" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="135">
+      <c r="A16" s="69"/>
+      <c r="B16" s="2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="14" ht="63.75" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="69"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="15" ht="38.25" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="16" ht="114.75" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -16142,928 +15715,935 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.8533333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="117" style="9" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="117" style="5" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" ht="38.25" spans="1:2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" ht="280.5" spans="1:2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" ht="360">
+      <c r="A4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="63" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" ht="38.25" spans="1:2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="93" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="63" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" ht="165.75" spans="1:1">
-      <c r="A12" s="27" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="195">
+      <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="52" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:2" ht="51">
+      <c r="A16" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="54" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="32" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="39"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" ht="25.5" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="B19" s="30"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="8" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" ht="25.5" spans="1:2">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" ht="51" spans="1:2">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" ht="38.25" spans="1:2">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" ht="38.25" spans="1:2">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" ht="51" spans="1:2">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" ht="51" spans="1:2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="28" t="s">
+    <row r="45" spans="1:2" ht="60">
+      <c r="A45" s="69"/>
+      <c r="B45" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" ht="63.75" spans="1:2">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:2" ht="75">
+      <c r="A46" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" ht="51" spans="1:2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="10" t="s">
+    <row r="47" spans="1:2" ht="60">
+      <c r="A47" s="69"/>
+      <c r="B47" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" ht="38.25" spans="1:2">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" ht="63.75" spans="1:2">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" ht="63.75" spans="1:2">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" ht="76.5" spans="1:2">
-      <c r="A51" s="27" t="s">
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" ht="114.75" spans="1:2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="10" t="s">
+    <row r="52" spans="1:2" ht="135">
+      <c r="A52" s="70"/>
+      <c r="B52" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="10" t="s">
+    <row r="53" spans="1:2" ht="105">
+      <c r="A53" s="70"/>
+      <c r="B53" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="52" t="s">
+    <row r="54" spans="1:2" ht="60">
+      <c r="A54" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="10" t="s">
+    <row r="55" spans="1:2" ht="120">
+      <c r="A55" s="71"/>
+      <c r="B55" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="28" t="s">
+    <row r="56" spans="1:2" ht="180">
+      <c r="A56" s="71"/>
+      <c r="B56" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="28" t="s">
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="71"/>
+      <c r="B57" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="10" t="s">
+    <row r="58" spans="1:2" ht="240">
+      <c r="A58" s="71"/>
+      <c r="B58" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="79" t="s">
+    <row r="59" spans="1:2" ht="90">
+      <c r="A59" s="71"/>
+      <c r="B59" s="55" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="80" t="s">
+    <row r="60" spans="1:2" ht="409.5">
+      <c r="A60" s="71"/>
+      <c r="B60" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" ht="63.75" spans="1:2">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:2" ht="75">
+      <c r="A61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" ht="204" spans="1:2">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:2" ht="255">
+      <c r="A62" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" ht="115.5" spans="1:2">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:2" ht="135">
+      <c r="A63" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="81" t="s">
+    <row r="64" spans="1:2" ht="135">
+      <c r="A64" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="81" t="s">
+    <row r="65" spans="1:2" ht="165">
+      <c r="A65" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="81"/>
-      <c r="B66" s="63" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="46" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="82" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="58" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="84"/>
-      <c r="B68" s="48" t="s">
+    <row r="68" spans="1:2" ht="60">
+      <c r="A68" s="74"/>
+      <c r="B68" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="84"/>
-      <c r="B69" s="80" t="s">
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="74"/>
+      <c r="B69" s="56" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="84"/>
-      <c r="B70" s="83" t="s">
+      <c r="A70" s="74"/>
+      <c r="B70" s="58" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="71" ht="51" spans="1:2">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="63" t="s">
+      <c r="A72" s="69"/>
+      <c r="B72" s="46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" ht="51" spans="1:2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="10" t="s">
+    <row r="73" spans="1:2" ht="60">
+      <c r="A73" s="69"/>
+      <c r="B73" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" ht="76.5" spans="1:2">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:2" ht="90">
+      <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:2" ht="60">
+      <c r="A75" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" ht="63.75" spans="1:2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="10" t="s">
+    <row r="76" spans="1:2" ht="75">
+      <c r="A76" s="69"/>
+      <c r="B76" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" ht="63.75" spans="1:2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="10" t="s">
+    <row r="77" spans="1:2" ht="75">
+      <c r="A77" s="69"/>
+      <c r="B77" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" ht="76.5" spans="1:2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="10" t="s">
+    <row r="78" spans="1:2" ht="90">
+      <c r="A78" s="69"/>
+      <c r="B78" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" ht="63.75" spans="1:2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="28" t="s">
+    <row r="79" spans="1:2" ht="75">
+      <c r="A79" s="69"/>
+      <c r="B79" s="19" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="63" t="s">
+      <c r="A80" s="69"/>
+      <c r="B80" s="46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" ht="13.5" spans="1:1">
-      <c r="A82" s="8" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:3">
-      <c r="A83" s="84" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="85" t="s">
+      <c r="B83" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="84"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="86" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="74"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="60" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:3">
-      <c r="A85" s="84"/>
-      <c r="B85" s="85" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="74"/>
+      <c r="B85" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="84"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="86" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="74"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="60" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:3">
-      <c r="A87" s="84"/>
-      <c r="B87" s="85" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="74"/>
+      <c r="B87" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:3">
-      <c r="A88" s="84"/>
-      <c r="B88" s="85" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="74"/>
+      <c r="B88" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="60" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:3">
-      <c r="A89" s="84"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="86" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="74"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="60" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:3">
-      <c r="A90" s="84"/>
-      <c r="B90" s="85" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="74"/>
+      <c r="B90" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="86"/>
-    </row>
-    <row r="91" ht="14.25" spans="1:3">
-      <c r="A91" s="84"/>
-      <c r="B91" s="85" t="s">
+      <c r="C90" s="60"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="74"/>
+      <c r="B91" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="60" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:3">
-      <c r="A92" s="84"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="86" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="74"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:3">
-      <c r="A93" s="84"/>
-      <c r="B93" s="85" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="74"/>
+      <c r="B93" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="60" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" ht="13.5" spans="1:1">
-      <c r="A94" s="8" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" ht="191.25" spans="1:2">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:3" ht="225">
+      <c r="A95" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="6" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A83:A93"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A83:A93"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="122.713333333333" customWidth="1"/>
-    <col min="3" max="3" width="139.713333333333" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="3" max="3" width="139.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="303" customHeight="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" ht="303" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" ht="153" spans="1:2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:5" ht="180">
+      <c r="A2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" ht="76.5" spans="1:2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:5" ht="90">
+      <c r="A3" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="77"/>
+      <c r="B5" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="30" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="77"/>
+      <c r="B7" s="32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="77"/>
+      <c r="B8" s="30" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="77"/>
+      <c r="B9" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="77"/>
+      <c r="B10" s="30" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="78"/>
+      <c r="B11" s="32" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="27" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B15" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="90">
+      <c r="A20" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="101" t="s">
+        <v>814</v>
+      </c>
+      <c r="C20" s="102"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="101" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="22" ht="76.5" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="C21" s="102"/>
+    </row>
+    <row r="22" spans="1:3" ht="90">
+      <c r="A22" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="101" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" ht="204" spans="1:2">
-      <c r="A23" s="69" t="s">
+      <c r="C22" s="102"/>
+    </row>
+    <row r="23" spans="1:3" ht="240">
+      <c r="A23" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="101" t="s">
+        <v>811</v>
+      </c>
+      <c r="C23" s="102"/>
+    </row>
+    <row r="24" spans="1:3" ht="90">
+      <c r="A24" s="100" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" ht="76.5" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="102"/>
+    </row>
+    <row r="25" spans="1:3" ht="45">
+      <c r="A25" s="100" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" ht="38.25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="102"/>
+    </row>
+    <row r="26" spans="1:3" ht="240">
+      <c r="A26" s="100" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" ht="204" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="101" t="s">
+        <v>812</v>
+      </c>
+      <c r="C26" s="102"/>
+    </row>
+    <row r="27" spans="1:3" ht="165">
+      <c r="A27" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="101" t="s">
+        <v>813</v>
+      </c>
+      <c r="C27" s="102"/>
+    </row>
+    <row r="28" spans="1:3" ht="120">
+      <c r="A28" s="100" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" ht="140.25" spans="1:2">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C28" s="102"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="100" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="8" t="s">
+      <c r="B29" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="C29" s="102"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="100" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="B30" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C30" s="102"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="105" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
+      <c r="B31" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C31" s="106" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="105"/>
+      <c r="B32" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C32" s="107"/>
+    </row>
+    <row r="33" spans="1:3" ht="135">
+      <c r="A33" s="105"/>
+      <c r="B33" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="71"/>
-    </row>
-    <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="71"/>
+      <c r="C33" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17072,791 +16652,851 @@
     <mergeCell ref="C31:C33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId2" display="springboot3-security-jwt/src/main/java/com/sc/repository/UserInfoRepository.java at main · JavaaTechSolutions/springboot3-security-jwt (github.com)"/>
-    <hyperlink ref="E4" r:id="rId3" display="Learn Spring Course | Baeldung"/>
-    <hyperlink ref="C31" r:id="rId4" display="https://spring.io/blog/2013/11/01/exception-handling-in-spring-mvc"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C31" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="35.2866666666667" style="30" customWidth="1"/>
-    <col min="2" max="2" width="107.853333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="76.8533333333333" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" ht="26.25">
+      <c r="A1" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="80"/>
+    </row>
+    <row r="2" spans="1:3" ht="192.75" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105">
+      <c r="A3" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="53"/>
-    </row>
-    <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="B3" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="37" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="B4" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="92" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="89.25">
+      <c r="A5" s="21" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="54" t="s">
+      <c r="B5" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" ht="84" spans="1:2">
-      <c r="A5" s="30" t="s">
+      <c r="B6" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="C6" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B7" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="24" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="30" t="s">
+      <c r="B8" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="B7" s="57" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="21" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
+      <c r="B9" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="57" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="255">
+      <c r="A10" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="30" t="s">
+      <c r="B10" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="57" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="60">
+      <c r="A11" s="41" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="10" ht="191.25" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="B11" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="26.25">
+      <c r="A13" s="79" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="11" ht="51" spans="1:2">
-      <c r="A11" s="58" t="s">
+      <c r="B13" s="80"/>
+    </row>
+    <row r="14" spans="1:3" ht="90">
+      <c r="A14" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B14" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" ht="24" spans="1:2">
-      <c r="A13" s="32" t="s">
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="53"/>
-    </row>
-    <row r="14" ht="76.5" spans="1:2">
-      <c r="A14" s="30" t="s">
+      <c r="B15" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="45">
+      <c r="A16" s="21" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="15" ht="25.5" spans="1:2">
-      <c r="A15" s="30" t="s">
+      <c r="B16" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="10" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="21" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="16" ht="38.25" spans="1:2">
-      <c r="A16" s="30" t="s">
+      <c r="B17" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="75">
+      <c r="A18" s="81" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="17" ht="25.5" spans="1:2">
-      <c r="A17" s="30" t="s">
+      <c r="B18" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B17" s="10" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="90">
+      <c r="A19" s="81"/>
+      <c r="B19" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="18" ht="38.25" spans="1:2">
-      <c r="A18" s="30" t="s">
+    <row r="20" spans="1:3" ht="45">
+      <c r="A20" s="81"/>
+      <c r="B20" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="10" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="135">
+      <c r="A21" s="81"/>
+      <c r="B21" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" ht="51" spans="2:2">
-      <c r="B19" s="10" t="s">
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="81"/>
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="20" ht="38.25" spans="2:2">
-      <c r="B20" s="10" t="s">
+    <row r="24" spans="1:3" ht="60">
+      <c r="A24" s="21" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="21" ht="102" spans="2:2">
-      <c r="B21" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" ht="38.25" spans="1:2">
-      <c r="A23" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="10" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="21" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="24" ht="51" spans="1:2">
-      <c r="A24" s="30" t="s">
+      <c r="B25" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="81" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="30" t="s">
+      <c r="B26" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="81"/>
+      <c r="B27" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" ht="12.75" spans="1:2">
-      <c r="A26" s="30" t="s">
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="81"/>
+      <c r="B28" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="21" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="27" ht="25.5" spans="2:2">
-      <c r="B27" s="10" t="s">
+      <c r="B29" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" ht="25.5" spans="2:2">
-      <c r="B28" s="10" t="s">
+    <row r="30" spans="1:3" ht="135">
+      <c r="A30" s="82" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="30" t="s">
+      <c r="B30" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="30" ht="114.75" spans="1:3">
-      <c r="A30" s="58" t="s">
+    <row r="31" spans="1:3" ht="75">
+      <c r="A31" s="82"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="59" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="30">
+      <c r="A32" s="82"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="17" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="210">
+      <c r="A33" s="82"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" ht="63.75" spans="1:3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="17" t="s">
+    <row r="34" spans="1:3" ht="60">
+      <c r="A34" s="21" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="32" ht="25.5" spans="1:3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="17" t="s">
+      <c r="B34" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" ht="153" spans="1:3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="5" t="s">
+    <row r="35" spans="1:3" ht="60">
+      <c r="A35" s="81" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="34" ht="38.25" spans="1:2">
-      <c r="A34" s="30" t="s">
+      <c r="B35" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B34" s="10" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="150">
+      <c r="A36" s="81"/>
+      <c r="B36" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="35" ht="51" spans="1:2">
-      <c r="A35" s="30" t="s">
+    <row r="37" spans="1:3" ht="75">
+      <c r="A37" s="81"/>
+      <c r="B37" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="10" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="90">
+      <c r="A38" s="81"/>
+      <c r="B38" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="36" ht="114.75" spans="2:2">
-      <c r="B36" s="10" t="s">
+    <row r="39" spans="1:3" ht="75">
+      <c r="A39" s="81"/>
+      <c r="B39" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="37" ht="63.75" spans="2:2">
-      <c r="B37" s="10" t="s">
+    <row r="40" spans="1:3" ht="90">
+      <c r="A40" s="81" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="38" ht="63.75" spans="2:2">
-      <c r="B38" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="39" ht="65.25" spans="2:2">
-      <c r="B39" s="10" t="s">
+    <row r="41" spans="1:3" ht="75">
+      <c r="A41" s="81"/>
+      <c r="B41" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="40" ht="76.5" spans="1:2">
-      <c r="A40" s="30" t="s">
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="81"/>
+      <c r="B42" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B40" s="10" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="41" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="41" ht="63.75" spans="2:2">
-      <c r="B41" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="10" t="s">
+    <row r="44" spans="1:3" ht="45">
+      <c r="A44" s="81" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="58" t="s">
+      <c r="B44" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B43" s="10" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="45">
+      <c r="A45" s="81"/>
+      <c r="B45" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="44" ht="38.25" spans="1:2">
-      <c r="A44" s="30" t="s">
+    <row r="46" spans="1:3" ht="60">
+      <c r="A46" s="81"/>
+      <c r="B46" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="B44" s="10" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="45">
+      <c r="A47" s="81"/>
+      <c r="B47" s="19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="45" ht="38.25" spans="2:2">
-      <c r="B45" s="10" t="s">
+    <row r="48" spans="1:3" ht="90">
+      <c r="A48" s="81"/>
+      <c r="B48" s="19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" ht="51" spans="2:2">
-      <c r="B46" s="28" t="s">
+    <row r="49" spans="1:3" ht="285">
+      <c r="A49" s="24" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="47" ht="38.25" spans="2:2">
-      <c r="B47" s="28" t="s">
+      <c r="B49" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="48" ht="63.75" spans="2:2">
-      <c r="B48" s="28" t="s">
+      <c r="C49" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" ht="216.75" spans="1:3">
-      <c r="A49" s="33" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="43"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="60" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="30" t="s">
+    <row r="53" spans="1:3" ht="105">
+      <c r="A53" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="60"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="30" t="s">
+      <c r="B53" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="30" t="s">
+    <row r="54" spans="1:3" ht="105">
+      <c r="A54" s="81"/>
+      <c r="B54" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="53" ht="76.5" spans="1:2">
-      <c r="A53" s="30" t="s">
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="81"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="B53" s="10" t="s">
+    </row>
+    <row r="57" spans="1:3" ht="75">
+      <c r="A57" s="81" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="54" ht="63.75" spans="2:2">
-      <c r="B54" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="30" t="s">
+    <row r="58" spans="1:3" ht="165">
+      <c r="A58" s="81"/>
+      <c r="B58" s="19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="57" ht="63.75" spans="1:2">
-      <c r="A57" s="30" t="s">
+    <row r="59" spans="1:3" ht="105">
+      <c r="A59" s="81"/>
+      <c r="B59" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B57" s="10" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="60">
+      <c r="A60" s="81"/>
+      <c r="B60" s="19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="58" ht="140.25" spans="2:2">
-      <c r="B58" s="28" t="s">
+    <row r="61" spans="1:3" ht="120">
+      <c r="A61" s="81"/>
+      <c r="B61" s="19" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="59" ht="89.25" spans="2:2">
-      <c r="B59" s="10" t="s">
+    <row r="63" spans="1:3" ht="26.25">
+      <c r="A63" s="79" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="60" ht="38.25" spans="2:2">
-      <c r="B60" s="28" t="s">
+      <c r="B63" s="80"/>
+    </row>
+    <row r="64" spans="1:3" ht="195">
+      <c r="A64" s="81" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="61" ht="89.25" spans="2:2">
-      <c r="B61" s="28" t="s">
+      <c r="B64" s="19" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="63" ht="24" spans="1:2">
-      <c r="A63" s="32" t="s">
+      <c r="C64" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="B63" s="53"/>
-    </row>
-    <row r="64" ht="153" spans="1:3">
-      <c r="A64" s="30" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="165">
+      <c r="A65" s="81"/>
+      <c r="B65" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="C65" s="86"/>
+    </row>
+    <row r="66" spans="1:3" ht="90">
+      <c r="A66" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="B66" s="19" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="65" ht="140.25" spans="2:3">
-      <c r="B65" s="10" t="s">
+      <c r="C66" s="86"/>
+    </row>
+    <row r="67" spans="1:3" ht="60">
+      <c r="A67" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C65" s="14"/>
-    </row>
-    <row r="66" ht="76.5" spans="1:3">
-      <c r="A66" s="54" t="s">
+      <c r="B67" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="C67" s="86"/>
+    </row>
+    <row r="68" spans="1:3" ht="60">
+      <c r="A68" s="81" t="s">
         <v>341</v>
       </c>
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" ht="25.5" spans="1:3">
-      <c r="A67" s="30" t="s">
+      <c r="B68" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="B67" s="10" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="225">
+      <c r="A69" s="81"/>
+      <c r="B69" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="30" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="390">
+      <c r="A70" s="81"/>
+      <c r="B70" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="B68" s="61" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="135">
+      <c r="A71" s="81"/>
+      <c r="B71" s="45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="62" t="s">
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="81"/>
+      <c r="B72" s="44"/>
+    </row>
+    <row r="73" spans="1:3" ht="60">
+      <c r="A73" s="83" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="62" t="s">
+      <c r="B73" s="44" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="62" t="s">
+    <row r="74" spans="1:3" ht="45">
+      <c r="A74" s="83"/>
+      <c r="B74" s="44" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="61"/>
-    </row>
-    <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="54" t="s">
+    <row r="75" spans="1:3" ht="45">
+      <c r="A75" s="83"/>
+      <c r="B75" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="B73" s="61" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="75">
+      <c r="A76" s="81" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="54"/>
-      <c r="B74" s="61" t="s">
+      <c r="B76" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="54"/>
-      <c r="B75" s="61" t="s">
+    <row r="77" spans="1:3" ht="150">
+      <c r="A77" s="81"/>
+      <c r="B77" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76" ht="51" spans="1:2">
-      <c r="A76" s="30" t="s">
+    <row r="78" spans="1:3" ht="150">
+      <c r="A78" s="81"/>
+      <c r="B78" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B76" s="10" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="81"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="21" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="77" ht="114.75" spans="2:2">
-      <c r="B77" s="10" t="s">
+    <row r="81" spans="1:2" ht="45">
+      <c r="A81" s="83" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="78" ht="114.75" spans="2:2">
-      <c r="B78" s="10" t="s">
+      <c r="B81" s="19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="30" t="s">
+    <row r="82" spans="1:2" ht="15">
+      <c r="A82" s="83"/>
+      <c r="B82" s="46" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" ht="25.5" spans="1:2">
-      <c r="A81" s="54" t="s">
+    <row r="83" spans="1:2" ht="75">
+      <c r="A83" s="83"/>
+      <c r="B83" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="B81" s="28" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="83"/>
+      <c r="B84" s="19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="82" ht="12.75" spans="1:2">
-      <c r="A82" s="54"/>
-      <c r="B82" s="63" t="s">
+    <row r="85" spans="1:2" ht="60">
+      <c r="A85" s="81" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="83" ht="63.75" spans="1:2">
-      <c r="A83" s="54"/>
-      <c r="B83" s="28" t="s">
+      <c r="B85" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" ht="25.5" spans="1:2">
-      <c r="A84" s="54"/>
-      <c r="B84" s="28" t="s">
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="81"/>
+      <c r="B86" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="85" ht="51" spans="1:2">
-      <c r="A85" s="30" t="s">
+    <row r="87" spans="1:2" ht="195" customHeight="1">
+      <c r="A87" s="81"/>
+      <c r="B87" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B85" s="10" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="90">
+      <c r="A88" s="81" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="86" ht="63.75" spans="2:2">
-      <c r="B86" s="28" t="s">
+      <c r="B88" s="19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="87" ht="195" customHeight="1" spans="2:2">
-      <c r="B87" s="10" t="s">
+    <row r="89" spans="1:2" ht="120">
+      <c r="A89" s="81"/>
+      <c r="B89" s="19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="88" ht="76.5" spans="1:2">
-      <c r="A88" s="30" t="s">
+    <row r="90" spans="1:2" ht="90">
+      <c r="A90" s="81"/>
+      <c r="B90" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="B88" s="28" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="30">
+      <c r="A91" s="81"/>
+      <c r="B91" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="89" ht="76.5" spans="2:2">
-      <c r="B89" s="28" t="s">
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="81"/>
+      <c r="B92" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="64" t="s">
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="81"/>
+      <c r="B93" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="91" ht="25.5" spans="2:2">
-      <c r="B91" s="10" t="s">
+    <row r="95" spans="1:2" ht="26.25">
+      <c r="A95" s="79" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="92" ht="25.5" spans="2:2">
-      <c r="B92" s="10" t="s">
+      <c r="B95" s="80"/>
+    </row>
+    <row r="96" spans="1:2" ht="105">
+      <c r="A96" s="37" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="93" ht="25.5" spans="2:2">
-      <c r="B93" s="10" t="s">
+      <c r="B96" s="48" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="95" ht="24" spans="1:2">
-      <c r="A95" s="32" t="s">
+    <row r="97" spans="1:2" ht="135">
+      <c r="A97" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="B95" s="53"/>
-    </row>
-    <row r="96" ht="76.5" spans="1:2">
-      <c r="A96" s="54" t="s">
+      <c r="B97" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B96" s="65" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="195">
+      <c r="A98" s="81"/>
+      <c r="B98" s="44" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="97" ht="102" spans="1:2">
-      <c r="A97" s="30" t="s">
+    <row r="99" spans="1:2" ht="165">
+      <c r="A99" s="81"/>
+      <c r="B99" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B97" s="10" t="s">
+    </row>
+    <row r="100" spans="1:2" ht="120">
+      <c r="A100" s="81" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="61" t="s">
+      <c r="B100" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="99" ht="114.75" spans="2:2">
-      <c r="B99" s="10" t="s">
+    <row r="101" spans="1:2" ht="150">
+      <c r="A101" s="81"/>
+      <c r="B101" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="100" ht="76.5" spans="1:2">
-      <c r="A100" s="30" t="s">
+    <row r="102" spans="1:2" ht="150">
+      <c r="A102" s="81"/>
+      <c r="B102" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="B100" s="10" t="s">
+    </row>
+    <row r="103" spans="1:2" ht="195">
+      <c r="A103" s="81"/>
+      <c r="B103" s="19" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="101" ht="114.75" spans="2:2">
-      <c r="B101" s="28" t="s">
+    <row r="104" spans="1:2" ht="60">
+      <c r="A104" s="81"/>
+      <c r="B104" s="19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="102" ht="114.75" spans="2:2">
-      <c r="B102" s="28" t="s">
+    <row r="105" spans="1:2" ht="45">
+      <c r="A105" s="81"/>
+      <c r="B105" s="47" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="103" ht="153" spans="2:2">
-      <c r="B103" s="28" t="s">
+    <row r="106" spans="1:2" ht="210">
+      <c r="A106" s="21" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="104" ht="51" spans="2:2">
-      <c r="B104" s="28" t="s">
+      <c r="B106" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="64" t="s">
+    <row r="107" spans="1:2" ht="90">
+      <c r="A107" s="81" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="106" ht="165.75" spans="1:2">
-      <c r="A106" s="30" t="s">
+      <c r="B107" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B106" s="10" t="s">
+    </row>
+    <row r="108" spans="1:2" ht="165">
+      <c r="A108" s="81"/>
+      <c r="B108" s="19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="107" ht="76.5" spans="1:2">
-      <c r="A107" s="30" t="s">
+    <row r="109" spans="1:2" ht="120">
+      <c r="A109" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B109" s="19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="108" ht="127.5" spans="2:2">
-      <c r="B108" s="28" t="s">
+    <row r="110" spans="1:2" ht="75">
+      <c r="A110" s="83"/>
+      <c r="B110" s="19" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="109" ht="102" spans="1:2">
-      <c r="A109" s="54" t="s">
+    <row r="111" spans="1:2" ht="60">
+      <c r="A111" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B111" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="54"/>
-      <c r="B110" s="28" t="s">
+    <row r="112" spans="1:2" ht="45">
+      <c r="A112" s="83"/>
+      <c r="B112" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="54" t="s">
+    <row r="113" spans="1:2" ht="84" customHeight="1">
+      <c r="A113" s="83"/>
+      <c r="B113" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B111" s="10" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A114" s="83"/>
+      <c r="B114" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="112" ht="38.25" spans="1:2">
-      <c r="A112" s="54"/>
-      <c r="B112" s="10" t="s">
+    <row r="115" spans="1:2" ht="15">
+      <c r="A115" s="83"/>
+      <c r="B115" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="113" ht="84" customHeight="1" spans="1:2">
-      <c r="A113" s="54"/>
-      <c r="B113" s="10" t="s">
+    <row r="116" spans="1:2" ht="15" customHeight="1">
+      <c r="A116" s="83"/>
+      <c r="B116" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="114" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A114" s="54"/>
-      <c r="B114" s="10" t="s">
+    <row r="117" spans="1:2" ht="90">
+      <c r="A117" s="83"/>
+      <c r="B117" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="115" ht="12.75" spans="1:2">
-      <c r="A115" s="54"/>
-      <c r="B115" s="10" t="s">
+    <row r="118" spans="1:2" ht="15" customHeight="1">
+      <c r="A118" s="83"/>
+      <c r="B118" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1" spans="1:2">
-      <c r="A116" s="54"/>
-      <c r="B116" s="10" t="s">
+    <row r="119" spans="1:2" ht="15" customHeight="1">
+      <c r="A119" s="83"/>
+      <c r="B119" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="117" ht="63.75" spans="1:2">
-      <c r="A117" s="54"/>
-      <c r="B117" s="10" t="s">
+    <row r="120" spans="1:2" ht="15" customHeight="1">
+      <c r="A120" s="83"/>
+      <c r="B120" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" spans="1:2">
-      <c r="A118" s="54"/>
-      <c r="B118" s="9" t="s">
+    <row r="121" spans="1:2" ht="15" customHeight="1">
+      <c r="A121" s="83"/>
+      <c r="B121" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" spans="1:2">
-      <c r="A119" s="54"/>
-      <c r="B119" s="10" t="s">
+    <row r="122" spans="1:2" ht="15" customHeight="1">
+      <c r="A122" s="83"/>
+      <c r="B122" s="5" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="120" ht="15" customHeight="1" spans="1:2">
-      <c r="A120" s="54"/>
-      <c r="B120" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="121" ht="15" customHeight="1" spans="1:2">
-      <c r="A121" s="54"/>
-      <c r="B121" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="54"/>
-      <c r="B122" s="9" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A122"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A105"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A63:B63"/>
@@ -17873,344 +17513,332 @@
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A122"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C64:C67"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId2" display="https://docs.spring.io/spring-security/reference/features/authentication/password-storage.html"/>
-    <hyperlink ref="B9" r:id="rId3" display="https://github.com/spring-projects/spring-security-samples/blob/main/servlet/spring-boot/java/authentication/username-password/mfa/src/main/java/example/MfaService.java"/>
-    <hyperlink ref="B8" r:id="rId4" display="HttpSecurity (spring-security-docs 6.1.3 API)"/>
-    <hyperlink ref="B7" r:id="rId5" display="Samples :: Spring Security"/>
-    <hyperlink ref="C49" r:id="rId6" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java&#10;&#10;&#10;https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java"/>
-    <hyperlink ref="B96" r:id="rId7" display="https://www.keycloak.org/documentation&#10;https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93&#10;https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s&#10;https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java&#10;https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s&#10;https://www.keycloak.org/docs/24.0.1/authorization_services/"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C49" r:id="rId5" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java_x000a__x000a__x000a_https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B96" r:id="rId6" display="https://www.keycloak.org/documentation_x000a_https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93_x000a_https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s_x000a_https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java_x000a_https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s_x000a_https://www.keycloak.org/docs/24.0.1/authorization_services/" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.7133333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="83.7133333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="125.713333333333" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="125.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="60">
+      <c r="A1" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75">
+      <c r="A2" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="34" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" ht="63.75" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="B3" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="34" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="48" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="64.5" customHeight="1">
+      <c r="A5" s="65" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="B5" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="48" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="94" t="s">
+    <row r="7" spans="1:3" ht="82.5" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="87" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="6" ht="52.5" customHeight="1" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="B8" s="32" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="7" ht="82.5" customHeight="1" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="C8" s="90" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="49" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="88"/>
+      <c r="B9" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="C9" s="88"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="88"/>
+      <c r="B10" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C10" s="88"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="88"/>
+      <c r="B11" s="30" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="39" t="s">
+      <c r="C11" s="88"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="89"/>
+      <c r="B12" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="42" t="s">
+      <c r="C12" s="89"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="43"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="39" t="s">
+      <c r="B15" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C11" s="43"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="42" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B15" s="10" t="s">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="10" t="s">
+    <row r="20" spans="1:11" ht="390">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="10" t="s">
+    <row r="22" spans="1:11" ht="120">
+      <c r="A22" s="5" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="20" ht="293.25" spans="1:2">
-      <c r="A20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="C22" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="22" ht="89.25" spans="1:3">
-      <c r="A22" s="9" t="s">
+    <row r="24" spans="1:11" ht="225">
+      <c r="A24" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="75">
+      <c r="A26" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="24" ht="153" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C26" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="26" ht="63.75" spans="1:11">
-      <c r="A26" s="9" t="s">
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C28" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K26" s="4" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="45">
+      <c r="A29" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="28" t="s">
+      <c r="B29" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C28" s="4" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="135">
+      <c r="A31" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="29" ht="25.5" spans="1:2">
-      <c r="A29" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B29" s="10" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="30">
+      <c r="A32" s="5" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="31" ht="102" spans="1:2">
-      <c r="A31" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B31" s="10" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="180">
+      <c r="A33" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="32" ht="25.5" spans="1:2">
-      <c r="A32" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B32" s="10" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="360">
+      <c r="A34" s="33" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="33" ht="127.5" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C34" s="36" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="46" t="s">
+    <row r="36" spans="1:3" ht="45">
+      <c r="A36" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C34" s="51" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="36" ht="38.25" spans="1:2">
-      <c r="A36" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B36" s="10" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="9" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B37" s="10" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
+    <row r="41" spans="1:3" ht="210">
+      <c r="A41" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="41" ht="165.75" spans="1:3">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C42" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="180">
+      <c r="A43" s="71" t="s">
         <v>464</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="B43" s="18" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="52" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="120">
+      <c r="A44" s="71"/>
+      <c r="B44" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B43" s="27" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="180">
+      <c r="A45" s="71"/>
+      <c r="B45" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C45" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="52"/>
-      <c r="B44" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="C44" s="5" t="s">
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="71"/>
+      <c r="B46" s="18" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="27" t="s">
+      <c r="C46" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -18220,257 +17848,255 @@
     <mergeCell ref="C8:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C24" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C26" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
-    <hyperlink ref="C28" r:id="rId2" display="https://www.digitalocean.com/community/tutorials/spring-data-jpa"/>
-    <hyperlink ref="K26" r:id="rId3" display="https://docs.jboss.org/hibernate/orm/6.3/introduction/html_single/Hibernate_Introduction.html#entities"/>
-    <hyperlink ref="C34" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#pc-cascade"/>
-    <hyperlink ref="C40" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#associations-many-to-one"/>
-    <hyperlink ref="C41" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
-    <hyperlink ref="C42" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="K26" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C34" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C42" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="111.14" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="91" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90">
+      <c r="A2" s="79"/>
+      <c r="B2" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" s="79"/>
+      <c r="B3" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" s="79"/>
+      <c r="B4" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="17" t="s">
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="79"/>
+      <c r="B5" s="10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="3" ht="63.75" spans="1:2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="17" t="s">
+    <row r="6" spans="1:3" ht="135">
+      <c r="A6" s="79"/>
+      <c r="B6" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="17" t="s">
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="79"/>
+      <c r="B7" s="24" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="17" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="79"/>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="79"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="79"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="79"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="79"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="79"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="79"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="79"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="79"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="79"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="79"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="79"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="79"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="79"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="79"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="79"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="79"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="79"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="79"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="79"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="79"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="79"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="79"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="79"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="79"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="79"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="79"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="79"/>
+    </row>
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="79" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="6" ht="114.75" spans="1:2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="79"/>
+      <c r="B37" s="11" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="32"/>
-      <c r="C8" s="46"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="32"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="32"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="32"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="32"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="32"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="32"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="32"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="32"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="32"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="32"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="32"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="32"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="32"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="32"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="32"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="32"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="32"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="32"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="32"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="32"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="32"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="32"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="32"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="32"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="32"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="32"/>
-    </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="18" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="1:2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="32"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="32"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="32"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="32"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="32"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="32"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="32"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="32"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="32"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="32"/>
+    <row r="38" spans="1:2" ht="18.75">
+      <c r="A38" s="79"/>
+      <c r="B38" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="79"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="79"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="79"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="79"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="79"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="79"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="79"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="79"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="79"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="79"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="32"/>
+      <c r="A49" s="79"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="32"/>
+      <c r="A50" s="79"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="32"/>
+      <c r="A51" s="79"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="32"/>
+      <c r="A52" s="79"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="32"/>
+      <c r="A53" s="79"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="32"/>
+      <c r="A54" s="79"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="32"/>
+      <c r="A55" s="79"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="32"/>
+      <c r="A56" s="79"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="32"/>
+      <c r="A57" s="79"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="32"/>
+      <c r="A58" s="79"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="32"/>
+      <c r="A59" s="79"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="32"/>
+      <c r="A60" s="79"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="32"/>
+      <c r="A61" s="79"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="32"/>
+      <c r="A62" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18478,126 +18104,122 @@
     <mergeCell ref="A36:A62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.2866666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.4266666666667" customWidth="1"/>
-    <col min="3" max="3" width="45.4266666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="32" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="42" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="42" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="30"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s">
         <v>492</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="42" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="39" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>494</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>492</v>
-      </c>
-      <c r="B12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -18605,9 +18227,8 @@
     <mergeCell ref="B1:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://java-design-patterns.com/patterns/"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Java-Spring\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A389145-7F98-4679-B719-A3D28A7384EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="828">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -2807,6 +2801,50 @@
  - Annotations: You can use the @HotSpotIntrinsicCandidate annotation to suggest that a method is a candidate for intrinsic optimization (though this is mostly used within the JDK itself).</t>
   </si>
   <si>
+    <t xml:space="preserve">Java </t>
+  </si>
+  <si>
+    <t>Java Programming Enviroment</t>
+  </si>
+  <si>
+    <t>Programming Structures in Java</t>
+  </si>
+  <si>
+    <t>Object and Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inheritance </t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Inner Class</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Generic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why need Generic Programming:
+- 
+- </t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Concurrency</t>
+  </si>
+  <si>
     <t>Chia sẻ thêm về Filter của Spring MVC</t>
   </si>
   <si>
@@ -2886,6 +2924,64 @@
     <t>Inversion Of Control (IoC)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Is a design principle in SE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>where the control of objects or portions(các phần) of a program is transferred from the code itself to container or framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, is core concept in dependency injection (DI)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key Concepts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+1. Control Reversal 
+2. Dependency Injection
+3. Decoupling</t>
+    </r>
+  </si>
+  <si>
     <t>Spring Bean</t>
   </si>
   <si>
@@ -2906,6 +3002,85 @@
     <t>Spring Dependency Injection</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The dependency inversion principle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - The client delegates to anpther object the responsibility of providing its dependencies
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Injection Types:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + Constructor Injection :
+      * Use this when you have required dependencies
+      * Generally recommended by the spring.io development team as firs choice
+   + Setter Injection:
+      * Use this then you have optional dependencies
+      * If dependency is not provide, your app can provide reasonable default logic
+   + Field Injection
+      * It makes the code harder to unit test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- AutoWiring:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  + For dependency injection, Spring can use autiwiring
+  + Spring will look for a class that matches, matches by type: class or interface
+  + Spring will inject it automatically ... hence it is autowired</t>
+    </r>
+  </si>
+  <si>
     <t>Component Scanning</t>
   </si>
   <si>
@@ -2928,7 +3103,182 @@
     <t>Initialization</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - By default, when your application starts, all beans are initialized: @Component, etc …
+ - Spring will create an instance of each and make them available
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lazy Initialization :
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Instead of creating all beans up front, we can specify lazy initialization
+   + A bean will only be initialized in the following cases: 
+      * It is needed for dependency injection
+      * Or it is explicity requested
+   + Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Lazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation to a given class
+   + global configuration: spring.main.lazy-initialization = true
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+   + Only create objects as needed
+   + May help with faster startup time if you have lage number of components
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disadvantages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   + If you have related components like @RestController, not created until requested
+   + May not discover configuration issues until too late
+   + Need to make sure you have enough memory for all beans once created</t>
+    </r>
+  </si>
+  <si>
     <t>Bean Scopes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Scope refers to the lifecycle of a bean
+ - How long does the bean live ?
+ - How many instances are created ?
+ - How the beans is share ? 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Singleton :
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ Spring container creates only one instance of the bean, by default
+  + It is cached in memory
+  + All dependency injections for the bean: 
+     * will referenced the SAME bean
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prototype
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Creates a new bean instance for each container request</t>
+    </r>
   </si>
   <si>
     <t>Bean Lifecycle</t>
@@ -11130,9 +11480,6 @@
    + A web server, is another use case for many threads, allowing multiple connections and requests to be handled, simultaneously </t>
   </si>
   <si>
-    <t>Concurrency</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -11851,315 +12198,23 @@
   <si>
     <t>Load Balancing</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - The dependency inversion principle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - The client delegates to anpther object the responsibility of providing its dependencies
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Injection Types:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   + Constructor Injection :
-      * Use this when you have required dependencies
-      * Generally recommended by the spring.io development team as firs choice
-   + Setter Injection:
-      * Use this then you have optional dependencies
-      * If dependency is not provide, your app can provide reasonable default logic
-   + Field Injection
-      * It makes the code harder to unit test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- AutoWiring:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  + For dependency injection, Spring can use autiwiring
-  + Spring will look for a class that matches, matches by type: class or interface
-  + Spring will inject it automatically ... hence it is autowired</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - By default, when your application starts, all beans are initialized: @Component, etc …
- - Spring will create an instance of each and make them available
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Lazy Initialization :
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ Instead of creating all beans up front, we can specify lazy initialization
-   + A bean will only be initialized in the following cases: 
-      * It is needed for dependency injection
-      * Or it is explicity requested
-   + Add </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Lazy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> annotation to a given class
-   + global configuration: spring.main.lazy-initialization = true
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Advantages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-   + Only create objects as needed
-   + May help with faster startup time if you have lage number of components
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Disadvantages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-   + If you have related components like @RestController, not created until requested
-   + May not discover configuration issues until too late
-   + Need to make sure you have enough memory for all beans once created</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - Scope refers to the lifecycle of a bean
- - How long does the bean live ?
- - How many instances are created ?
- - How the beans is share ? 
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Singleton :
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ Spring container creates only one instance of the bean, by default
-  + It is cached in memory
-  + All dependency injections for the bean: 
-     * will referenced the SAME bean
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Prototype
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+ Creates a new bean instance for each container request</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - Is a design principle in SE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>where the control of objects or portions(các phần) of a program is transferred from the code itself to container or framework</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, is core concept in dependency injection (DI)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Key Concepts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-1. Control Reversal 
-2. Dependency Injection
-3. Decoupling</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12279,6 +12334,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -12287,6 +12372,120 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12340,31 +12539,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12407,8 +12583,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -12492,15 +12842,230 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12508,72 +13073,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12583,240 +13174,215 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -12832,19 +13398,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Ảnh 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Ảnh 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12876,19 +13436,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Ảnh 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Ảnh 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12920,19 +13474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Ảnh 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Ảnh 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12953,7 +13501,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -12969,19 +13517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13002,7 +13544,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -13018,26 +13560,20 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30967680" y="19659600"/>
+          <a:off x="30219015" y="20469225"/>
           <a:ext cx="6592570" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13051,7 +13587,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -13067,19 +13603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13100,7 +13630,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -13116,19 +13646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13400,465 +13924,467 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="39.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="95.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50" style="5" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.14" style="6"/>
+    <col min="2" max="2" width="39.5733333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="50" style="6" customWidth="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="90">
-      <c r="A1" s="5">
+    <row r="1" ht="76.5" spans="1:3">
+      <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75">
-      <c r="A2" s="5">
+    <row r="2" ht="63.75" spans="1:3">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="91" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="5">
+    <row r="3" ht="38.25" spans="1:3">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="5">
+    <row r="4" ht="38.25" spans="1:3">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="240">
-      <c r="A5" s="5">
+    <row r="5" ht="178.5" spans="1:3">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="5">
+    <row r="6" ht="25.5" spans="1:3">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="92" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="300">
-      <c r="A7" s="5">
+    <row r="7" ht="229.5" spans="1:3">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="245.25" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" ht="245.25" customHeight="1" spans="1:3">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="74" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="223.5" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" ht="223.5" customHeight="1" spans="1:3">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="91" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="300">
-      <c r="A10" s="5">
+    <row r="10" ht="204" spans="1:4">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="B11" s="5" t="s">
+    <row r="11" ht="25.5" spans="2:3">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="150">
-      <c r="B12" s="5" t="s">
+    <row r="12" ht="102" spans="2:3">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="180">
-      <c r="B13" s="5" t="s">
+    <row r="13" ht="140.25" spans="2:3">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="288.75" customHeight="1">
-      <c r="B14" s="5" t="s">
+    <row r="14" ht="288.75" customHeight="1" spans="2:7">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
-      <c r="B15" s="5" t="s">
+    <row r="15" ht="38.25" spans="2:3">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="240.75" customHeight="1">
-      <c r="B16" s="5" t="s">
+    <row r="16" ht="240.75" customHeight="1" spans="2:2">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="180">
-      <c r="B17" s="5" t="s">
+    <row r="17" ht="153" spans="2:3">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="74" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="180">
-      <c r="B18" s="5" t="s">
+    <row r="18" ht="153" spans="2:3">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="74" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.2866666666667" customWidth="1"/>
+    <col min="2" max="2" width="86.2866666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
+      <c r="A1" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="B10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
-        <v>525</v>
+      <c r="A16" s="35" t="s">
+        <v>543</v>
       </c>
       <c r="B16" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="B23" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="B24" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="B25" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="B26" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="69" t="s">
-        <v>542</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="28" ht="63.75" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="69"/>
+      <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="69"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="69"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="69"/>
+      <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="69"/>
+      <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="69"/>
+      <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -13866,218 +14392,217 @@
     <mergeCell ref="A28:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="101.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="55.8533333333333" style="26" customWidth="1"/>
+    <col min="2" max="2" width="54.14" style="27" customWidth="1"/>
+    <col min="3" max="3" width="101.713333333333" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="79" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="79"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="93"/>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="79"/>
-      <c r="B4" s="93"/>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="93"/>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="79"/>
-      <c r="B6" s="93"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="93"/>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="79"/>
-      <c r="B8" s="93"/>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="79"/>
-      <c r="B9" s="93"/>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="79"/>
-      <c r="B10" s="93"/>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="79"/>
-      <c r="B11" s="93"/>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="79"/>
-      <c r="B12" s="93"/>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="79"/>
-      <c r="B13" s="93"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="79"/>
-      <c r="B14" s="93"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="93"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="93"/>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="93"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="93"/>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="93"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="93"/>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="93"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75">
-      <c r="A22" s="79"/>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.75">
-      <c r="A23" s="79"/>
-      <c r="B23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" ht="18.75">
-      <c r="A24" s="79"/>
-      <c r="B24" s="26"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.75">
-      <c r="A26" s="79" t="s">
-        <v>551</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75">
-      <c r="A27" s="79"/>
-      <c r="B27" s="21" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75">
-      <c r="A28" s="79"/>
-      <c r="B28" s="21" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="79" t="s">
-        <v>555</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>556</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="22" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="79"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="22" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="79"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="22" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="165">
-      <c r="A35" s="79" t="s">
-        <v>561</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="105">
-      <c r="A36" s="79"/>
-      <c r="B36" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="105">
-      <c r="A37" s="79"/>
-      <c r="B37" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="60">
-      <c r="A38" s="79"/>
-      <c r="B38" s="21" t="s">
+    <row r="1" ht="12.75" spans="1:1">
+      <c r="A1" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="C38" s="27" t="s">
+    </row>
+    <row r="2" ht="12.75" spans="1:3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" ht="12.75" spans="1:2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" ht="12.75" spans="1:2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+    </row>
+    <row r="5" ht="12.75" spans="1:2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" ht="12.75" spans="1:2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" ht="12.75" spans="1:2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+    </row>
+    <row r="8" ht="12.75" spans="1:2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" ht="12.75" spans="1:2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+    </row>
+    <row r="10" ht="12.75" spans="1:2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" ht="12.75" spans="1:2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" ht="12.75" spans="1:2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+    </row>
+    <row r="13" ht="12.75" spans="1:2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" ht="12.75" spans="1:2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+    </row>
+    <row r="22" ht="17.25" spans="1:2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:2">
+      <c r="A26" s="29" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="23" t="s">
+      <c r="B26" s="27" t="s">
         <v>570</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="29"/>
+    </row>
+    <row r="30" ht="12.75" spans="1:3">
+      <c r="A30" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" spans="1:3">
+      <c r="A31" s="29"/>
+      <c r="C31" s="28" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" spans="1:3">
+      <c r="A32" s="29"/>
+      <c r="C32" s="28" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" spans="1:3">
+      <c r="A33" s="29"/>
+      <c r="C33" s="28" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" ht="114.75" spans="1:3">
+      <c r="A35" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" ht="89.25" spans="1:3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" ht="76.5" spans="1:3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" ht="51" spans="1:3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="29" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -14091,306 +14616,308 @@
     <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32" style="6" customWidth="1"/>
-    <col min="2" max="2" width="109" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32" style="7" customWidth="1"/>
+    <col min="2" max="2" width="109" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="150">
-      <c r="A1" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>572</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="200.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="120">
-      <c r="A3" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="150">
-      <c r="A8" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60">
-      <c r="A12" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60">
-      <c r="A13" s="6" t="s">
+    <row r="1" ht="127.5" spans="1:3">
+      <c r="A1" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B1" s="92" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120">
-      <c r="A14" s="6" t="s">
+      <c r="C1" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="2" ht="200.25" customHeight="1" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120">
-      <c r="A15" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="3" ht="102" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="4" ht="25.5" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="225">
-      <c r="A17" s="6" t="s">
+      <c r="B4" s="92" t="s">
         <v>597</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="6" ht="38.25" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="345">
-      <c r="A19" s="6" t="s">
+    <row r="7" ht="38.25" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+    <row r="8" ht="114.75" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="17"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+    <row r="12" ht="51" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>606</v>
       </c>
     </row>
+    <row r="13" ht="51" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" ht="89.25" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" ht="102" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="17" ht="178.5" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" ht="280.5" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="22"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="135">
-      <c r="A34" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
-        <v>621</v>
+      <c r="A31" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" ht="38.25" spans="1:2">
+      <c r="A33" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" ht="114.75" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="94" t="s">
-        <v>622</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>623</v>
+      <c r="A54" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="94"/>
-      <c r="B55" s="6" t="s">
-        <v>624</v>
+      <c r="A55" s="23"/>
+      <c r="B55" s="7" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="94"/>
-      <c r="B56" s="6" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="70" t="s">
-        <v>626</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>627</v>
+      <c r="A56" s="23"/>
+      <c r="B56" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" spans="1:2">
+      <c r="A58" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="70"/>
-      <c r="B59" s="19" t="s">
-        <v>628</v>
+      <c r="A59" s="24"/>
+      <c r="B59" s="25" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="19" t="s">
-        <v>629</v>
+      <c r="A60" s="24"/>
+      <c r="B60" s="25" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="19" t="s">
-        <v>630</v>
+      <c r="A61" s="24"/>
+      <c r="B61" s="25" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="70"/>
-      <c r="B62" s="19" t="s">
-        <v>631</v>
+      <c r="A62" s="24"/>
+      <c r="B62" s="25" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="70"/>
-      <c r="B63" s="19" t="s">
-        <v>632</v>
+      <c r="A63" s="24"/>
+      <c r="B63" s="25" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="70"/>
-      <c r="B64" s="19" t="s">
-        <v>633</v>
+      <c r="A64" s="24"/>
+      <c r="B64" s="25" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -14399,677 +14926,689 @@
     <mergeCell ref="A58:A64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1" display="HƯỚNG DẪN CÁC BƯỚC PHÁT TRIỂN HỆ THỐNG MICROSERVICE VỚI DOCKER | CO-WELL Asia"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.14" customWidth="1"/>
+    <col min="2" max="2" width="110.853333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="105">
-      <c r="A1" s="69" t="s">
-        <v>634</v>
+    <row r="1" ht="89.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="105">
-      <c r="A2" s="69"/>
-      <c r="B2" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="135">
-      <c r="A3" s="69"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" ht="89.25" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" ht="102" spans="1:2">
+      <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="90">
-      <c r="A4" s="69" t="s">
-        <v>638</v>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" ht="63.75" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="69"/>
-      <c r="B5" s="10" t="s">
-        <v>640</v>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" ht="63.75" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="14" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="69" t="s">
-        <v>642</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="69"/>
-      <c r="B8" s="10" t="s">
-        <v>644</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="14" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="10" t="s">
-        <v>645</v>
+      <c r="A9" s="1"/>
+      <c r="B9" s="14" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69"/>
-      <c r="B10" s="10" t="s">
-        <v>646</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="14" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="10" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="69" t="s">
-        <v>648</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="69"/>
-      <c r="B13" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="165">
-      <c r="A14" s="69"/>
-      <c r="B14" s="10" t="s">
-        <v>651</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="13" ht="63.75" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" ht="127.5" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="14" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="10" t="s">
-        <v>652</v>
+      <c r="A15" s="1"/>
+      <c r="B15" s="14" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="120">
-      <c r="A17" s="69"/>
-      <c r="B17" s="10" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="69"/>
-      <c r="B18" s="10" t="s">
-        <v>655</v>
+      <c r="A16" s="1"/>
+      <c r="B16" s="14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="17" ht="102" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" ht="38.25" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="14" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="10" t="s">
-        <v>656</v>
+      <c r="A19" s="1"/>
+      <c r="B19" s="14" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="11" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="195">
-      <c r="A21" s="95" t="s">
-        <v>658</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="300">
-      <c r="A22" s="95"/>
-      <c r="B22" s="10" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="195">
-      <c r="A23" s="95"/>
-      <c r="B23" s="10" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="95"/>
-      <c r="B24" s="10" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="95"/>
-      <c r="B25" s="10" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="75">
-      <c r="A26" s="95"/>
-      <c r="B26" s="10" t="s">
-        <v>664</v>
+      <c r="A20" s="1"/>
+      <c r="B20" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" ht="165.75" spans="1:2">
+      <c r="A21" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" ht="242.25" spans="1:2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" ht="153" spans="1:2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" ht="38.25" spans="1:2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5" spans="1:2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" ht="51" spans="1:2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="95"/>
-      <c r="B27" s="10" t="s">
-        <v>665</v>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="95"/>
-      <c r="B28" s="11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="96" t="s">
-        <v>667</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>668</v>
+      <c r="A28" s="16"/>
+      <c r="B28" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="29" ht="38.25" spans="1:2">
+      <c r="A29" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="10" t="s">
-        <v>669</v>
+      <c r="A30" s="1"/>
+      <c r="B30" s="14" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="69"/>
-      <c r="B31" s="10" t="s">
-        <v>670</v>
+      <c r="A31" s="1"/>
+      <c r="B31" s="14" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="10" t="s">
-        <v>671</v>
+      <c r="A32" s="1"/>
+      <c r="B32" s="14" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="10" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="75">
-      <c r="A34" s="95" t="s">
-        <v>673</v>
+      <c r="A33" s="1"/>
+      <c r="B33" s="14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" ht="51" spans="1:2">
+      <c r="A34" s="16" t="s">
+        <v>691</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="60">
-      <c r="A35" s="69"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="35" ht="38.25" spans="1:2">
+      <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="75">
-      <c r="A36" s="69"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="36" ht="51" spans="1:2">
+      <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="69"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" ht="51" spans="1:2">
+      <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="69" t="s">
-        <v>678</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="90">
-      <c r="A39" s="69"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="39" ht="76.5" spans="1:2">
+      <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="69"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" spans="1:2">
+      <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30">
-      <c r="A41" s="69"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" spans="1:2">
+      <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="69"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="69"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" spans="1:2">
+      <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="30">
+    <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>686</v>
+        <v>703</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A43"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B45" r:id="rId2" display="https://developer.redis.com/develop/java/redis-and-spring-course/lesson_9&#10;https://www.bezkoder.com/spring-boot-redis-cache-example/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="135">
-      <c r="A1" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="210">
-      <c r="A2" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>690</v>
+    <row r="1" ht="89.25" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2" ht="178.5" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.4266666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="49.14" customWidth="1"/>
+    <col min="3" max="3" width="69.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" ht="26.25" customHeight="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="180">
-      <c r="A3" s="97" t="s">
-        <v>697</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>698</v>
+    <row r="3" ht="140.25" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>716</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="150">
-      <c r="A4" s="97"/>
-      <c r="B4" s="9" t="s">
-        <v>700</v>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" ht="127.5" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>718</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="97"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="97"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="97"/>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="90">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98" t="s">
-        <v>705</v>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" ht="76.5" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>723</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="165">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" ht="102" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="105">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" ht="76.5" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="90">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" ht="63.75" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="97"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="270">
-      <c r="A14" s="97"/>
-      <c r="B14" s="85" t="s">
-        <v>712</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="14" ht="191.25" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13" t="s">
+        <v>730</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="210">
-      <c r="A15" s="97"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="10" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120">
-      <c r="A16" s="97"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="10" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="97"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="10" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="90">
-      <c r="A18" s="97"/>
-      <c r="B18" s="85"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" ht="153" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" ht="102" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="17" ht="38.25" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" ht="76.5" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="97"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="97"/>
-      <c r="B20" s="11" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="97"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="15" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="97" t="s">
-        <v>720</v>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>738</v>
       </c>
       <c r="B24" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="97"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="97"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="97"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="90">
-      <c r="A28" s="97"/>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" ht="51" spans="1:2">
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="180">
-      <c r="A29" s="97"/>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" ht="127.5" spans="1:2">
+      <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="180">
-      <c r="A31" s="97" t="s">
-        <v>727</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" ht="102" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>745</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" ht="75">
-      <c r="A32" s="97"/>
+        <v>746</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" ht="51" spans="1:2">
+      <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30">
-      <c r="A33" s="97"/>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" spans="1:2">
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="97"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="97"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="150">
-      <c r="A36" s="97"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" ht="114.75" spans="1:3">
+      <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -15082,40 +15621,44 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.8533333333333" customWidth="1"/>
+    <col min="2" max="2" width="82.2866666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.14" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="165">
+    <row r="3" ht="140.25" spans="1:2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -15123,7 +15666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" ht="25.5" spans="1:2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -15131,7 +15674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -15139,7 +15682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -15147,7 +15690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -15155,7 +15698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -15163,7 +15706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" customHeight="1">
+    <row r="10" ht="45" customHeight="1" spans="1:2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -15171,7 +15714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75">
+    <row r="11" ht="63.75" spans="1:2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -15179,8 +15722,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75">
-      <c r="A12" s="68" t="s">
+    <row r="12" ht="63.75" spans="1:4">
+      <c r="A12" s="88" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -15193,8 +15736,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90">
-      <c r="A13" s="68"/>
+    <row r="13" ht="76.5" spans="1:4">
+      <c r="A13" s="88"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -15205,29 +15748,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5">
-      <c r="A20" s="67" t="s">
+    <row r="20" ht="26.25" spans="1:4">
+      <c r="A20" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-    </row>
-    <row r="21" spans="1:4" ht="135">
-      <c r="A21" s="69" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+    </row>
+    <row r="21" ht="102" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75">
-      <c r="A22" s="69"/>
+    <row r="22" ht="63.75" spans="1:2">
+      <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60">
+    <row r="24" ht="51" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -15242,188 +15785,196 @@
     <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23.2866666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="195">
-      <c r="A1" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="90">
-      <c r="A2" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="180">
-      <c r="A3" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>739</v>
+    <row r="1" ht="153" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" ht="76.5" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" ht="153" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.8533333333333" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="75">
+    <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="165">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="150">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>746</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="75">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="69" t="s">
-        <v>754</v>
+      <c r="A9" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="B9" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -15431,130 +15982,132 @@
     <mergeCell ref="A9:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.5733333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.5733333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="105">
-      <c r="A27" s="99" t="s">
-        <v>778</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" ht="89.25" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>795</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="99"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="99"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="99"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -15562,151 +16115,153 @@
     <mergeCell ref="A27:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://projectreactor.io/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="111.7109375" customWidth="1"/>
+    <col min="2" max="2" width="111.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="69" t="s">
-        <v>783</v>
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75">
-      <c r="A2" s="69"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2" ht="63.75" spans="1:2">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="135">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3" ht="114.75" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="195">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="5" ht="165.75" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="105">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7" ht="89.25" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="225">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="8" ht="191.25" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="9" ht="89.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="120">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="12" ht="102" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75">
-      <c r="A13" s="69" t="s">
-        <v>804</v>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" ht="63.75" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="120">
-      <c r="A14" s="69"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="14" ht="63.75" spans="1:2">
+      <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="69"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25" spans="1:2">
+      <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="135">
-      <c r="A16" s="69"/>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="16" ht="114.75" spans="1:2">
+      <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="69"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -15715,168 +16270,152 @@
     <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="117" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.8533333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="117" style="6" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="38.25" spans="1:2">
+      <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="18" t="s">
+    <row r="2" ht="38.25" spans="1:2">
+      <c r="A2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45">
-      <c r="A3" s="18" t="s">
+    <row r="3" ht="38.25" spans="1:2">
+      <c r="A3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="92" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="360">
-      <c r="A4" s="18" t="s">
+    <row r="4" ht="280.5" spans="1:2">
+      <c r="A4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="91" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="18" t="s">
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="92" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45">
+    <row r="6" ht="38.25" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="92" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="64" t="s">
+    <row r="9" ht="25.5" spans="1:2">
+      <c r="A9" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="92" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="195">
-      <c r="A12" s="18" t="s">
+    <row r="12" ht="165.75" spans="1:1">
+      <c r="A12" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="50" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="75" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="77" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="51">
-      <c r="A16" s="51" t="s">
+    <row r="16" ht="48" spans="1:2">
+      <c r="A16" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="79" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="36" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="30"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" ht="30">
+      <c r="B19" s="36"/>
+    </row>
+    <row r="23" ht="25.5" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -15885,7 +16424,7 @@
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15893,52 +16432,43 @@
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15946,32 +16476,32 @@
       <c r="A35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
+    <row r="37" ht="25.5" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60">
+    <row r="38" ht="51" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
+    <row r="39" ht="38.25" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>119</v>
       </c>
@@ -15979,671 +16509,738 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="69" t="s">
+    <row r="40" ht="38.25" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="69"/>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="69"/>
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="69"/>
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="60">
-      <c r="A44" s="69" t="s">
+    <row r="44" ht="51" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="60">
-      <c r="A45" s="69"/>
-      <c r="B45" s="19" t="s">
+    <row r="45" ht="51" spans="2:2">
+      <c r="B45" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="69" t="s">
+    <row r="46" ht="63.75" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="69"/>
-      <c r="B47" s="6" t="s">
+    <row r="47" ht="51" spans="2:2">
+      <c r="B47" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="5" t="s">
+    <row r="48" ht="38.25" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="75">
+    <row r="49" ht="63.75" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="75">
+    <row r="50" ht="63.75" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="90">
-      <c r="A51" s="70" t="s">
+    <row r="51" ht="76.5" spans="1:2">
+      <c r="A51" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="135">
-      <c r="A52" s="70"/>
-      <c r="B52" s="6" t="s">
+    <row r="52" ht="114.75" spans="1:2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105">
-      <c r="A53" s="70"/>
-      <c r="B53" s="6" t="s">
+    <row r="53" ht="76.5" spans="1:2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="71" t="s">
+    <row r="54" ht="51" spans="1:2">
+      <c r="A54" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="120">
-      <c r="A55" s="71"/>
-      <c r="B55" s="6" t="s">
+    <row r="55" ht="102" spans="1:2">
+      <c r="A55" s="49"/>
+      <c r="B55" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="180">
-      <c r="A56" s="71"/>
-      <c r="B56" s="19" t="s">
+    <row r="56" ht="127.5" spans="1:2">
+      <c r="A56" s="49"/>
+      <c r="B56" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="71"/>
-      <c r="B57" s="19" t="s">
+    <row r="57" ht="165.75" spans="1:2">
+      <c r="A57" s="49"/>
+      <c r="B57" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="240">
-      <c r="A58" s="71"/>
-      <c r="B58" s="6" t="s">
+    <row r="58" ht="178.5" spans="1:2">
+      <c r="A58" s="49"/>
+      <c r="B58" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="90">
-      <c r="A59" s="71"/>
-      <c r="B59" s="55" t="s">
+    <row r="59" ht="76.5" spans="1:2">
+      <c r="A59" s="49"/>
+      <c r="B59" s="80" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="409.5">
-      <c r="A60" s="71"/>
-      <c r="B60" s="56" t="s">
+    <row r="60" ht="318.75" spans="1:2">
+      <c r="A60" s="49"/>
+      <c r="B60" s="81" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="75">
+    <row r="61" ht="63.75" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="255">
+    <row r="62" ht="204" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="135">
+    <row r="63" ht="115.5" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="135">
-      <c r="A64" s="57" t="s">
+    <row r="64" ht="116.25" spans="1:2">
+      <c r="A64" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="165">
-      <c r="A65" s="72" t="s">
+    <row r="65" ht="129" spans="1:2">
+      <c r="A65" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="72"/>
-      <c r="B66" s="46" t="s">
+      <c r="A66" s="82"/>
+      <c r="B66" s="60" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="84" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="60">
-      <c r="A68" s="74"/>
-      <c r="B68" s="35" t="s">
+    <row r="68" ht="51" spans="1:2">
+      <c r="A68" s="85"/>
+      <c r="B68" s="45" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="74"/>
-      <c r="B69" s="56" t="s">
+    <row r="69" ht="25.5" spans="1:2">
+      <c r="A69" s="85"/>
+      <c r="B69" s="81" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="74"/>
-      <c r="B70" s="58" t="s">
+      <c r="A70" s="85"/>
+      <c r="B70" s="84" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="69" t="s">
+    <row r="71" ht="51" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="69"/>
-      <c r="B72" s="46" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="60" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="60">
-      <c r="A73" s="69"/>
-      <c r="B73" s="6" t="s">
+    <row r="73" ht="51" spans="2:2">
+      <c r="B73" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="90">
+    <row r="74" ht="76.5" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="60">
-      <c r="A75" s="69" t="s">
+    <row r="75" ht="38.25" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="69"/>
-      <c r="B76" s="6" t="s">
+    <row r="76" ht="63.75" spans="2:2">
+      <c r="B76" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="75">
-      <c r="A77" s="69"/>
-      <c r="B77" s="6" t="s">
+    <row r="77" ht="63.75" spans="2:2">
+      <c r="B77" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="90">
-      <c r="A78" s="69"/>
-      <c r="B78" s="6" t="s">
+    <row r="78" ht="76.5" spans="2:2">
+      <c r="B78" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75">
-      <c r="A79" s="69"/>
-      <c r="B79" s="19" t="s">
+    <row r="79" ht="63.75" spans="2:2">
+      <c r="B79" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="69"/>
-      <c r="B80" s="46" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" ht="13.5" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="74" t="s">
+      <c r="A83" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="75" t="s">
+      <c r="B83" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="87" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="74"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="60" t="s">
+      <c r="A84" s="85"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="87" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="74"/>
-      <c r="B85" s="75" t="s">
+      <c r="A85" s="85"/>
+      <c r="B85" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="60" t="s">
+      <c r="A86" s="85"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="87" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="74"/>
-      <c r="B87" s="59" t="s">
+      <c r="A87" s="85"/>
+      <c r="B87" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="60" t="s">
+      <c r="C87" s="87" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="74"/>
-      <c r="B88" s="75" t="s">
+      <c r="A88" s="85"/>
+      <c r="B88" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="87" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="74"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="60" t="s">
+      <c r="A89" s="85"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="87" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="74"/>
-      <c r="B90" s="59" t="s">
+      <c r="A90" s="85"/>
+      <c r="B90" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="60"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="74"/>
-      <c r="B91" s="75" t="s">
+      <c r="A91" s="85"/>
+      <c r="B91" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="87" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="74"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="60" t="s">
+      <c r="A92" s="85"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="87" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="74"/>
-      <c r="B93" s="59" t="s">
+      <c r="A93" s="85"/>
+      <c r="B93" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" ht="13.5" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="225">
+    <row r="95" ht="191.25" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="7" t="s">
         <v>199</v>
       </c>
     </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" ht="38.25" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" ht="38.25" spans="2:2">
+      <c r="B110" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B92"/>
+  <mergeCells count="15">
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A60"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="A83:A93"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
-    <col min="3" max="3" width="139.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.14" customWidth="1"/>
+    <col min="2" max="2" width="122.713333333333" customWidth="1"/>
+    <col min="3" max="3" width="139.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="303" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="180">
-      <c r="A2" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90">
-      <c r="A3" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>205</v>
+    <row r="1" ht="303" customHeight="1" spans="1:2">
+      <c r="A1" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" ht="153" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" ht="76.5" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="76" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>207</v>
+      <c r="A4" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="77"/>
-      <c r="B5" s="32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="77"/>
-      <c r="B6" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="77"/>
-      <c r="B7" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="77"/>
-      <c r="B8" s="30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="77"/>
-      <c r="B9" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="77"/>
-      <c r="B10" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="78"/>
-      <c r="B11" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="64"/>
+      <c r="B6" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="64"/>
+      <c r="B9" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="64"/>
+      <c r="B10" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="65"/>
+      <c r="B11" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    <row r="13" spans="1:1">
+      <c r="A13" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="90">
-      <c r="A20" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>814</v>
-      </c>
-      <c r="C20" s="102"/>
+    <row r="20" ht="76.5" spans="1:3">
+      <c r="A20" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="68"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="102"/>
-    </row>
-    <row r="22" spans="1:3" ht="90">
-      <c r="A22" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="102"/>
-    </row>
-    <row r="23" spans="1:3" ht="240">
-      <c r="A23" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="101" t="s">
-        <v>811</v>
-      </c>
-      <c r="C23" s="102"/>
-    </row>
-    <row r="24" spans="1:3" ht="90">
-      <c r="A24" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="102"/>
-    </row>
-    <row r="25" spans="1:3" ht="45">
-      <c r="A25" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="B25" s="101" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="102"/>
-    </row>
-    <row r="26" spans="1:3" ht="240">
-      <c r="A26" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="101" t="s">
-        <v>812</v>
-      </c>
-      <c r="C26" s="102"/>
-    </row>
-    <row r="27" spans="1:3" ht="165">
-      <c r="A27" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="101" t="s">
-        <v>813</v>
-      </c>
-      <c r="C27" s="102"/>
-    </row>
-    <row r="28" spans="1:3" ht="120">
-      <c r="A28" s="100" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="102"/>
+      <c r="A21" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="68"/>
+    </row>
+    <row r="22" ht="76.5" spans="1:3">
+      <c r="A22" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="68"/>
+    </row>
+    <row r="23" ht="204" spans="1:3">
+      <c r="A23" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="68"/>
+    </row>
+    <row r="24" ht="76.5" spans="1:3">
+      <c r="A24" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="68"/>
+    </row>
+    <row r="25" ht="38.25" spans="1:3">
+      <c r="A25" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="68"/>
+    </row>
+    <row r="26" ht="204" spans="1:3">
+      <c r="A26" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="68"/>
+    </row>
+    <row r="27" ht="140.25" spans="1:3">
+      <c r="A27" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="68"/>
+    </row>
+    <row r="28" ht="89.25" spans="1:3">
+      <c r="A28" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="68"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="102"/>
+      <c r="A29" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="68"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="101" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="102"/>
+      <c r="A30" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="68"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="101" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="106" t="s">
-        <v>240</v>
+      <c r="A31" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="105"/>
-      <c r="B32" s="101" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="107"/>
-    </row>
-    <row r="33" spans="1:3" ht="135">
-      <c r="A33" s="105"/>
-      <c r="B33" s="108" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="107"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="72"/>
+    </row>
+    <row r="33" ht="114.75" spans="1:3">
+      <c r="A33" s="66"/>
+      <c r="B33" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16652,851 +17249,792 @@
     <mergeCell ref="C31:C33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C31" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C15" r:id="rId2" display="springboot3-security-jwt/src/main/java/com/sc/repository/UserInfoRepository.java at main · JavaaTechSolutions/springboot3-security-jwt (github.com)"/>
+    <hyperlink ref="E4" r:id="rId3" display="Learn Spring Course | Baeldung"/>
+    <hyperlink ref="C31" r:id="rId4" display="https://spring.io/blog/2013/11/01/exception-handling-in-spring-mvc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="107.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="76.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.2866666666667" style="27" customWidth="1"/>
+    <col min="2" max="2" width="107.853333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="76.8533333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
-      <c r="A1" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="80"/>
-    </row>
-    <row r="2" spans="1:3" ht="192.75" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="105">
-      <c r="A3" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="89.25">
-      <c r="A5" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>251</v>
+    <row r="1" ht="24" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="50"/>
+    </row>
+    <row r="2" ht="192.75" customHeight="1" spans="1:2">
+      <c r="A2" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" ht="89.25" spans="1:2">
+      <c r="A3" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="1:2">
+      <c r="A4" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" ht="84" spans="1:2">
+      <c r="A5" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="255">
-      <c r="A10" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60">
-      <c r="A11" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.25">
-      <c r="A13" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="B13" s="80"/>
-    </row>
-    <row r="14" spans="1:3" ht="90">
-      <c r="A14" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45">
-      <c r="A16" s="21" t="s">
+      <c r="A6" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B6" s="53" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="75">
-      <c r="A18" s="81" t="s">
+      <c r="B7" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="90">
-      <c r="A19" s="81"/>
-      <c r="B19" s="6" t="s">
+      <c r="B8" s="54" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
-      <c r="A20" s="81"/>
-      <c r="B20" s="6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="27" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="135">
-      <c r="A21" s="81"/>
-      <c r="B21" s="6" t="s">
+      <c r="B9" s="54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="81"/>
-    </row>
-    <row r="23" spans="1:3" ht="45">
-      <c r="A23" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="10" ht="191.25" spans="1:2">
+      <c r="A10" s="27" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="60">
-      <c r="A24" s="21" t="s">
+      <c r="B10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="11" ht="51" spans="1:2">
+      <c r="A11" s="55" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="21" t="s">
+      <c r="B11" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="13" ht="24" spans="1:2">
+      <c r="A13" s="29" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="81" t="s">
+      <c r="B13" s="50"/>
+    </row>
+    <row r="14" ht="76.5" spans="1:2">
+      <c r="A14" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30">
-      <c r="A27" s="81"/>
-      <c r="B27" s="6" t="s">
+    <row r="15" ht="25.5" spans="1:2">
+      <c r="A15" s="27" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30">
-      <c r="A28" s="81"/>
-      <c r="B28" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="21" t="s">
+    <row r="16" ht="38.25" spans="1:2">
+      <c r="A16" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="135">
-      <c r="A30" s="82" t="s">
+    <row r="17" ht="25.5" spans="1:2">
+      <c r="A17" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C30" s="10" t="s">
+    </row>
+    <row r="18" ht="38.25" spans="1:2">
+      <c r="A18" s="27" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="75">
-      <c r="A31" s="82"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
-      <c r="A32" s="82"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="10" t="s">
+    <row r="19" ht="51" spans="2:2">
+      <c r="B19" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="210">
-      <c r="A33" s="82"/>
-      <c r="B33" s="84"/>
+    <row r="20" ht="38.25" spans="2:2">
+      <c r="B20" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" ht="102" spans="2:2">
+      <c r="B21" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" ht="38.25" spans="1:2">
+      <c r="A23" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" ht="51" spans="1:2">
+      <c r="A24" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" spans="1:2">
+      <c r="A26" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" spans="2:2">
+      <c r="B27" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" spans="2:2">
+      <c r="B28" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" ht="114.75" spans="1:3">
+      <c r="A30" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" ht="63.75" spans="1:3">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" spans="1:3">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" ht="153" spans="1:3">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60">
-      <c r="A34" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60">
-      <c r="A35" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="150">
-      <c r="A36" s="81"/>
-      <c r="B36" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="75">
-      <c r="A37" s="81"/>
-      <c r="B37" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="90">
-      <c r="A38" s="81"/>
-      <c r="B38" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="75">
-      <c r="A39" s="81"/>
-      <c r="B39" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="90">
-      <c r="A40" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="75">
-      <c r="A41" s="81"/>
-      <c r="B41" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="81"/>
-      <c r="B42" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="45">
-      <c r="A44" s="81" t="s">
-        <v>310</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="45">
-      <c r="A45" s="81"/>
-      <c r="B45" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="60">
-      <c r="A46" s="81"/>
-      <c r="B46" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45">
-      <c r="A47" s="81"/>
-      <c r="B47" s="19" t="s">
+    <row r="34" ht="38.25" spans="1:2">
+      <c r="A34" s="27" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="90">
-      <c r="A48" s="81"/>
-      <c r="B48" s="19" t="s">
+      <c r="B34" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="285">
-      <c r="A49" s="24" t="s">
+    <row r="35" ht="51" spans="1:2">
+      <c r="A35" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C49" s="43" t="s">
+    </row>
+    <row r="36" ht="114.75" spans="2:2">
+      <c r="B36" s="7" t="s">
         <v>318</v>
       </c>
     </row>
+    <row r="37" ht="63.75" spans="2:2">
+      <c r="B37" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" ht="63.75" spans="2:2">
+      <c r="B38" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" ht="65.25" spans="2:2">
+      <c r="B39" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" ht="76.5" spans="1:2">
+      <c r="A40" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" ht="63.75" spans="2:2">
+      <c r="B41" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" spans="1:2">
+      <c r="A43" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" ht="38.25" spans="1:2">
+      <c r="A44" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" ht="38.25" spans="2:2">
+      <c r="B45" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" ht="51" spans="2:2">
+      <c r="B46" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" ht="38.25" spans="2:2">
+      <c r="B47" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" ht="63.75" spans="2:2">
+      <c r="B48" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" ht="216.75" spans="1:3">
+      <c r="A49" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>336</v>
+      </c>
+    </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="43"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="105">
-      <c r="A53" s="81" t="s">
-        <v>322</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="105">
-      <c r="A54" s="81"/>
-      <c r="B54" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" s="81"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="75">
-      <c r="A57" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="165">
-      <c r="A58" s="81"/>
-      <c r="B58" s="19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="105">
-      <c r="A59" s="81"/>
-      <c r="B59" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="60">
-      <c r="A60" s="81"/>
-      <c r="B60" s="19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="120">
-      <c r="A61" s="81"/>
-      <c r="B61" s="19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="26.25">
-      <c r="A63" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="B63" s="80"/>
-    </row>
-    <row r="64" spans="1:3" ht="195">
-      <c r="A64" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="165">
-      <c r="A65" s="81"/>
-      <c r="B65" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C65" s="86"/>
-    </row>
-    <row r="66" spans="1:3" ht="90">
-      <c r="A66" s="37" t="s">
+      <c r="A50" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="57"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="C66" s="86"/>
-    </row>
-    <row r="67" spans="1:3" ht="60">
-      <c r="A67" s="21" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="B67" s="6" t="s">
+    </row>
+    <row r="53" ht="76.5" spans="1:2">
+      <c r="A53" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C67" s="86"/>
-    </row>
-    <row r="68" spans="1:3" ht="60">
-      <c r="A68" s="81" t="s">
+      <c r="B53" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B68" s="44" t="s">
+    </row>
+    <row r="54" ht="63.75" spans="2:2">
+      <c r="B54" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="225">
-      <c r="A69" s="81"/>
-      <c r="B69" s="45" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="27" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="390">
-      <c r="A70" s="81"/>
-      <c r="B70" s="45" t="s">
+    <row r="57" ht="63.75" spans="1:2">
+      <c r="A57" s="27" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="135">
-      <c r="A71" s="81"/>
-      <c r="B71" s="45" t="s">
+      <c r="B57" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="81"/>
-      <c r="B72" s="44"/>
-    </row>
-    <row r="73" spans="1:3" ht="60">
-      <c r="A73" s="83" t="s">
+    <row r="58" ht="140.25" spans="2:2">
+      <c r="B58" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B73" s="44" t="s">
+    </row>
+    <row r="59" ht="89.25" spans="2:2">
+      <c r="B59" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="45">
-      <c r="A74" s="83"/>
-      <c r="B74" s="44" t="s">
+    <row r="60" ht="38.25" spans="2:2">
+      <c r="B60" s="25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45">
-      <c r="A75" s="83"/>
-      <c r="B75" s="44" t="s">
+    <row r="61" ht="89.25" spans="2:2">
+      <c r="B61" s="25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="75">
-      <c r="A76" s="81" t="s">
+    <row r="63" ht="24" spans="1:2">
+      <c r="A63" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B63" s="50"/>
+    </row>
+    <row r="64" ht="153" spans="1:3">
+      <c r="A64" s="27" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="150">
-      <c r="A77" s="81"/>
-      <c r="B77" s="6" t="s">
+      <c r="B64" s="25" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="150">
-      <c r="A78" s="81"/>
-      <c r="B78" s="6" t="s">
+      <c r="C64" s="13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="81"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="21" t="s">
+    <row r="65" ht="140.25" spans="2:3">
+      <c r="B65" s="7" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="45">
-      <c r="A81" s="83" t="s">
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" ht="76.5" spans="1:3">
+      <c r="A66" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B66" s="25" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15">
-      <c r="A82" s="83"/>
-      <c r="B82" s="46" t="s">
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" ht="25.5" spans="1:3">
+      <c r="A67" s="27" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="75">
-      <c r="A83" s="83"/>
-      <c r="B83" s="19" t="s">
+      <c r="B67" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="83"/>
-      <c r="B84" s="19" t="s">
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" ht="51" spans="1:2">
+      <c r="A68" s="27" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="81" t="s">
+      <c r="B68" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="B85" s="6" t="s">
+    </row>
+    <row r="69" ht="165.75" spans="2:2">
+      <c r="B69" s="59" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="81"/>
-      <c r="B86" s="19" t="s">
+    <row r="70" ht="293.25" spans="2:2">
+      <c r="B70" s="59" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="195" customHeight="1">
-      <c r="A87" s="81"/>
-      <c r="B87" s="6" t="s">
+    <row r="71" ht="102" spans="2:2">
+      <c r="B71" s="59" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="90">
-      <c r="A88" s="81" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="58"/>
+    </row>
+    <row r="73" ht="38.25" spans="1:2">
+      <c r="A73" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B73" s="58" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="120">
-      <c r="A89" s="81"/>
-      <c r="B89" s="19" t="s">
+    <row r="74" ht="38.25" spans="1:2">
+      <c r="A74" s="51"/>
+      <c r="B74" s="58" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="90">
-      <c r="A90" s="81"/>
-      <c r="B90" s="47" t="s">
+    <row r="75" ht="38.25" spans="1:2">
+      <c r="A75" s="51"/>
+      <c r="B75" s="58" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="81"/>
-      <c r="B91" s="6" t="s">
+    <row r="76" ht="51" spans="1:2">
+      <c r="A76" s="27" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="81"/>
-      <c r="B92" s="6" t="s">
+      <c r="B76" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="81"/>
-      <c r="B93" s="6" t="s">
+    <row r="77" ht="114.75" spans="2:2">
+      <c r="B77" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="26.25">
-      <c r="A95" s="79" t="s">
+    <row r="78" ht="114.75" spans="2:2">
+      <c r="B78" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B95" s="80"/>
-    </row>
-    <row r="96" spans="1:2" ht="105">
-      <c r="A96" s="37" t="s">
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="B96" s="48" t="s">
+    </row>
+    <row r="81" ht="25.5" spans="1:2">
+      <c r="A81" s="51" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="135">
-      <c r="A97" s="81" t="s">
+      <c r="B81" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="B97" s="6" t="s">
+    </row>
+    <row r="82" ht="12.75" spans="1:2">
+      <c r="A82" s="51"/>
+      <c r="B82" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="195">
-      <c r="A98" s="81"/>
-      <c r="B98" s="44" t="s">
+    <row r="83" ht="63.75" spans="1:2">
+      <c r="A83" s="51"/>
+      <c r="B83" s="25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="165">
-      <c r="A99" s="81"/>
-      <c r="B99" s="6" t="s">
+    <row r="84" ht="25.5" spans="1:2">
+      <c r="A84" s="51"/>
+      <c r="B84" s="25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="120">
-      <c r="A100" s="81" t="s">
+    <row r="85" ht="51" spans="1:2">
+      <c r="A85" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="150">
-      <c r="A101" s="81"/>
-      <c r="B101" s="19" t="s">
+    <row r="86" ht="63.75" spans="2:2">
+      <c r="B86" s="25" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="150">
-      <c r="A102" s="81"/>
-      <c r="B102" s="19" t="s">
+    <row r="87" ht="195" customHeight="1" spans="2:2">
+      <c r="B87" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="195">
-      <c r="A103" s="81"/>
-      <c r="B103" s="19" t="s">
+    <row r="88" ht="76.5" spans="1:2">
+      <c r="A88" s="27" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="60">
-      <c r="A104" s="81"/>
-      <c r="B104" s="19" t="s">
+      <c r="B88" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="45">
-      <c r="A105" s="81"/>
-      <c r="B105" s="47" t="s">
+    <row r="89" ht="76.5" spans="2:2">
+      <c r="B89" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="210">
-      <c r="A106" s="21" t="s">
+    <row r="90" ht="76.5" spans="2:2">
+      <c r="B90" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="B106" s="6" t="s">
+    </row>
+    <row r="91" ht="25.5" spans="2:2">
+      <c r="B91" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="90">
-      <c r="A107" s="81" t="s">
+    <row r="92" ht="25.5" spans="2:2">
+      <c r="B92" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B107" s="6" t="s">
+    </row>
+    <row r="93" ht="25.5" spans="2:2">
+      <c r="B93" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="165">
-      <c r="A108" s="81"/>
-      <c r="B108" s="19" t="s">
+    <row r="95" ht="24" spans="1:2">
+      <c r="A95" s="29" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="120">
-      <c r="A109" s="83" t="s">
+      <c r="B95" s="50"/>
+    </row>
+    <row r="96" ht="76.5" spans="1:2">
+      <c r="A96" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B96" s="62" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="75">
-      <c r="A110" s="83"/>
-      <c r="B110" s="19" t="s">
+    <row r="97" ht="102" spans="1:2">
+      <c r="A97" s="27" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="60">
-      <c r="A111" s="83" t="s">
+      <c r="B97" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B111" s="6" t="s">
+    </row>
+    <row r="98" ht="153" spans="2:2">
+      <c r="B98" s="58" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45">
-      <c r="A112" s="83"/>
-      <c r="B112" s="6" t="s">
+    <row r="99" ht="114.75" spans="2:2">
+      <c r="B99" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="84" customHeight="1">
-      <c r="A113" s="83"/>
-      <c r="B113" s="6" t="s">
+    <row r="100" ht="76.5" spans="1:2">
+      <c r="A100" s="27" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A114" s="83"/>
-      <c r="B114" s="6" t="s">
+      <c r="B100" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15">
-      <c r="A115" s="83"/>
-      <c r="B115" s="6" t="s">
+    <row r="101" ht="114.75" spans="2:2">
+      <c r="B101" s="25" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1">
-      <c r="A116" s="83"/>
-      <c r="B116" s="6" t="s">
+    <row r="102" ht="114.75" spans="2:2">
+      <c r="B102" s="25" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="90">
-      <c r="A117" s="83"/>
-      <c r="B117" s="6" t="s">
+    <row r="103" ht="153" spans="2:2">
+      <c r="B103" s="25" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1">
-      <c r="A118" s="83"/>
-      <c r="B118" s="5" t="s">
+    <row r="104" ht="51" spans="2:2">
+      <c r="B104" s="25" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1">
-      <c r="A119" s="83"/>
-      <c r="B119" s="6" t="s">
+    <row r="105" ht="38.25" spans="2:2">
+      <c r="B105" s="61" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1">
-      <c r="A120" s="83"/>
-      <c r="B120" s="5" t="s">
+    <row r="106" ht="165.75" spans="1:2">
+      <c r="A106" s="27" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1">
-      <c r="A121" s="83"/>
-      <c r="B121" s="5" t="s">
+      <c r="B106" s="7" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1">
-      <c r="A122" s="83"/>
-      <c r="B122" s="5" t="s">
+    <row r="107" ht="76.5" spans="1:2">
+      <c r="A107" s="27" t="s">
         <v>405</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" ht="127.5" spans="2:2">
+      <c r="B108" s="25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" ht="102" spans="1:2">
+      <c r="A109" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" ht="63.75" spans="1:2">
+      <c r="A110" s="51"/>
+      <c r="B110" s="25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" ht="38.25" spans="1:2">
+      <c r="A111" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" ht="38.25" spans="1:2">
+      <c r="A112" s="51"/>
+      <c r="B112" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="113" ht="84" customHeight="1" spans="1:2">
+      <c r="A113" s="51"/>
+      <c r="B113" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="114" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A114" s="51"/>
+      <c r="B114" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75" spans="1:2">
+      <c r="A115" s="51"/>
+      <c r="B115" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" ht="15" customHeight="1" spans="1:2">
+      <c r="A116" s="51"/>
+      <c r="B116" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="117" ht="63.75" spans="1:2">
+      <c r="A117" s="51"/>
+      <c r="B117" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" ht="15" customHeight="1" spans="1:2">
+      <c r="A118" s="51"/>
+      <c r="B118" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1" spans="1:2">
+      <c r="A119" s="51"/>
+      <c r="B119" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="120" ht="15" customHeight="1" spans="1:2">
+      <c r="A120" s="51"/>
+      <c r="B120" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" ht="15" customHeight="1" spans="1:2">
+      <c r="A121" s="51"/>
+      <c r="B121" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" ht="15" customHeight="1" spans="1:2">
+      <c r="A122" s="51"/>
+      <c r="B122" s="6" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A122"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A105"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A63:B63"/>
@@ -17513,332 +18051,344 @@
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A122"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C64:C67"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C49" r:id="rId5" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java_x000a__x000a__x000a_https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="B96" r:id="rId6" display="https://www.keycloak.org/documentation_x000a_https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93_x000a_https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s_x000a_https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java_x000a_https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s_x000a_https://www.keycloak.org/docs/24.0.1/authorization_services/" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://docs.spring.io/spring-security/reference/features/authentication/password-storage.html"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://github.com/spring-projects/spring-security-samples/blob/main/servlet/spring-boot/java/authentication/username-password/mfa/src/main/java/example/MfaService.java"/>
+    <hyperlink ref="B8" r:id="rId4" display="HttpSecurity (spring-security-docs 6.1.3 API)"/>
+    <hyperlink ref="B7" r:id="rId5" display="Samples :: Spring Security"/>
+    <hyperlink ref="C49" r:id="rId6" display="https://github.com/MossaabFrifita/spring-boot-3-security-6-jwt/blob/main/src/main/java/fr/mossaab/security/service/impl/JwtServiceImpl.java&#10;&#10;&#10;https://github.com/ali-bouali/spring-boot-3-jwt-security/blob/main/src/main/java/com/alibou/security/config/JwtService.java"/>
+    <hyperlink ref="B96" r:id="rId7" display="https://www.keycloak.org/documentation&#10;https://medium.com/@nirabhratapaswi/keycloak-for-securing-enterprise-applications-an-overview-fa99e5d0ab93&#10;https://www.youtube.com/watch?v=ZxpY_zZ52kU&amp;t=692s&#10;https://github.com/dive-into-dev/springboot-keycloak/blob/main/src/main/java/dive/dev/security/SecurityConfig.java&#10;https://www.youtube.com/watch?v=oWUGe-Z0WF0&amp;list=PLHXvj3cRjbzs8TaT-RX1qJYYK2MjRro-P&amp;index=9&amp;t=66s&#10;https://www.keycloak.org/docs/24.0.1/authorization_services/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="83.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="125.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.7133333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="83.7133333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="125.713333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60">
-      <c r="A1" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75">
-      <c r="A2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="64.5" customHeight="1">
-      <c r="A5" s="65" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="82.5" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>417</v>
+    <row r="1" ht="51" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" ht="63.75" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="1:2">
+      <c r="A3" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" ht="64.5" customHeight="1" spans="1:2">
+      <c r="A5" s="94" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" ht="52.5" customHeight="1" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" ht="82.5" customHeight="1" spans="1:1">
+      <c r="A7" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="87" t="s">
-        <v>418</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>420</v>
+      <c r="A8" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="88"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="88"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="88"/>
-      <c r="B11" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="88"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="89"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="390">
-      <c r="A20" s="5" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" ht="293.25" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="120">
-      <c r="A22" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>432</v>
+      <c r="B20" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" ht="89.25" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="225">
-      <c r="A24" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>435</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" ht="153" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="75">
-      <c r="A26" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>437</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" ht="63.75" spans="1:11">
+      <c r="A26" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="19" t="s">
-        <v>439</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="25" t="s">
+        <v>457</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="45">
-      <c r="A29" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="135">
-      <c r="A31" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30">
-      <c r="A32" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="180">
-      <c r="A33" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="360">
-      <c r="A34" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45">
-      <c r="A36" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" ht="102" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" ht="127.5" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" ht="229.5" spans="1:3">
+      <c r="A34" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" ht="38.25" spans="1:2">
+      <c r="A36" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
-        <v>458</v>
+      <c r="A40" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="210">
-      <c r="A41" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>461</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" ht="165.75" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
-        <v>463</v>
+      <c r="A42" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="180">
-      <c r="A43" s="71" t="s">
-        <v>464</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="120">
-      <c r="A44" s="71"/>
-      <c r="B44" s="18" t="s">
-        <v>464</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" ht="140.25" spans="1:3">
+      <c r="A43" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" ht="102" spans="1:3">
+      <c r="A44" s="49"/>
+      <c r="B44" s="24" t="s">
+        <v>482</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="180">
-      <c r="A45" s="71"/>
-      <c r="B45" s="18" t="s">
-        <v>468</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" ht="140.25" spans="1:3">
+      <c r="A45" s="49"/>
+      <c r="B45" s="24" t="s">
+        <v>486</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="71"/>
-      <c r="B46" s="18" t="s">
-        <v>470</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" spans="1:3">
+      <c r="A46" s="49"/>
+      <c r="B46" s="24" t="s">
+        <v>488</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -17848,255 +18398,257 @@
     <mergeCell ref="C8:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="K26" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C34" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C40" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C42" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C22" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
+    <hyperlink ref="C24" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
+    <hyperlink ref="C26" r:id="rId1" display="https://techmaster.vn/posts/37162/jpa-la-gi-gioi-thieu-ve-java-persistence"/>
+    <hyperlink ref="C28" r:id="rId2" display="https://www.digitalocean.com/community/tutorials/spring-data-jpa"/>
+    <hyperlink ref="K26" r:id="rId3" display="https://docs.jboss.org/hibernate/orm/6.3/introduction/html_single/Hibernate_Introduction.html#entities"/>
+    <hyperlink ref="C34" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#pc-cascade"/>
+    <hyperlink ref="C40" r:id="rId4" display="https://docs.jboss.org/hibernate/stable/orm/userguide/html_single/Hibernate_User_Guide.html#associations-many-to-one"/>
+    <hyperlink ref="C41" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
+    <hyperlink ref="C42" r:id="rId5" display="https://www.marcobehler.com/guides/spring-transaction-management-transactional-in-depth"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="111.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.4266666666667" customWidth="1"/>
+    <col min="2" max="2" width="111.14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="91" t="s">
-        <v>472</v>
+    <row r="1" ht="25.5" spans="1:2">
+      <c r="A1" s="42" t="s">
+        <v>490</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="90">
-      <c r="A2" s="79"/>
-      <c r="B2" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="75">
-      <c r="A3" s="79"/>
-      <c r="B3" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75">
-      <c r="A4" s="79"/>
-      <c r="B4" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="79"/>
-      <c r="B5" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135">
-      <c r="A6" s="79"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" ht="76.5" spans="1:2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" ht="63.75" spans="1:2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" ht="63.75" spans="1:2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" ht="114.75" spans="1:2">
+      <c r="A6" s="29"/>
       <c r="B6" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" s="79"/>
-      <c r="B7" s="24" t="s">
-        <v>479</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="79"/>
-      <c r="C8" s="33"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="79"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="79"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="79"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="79"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="79"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="79"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="79"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="79"/>
+      <c r="A8" s="29"/>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="29"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="29"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="29"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="29"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="29"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="29"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="29"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="29"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="79"/>
+      <c r="A17" s="29"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="79"/>
+      <c r="A18" s="29"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="79"/>
+      <c r="A19" s="29"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="79"/>
+      <c r="A20" s="29"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="79"/>
+      <c r="A21" s="29"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="79"/>
+      <c r="A22" s="29"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="79"/>
+      <c r="A23" s="29"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="79"/>
+      <c r="A24" s="29"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="79"/>
+      <c r="A25" s="29"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="79"/>
+      <c r="A26" s="29"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="79"/>
+      <c r="A27" s="29"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="79"/>
+      <c r="A28" s="29"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="29"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="79"/>
+      <c r="A30" s="29"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="29"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="79"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="79"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="79"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="79"/>
-    </row>
-    <row r="36" spans="1:2" ht="60">
-      <c r="A36" s="79" t="s">
-        <v>480</v>
+      <c r="A32" s="29"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="29"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="29"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="29"/>
+    </row>
+    <row r="36" ht="51" spans="1:2">
+      <c r="A36" s="29" t="s">
+        <v>498</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18.75">
-      <c r="A38" s="79"/>
-      <c r="B38" s="24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="79"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="79"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="79"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="79"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="79"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="79"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="79"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="79"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="79"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="79"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="29"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="29"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="29"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="29"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="29"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="29"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="29"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="29"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="29"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="29"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="79"/>
+      <c r="A49" s="29"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="79"/>
+      <c r="A50" s="29"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="79"/>
+      <c r="A51" s="29"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="79"/>
+      <c r="A52" s="29"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="79"/>
+      <c r="A53" s="29"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="79"/>
+      <c r="A54" s="29"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="79"/>
+      <c r="A55" s="29"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="79"/>
+      <c r="A56" s="29"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="29"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="79"/>
+      <c r="A58" s="29"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="79"/>
+      <c r="A59" s="29"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="79"/>
+      <c r="A60" s="29"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="79"/>
+      <c r="A61" s="29"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="79"/>
+      <c r="A62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18104,122 +18656,126 @@
     <mergeCell ref="A36:A62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.2866666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.4266666666667" customWidth="1"/>
+    <col min="3" max="3" width="45.4266666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>485</v>
+      <c r="A1" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="30"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="A7" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -18227,8 +18783,9 @@
     <mergeCell ref="B1:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://java-design-patterns.com/patterns/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="824">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -8359,160 +8359,25 @@
     </r>
   </si>
   <si>
-    <t>DATA 
-STRUCTURE</t>
-  </si>
-  <si>
-    <t>A data structure is an arrangement(tổ chức, sắp xếp) of data in a computer’s memory (or sometimes on a disk). Data structures include arrays, linked lists, stacks, binary trees, and hash tables, among others</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Real-World Data Storage:
-Real-World Modeling:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Some data structures directly model real-world situations. The most important data structure of this type is the graph. You can use graphs to represent airline routes between cities or connections in an electric circuit or tasks in a project.
- - Other data structures, such as stacks and queues, may also be used in simulations. A queue, for example, can model customers waiting in line at a bank or cars waiting at a toll booth.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Overview of Data Structures:
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Array: Quick insertion, very fast access if index known, slow search, slow deletion, fixed size
- - Ordered array: Quicker search than unsorted array, slow insertion and deletion, fixed size.
- - Stack: Provides last-in, first-out access. Slow access to other items.
- ...........</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Some Definitions: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Database: Refer to all the data that will be dealt with in a particular situation.
-- Records: Are the units into which a database is divided
-- Field: 
-- Key</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Object-Oriented Programming:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-  </si>
-  <si>
-    <t>Primitive Variable Types:
- - boolean        |   1 bit   |   true or false
- - byte             |   8 bit   |   -128 -&gt; 127
- - char             |   16 bit |   ‘\u0000’ to ‘\uFFFF’
- - short            |   16 bit |   –32,768 to +32,767
- - int                |   32 bit |   –2,147,483,648 to +2,147,483,647
- -  long            |   64 bit |   –9,223,372,036,854,775,808 to +9,223,372,036,854,775,807
- - float             |   32 bit |   Approximately 10–38 to 10+38; 7 significant digits
- - double         |   64 bit |   Approximately 10–308 to 10+308; 15 significant digits</t>
-  </si>
-  <si>
-    <t>ARRAYS</t>
-  </si>
-  <si>
-    <t>ALGORITHM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Algorithms manipulate(thao tác, xử lý) the data in these structures in various ways, such as searching for a particular data item and sorting the data
- - Solve computional problems, prove correctness, argure efficiency, comunication of ideas 
- - Problems:  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Overview of Algorithms: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Insert a new data item, Search for a specified item, Delete a specified item.</t>
-    </r>
+    <t>Fundamental Data Structures</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Singly Linked Lists</t>
+  </si>
+  <si>
+    <t>Circularly Linked Lists</t>
+  </si>
+  <si>
+    <t>Doubly Linked Lists</t>
+  </si>
+  <si>
+    <t>Equivalence Testing</t>
+  </si>
+  <si>
+    <t>Cloning Data Structures</t>
   </si>
   <si>
     <t>Singleton</t>
@@ -12204,12 +12069,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12334,36 +12199,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -12377,17 +12212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12400,14 +12229,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12421,17 +12250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12453,14 +12273,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -12477,17 +12289,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12585,25 +12420,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12621,13 +12498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12639,19 +12510,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12663,97 +12588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12847,6 +12682,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -12863,21 +12707,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12908,6 +12737,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -12916,148 +12760,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13065,7 +12900,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13162,11 +12997,30 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -13234,29 +13088,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13299,13 +13150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -13955,7 +13806,7 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="97" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13966,7 +13817,7 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13974,10 +13825,10 @@
       <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="97" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13988,7 +13839,7 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="98" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14010,7 +13861,7 @@
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="98" t="s">
         <v>11</v>
       </c>
     </row>
@@ -14021,7 +13872,7 @@
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="80" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14032,7 +13883,7 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="80" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14043,7 +13894,7 @@
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="97" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14057,7 +13908,7 @@
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="61" t="s">
         <v>20</v>
       </c>
     </row>
@@ -14092,7 +13943,7 @@
       <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="80" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -14122,7 +13973,7 @@
       <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="80" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14130,7 +13981,7 @@
       <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="80" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14161,230 +14012,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="35" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B23" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B24" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B25" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B26" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -14414,7 +14265,7 @@
   <sheetData>
     <row r="1" ht="12.75" spans="1:1">
       <c r="A1" s="29" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:3">
@@ -14512,22 +14363,22 @@
     </row>
     <row r="26" ht="17.25" spans="1:2">
       <c r="A26" s="29" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:2">
       <c r="A27" s="29"/>
       <c r="B27" s="27" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:2">
       <c r="A28" s="29"/>
       <c r="B28" s="27" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -14535,74 +14386,74 @@
     </row>
     <row r="30" ht="12.75" spans="1:3">
       <c r="A30" s="29" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="1:3">
       <c r="A31" s="29"/>
       <c r="C31" s="28" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="1:3">
       <c r="A32" s="29"/>
       <c r="C32" s="28" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:3">
       <c r="A33" s="29"/>
       <c r="C33" s="28" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" ht="114.75" spans="1:3">
       <c r="A35" s="29" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="C35" s="95" t="s">
-        <v>581</v>
+        <v>576</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="36" ht="89.25" spans="1:3">
       <c r="A36" s="29"/>
       <c r="B36" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="C36" s="95" t="s">
-        <v>583</v>
+        <v>578</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:3">
       <c r="A37" s="29"/>
       <c r="B37" s="27" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:3">
       <c r="A38" s="29"/>
       <c r="B38" s="27" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -14638,140 +14489,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>590</v>
+        <v>585</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>586</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>597</v>
+        <v>592</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -14779,145 +14630,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="23" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="23"/>
       <c r="B55" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="23"/>
       <c r="B56" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="24" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="24"/>
       <c r="B59" s="25" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="24"/>
       <c r="B60" s="25" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="24"/>
       <c r="B62" s="25" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="24"/>
       <c r="B63" s="25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="24"/>
       <c r="B64" s="25" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -14950,276 +14801,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="14" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="15" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="16" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="16"/>
       <c r="B22" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="16"/>
       <c r="B23" s="14" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="16"/>
       <c r="B24" s="14" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="16"/>
       <c r="B25" s="14" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="16"/>
       <c r="B26" s="14" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16"/>
       <c r="B27" s="14" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="16"/>
       <c r="B28" s="15" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="18" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1"/>
       <c r="B32" s="14" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="14" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -15228,10 +15079,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -15272,18 +15123,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>706</v>
+        <v>701</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -15341,22 +15192,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -15383,10 +15234,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -15394,120 +15245,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="10"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10"/>
       <c r="B13" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="13" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="10"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="10"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="10"/>
       <c r="B18" s="13"/>
       <c r="C18" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -15516,13 +15367,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="15" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -15533,40 +15384,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B24" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10"/>
       <c r="B25" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10"/>
       <c r="B27" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -15574,41 +15425,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F31" s="17"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -15723,7 +15574,7 @@
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:4">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -15737,7 +15588,7 @@
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:4">
-      <c r="A13" s="88"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -15749,12 +15600,12 @@
       </c>
     </row>
     <row r="20" ht="26.25" spans="1:4">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
     </row>
     <row r="21" ht="102" spans="1:2">
       <c r="A21" s="1" t="s">
@@ -15824,26 +15675,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -15885,26 +15736,26 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
@@ -15912,69 +15763,69 @@
         <v>213</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B9" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -16004,110 +15855,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -16139,116 +15990,116 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" ht="114.75" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" ht="165.75" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" ht="89.25" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" ht="191.25" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" ht="89.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" ht="38.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" ht="102" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" ht="63.75" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" ht="114.75" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -16256,12 +16107,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -16279,7 +16130,7 @@
   <sheetPr/>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -16310,7 +16161,7 @@
       <c r="A3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="98" t="s">
         <v>74</v>
       </c>
     </row>
@@ -16318,7 +16169,7 @@
       <c r="A4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="97" t="s">
         <v>76</v>
       </c>
     </row>
@@ -16326,7 +16177,7 @@
       <c r="A5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="98" t="s">
         <v>78</v>
       </c>
     </row>
@@ -16334,7 +16185,7 @@
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="98" t="s">
         <v>80</v>
       </c>
     </row>
@@ -16344,10 +16195,10 @@
       </c>
     </row>
     <row r="9" ht="25.5" spans="1:2">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="98" t="s">
         <v>83</v>
       </c>
     </row>
@@ -16357,36 +16208,36 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="81" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="83" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="84" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:2">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="85" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="81" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -16394,7 +16245,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="82" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="39" t="s">
@@ -16402,7 +16253,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="81" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="36"/>
@@ -16603,7 +16454,7 @@
       </c>
     </row>
     <row r="54" ht="51" spans="1:2">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="56" t="s">
         <v>142</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -16611,38 +16462,38 @@
       </c>
     </row>
     <row r="55" ht="102" spans="1:2">
-      <c r="A55" s="49"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" ht="127.5" spans="1:2">
-      <c r="A56" s="49"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="25" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" ht="165.75" spans="1:2">
-      <c r="A57" s="49"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" ht="178.5" spans="1:2">
-      <c r="A58" s="49"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="59" ht="76.5" spans="1:2">
-      <c r="A59" s="49"/>
-      <c r="B59" s="80" t="s">
+      <c r="A59" s="56"/>
+      <c r="B59" s="86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="60" ht="318.75" spans="1:2">
-      <c r="A60" s="49"/>
-      <c r="B60" s="81" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="87" t="s">
         <v>149</v>
       </c>
     </row>
@@ -16671,7 +16522,7 @@
       </c>
     </row>
     <row r="64" ht="116.25" spans="1:2">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="88" t="s">
         <v>156</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -16679,42 +16530,42 @@
       </c>
     </row>
     <row r="65" ht="129" spans="1:2">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="88" t="s">
         <v>158</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="82"/>
-      <c r="B66" s="60" t="s">
+    <row r="66" ht="14.25" spans="1:2">
+      <c r="A66" s="88"/>
+      <c r="B66" s="67" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="83" t="s">
+    <row r="67" ht="13.5" spans="1:2">
+      <c r="A67" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="90" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="68" ht="51" spans="1:2">
-      <c r="A68" s="85"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="91"/>
+      <c r="B68" s="52" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="69" ht="25.5" spans="1:2">
-      <c r="A69" s="85"/>
-      <c r="B69" s="81" t="s">
+      <c r="A69" s="91"/>
+      <c r="B69" s="87" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="85"/>
-      <c r="B70" s="84" t="s">
+      <c r="A70" s="91"/>
+      <c r="B70" s="90" t="s">
         <v>165</v>
       </c>
     </row>
@@ -16727,7 +16578,7 @@
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="67" t="s">
         <v>168</v>
       </c>
     </row>
@@ -16773,7 +16624,7 @@
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="60" t="s">
+      <c r="B80" s="67" t="s">
         <v>178</v>
       </c>
     </row>
@@ -16787,94 +16638,94 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="85" t="s">
+    <row r="83" ht="14.25" spans="1:3">
+      <c r="A83" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="C83" s="87" t="s">
+      <c r="C83" s="93" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="85"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="87" t="s">
+    <row r="84" ht="14.25" spans="1:3">
+      <c r="A84" s="91"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="93" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="85"/>
-      <c r="B85" s="86" t="s">
+    <row r="85" ht="14.25" spans="1:3">
+      <c r="A85" s="91"/>
+      <c r="B85" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="87" t="s">
+      <c r="C85" s="93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="85"/>
-      <c r="B86" s="86"/>
-      <c r="C86" s="87" t="s">
+    <row r="86" ht="14.25" spans="1:3">
+      <c r="A86" s="91"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="93" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="85"/>
-      <c r="B87" s="86" t="s">
+    <row r="87" ht="14.25" spans="1:3">
+      <c r="A87" s="91"/>
+      <c r="B87" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="87" t="s">
+      <c r="C87" s="93" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="85"/>
-      <c r="B88" s="86" t="s">
+    <row r="88" ht="14.25" spans="1:3">
+      <c r="A88" s="91"/>
+      <c r="B88" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="93" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="85"/>
-      <c r="B89" s="86"/>
-      <c r="C89" s="87" t="s">
+    <row r="89" ht="14.25" spans="1:3">
+      <c r="A89" s="91"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="93" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="85"/>
-      <c r="B90" s="86" t="s">
+    <row r="90" ht="14.25" spans="1:3">
+      <c r="A90" s="91"/>
+      <c r="B90" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="87"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="85"/>
-      <c r="B91" s="86" t="s">
+      <c r="C90" s="93"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:3">
+      <c r="A91" s="91"/>
+      <c r="B91" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="85"/>
-      <c r="B92" s="86"/>
-      <c r="C92" s="87" t="s">
+    <row r="92" ht="14.25" spans="1:3">
+      <c r="A92" s="91"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="93" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="85"/>
-      <c r="B93" s="86" t="s">
+    <row r="93" ht="14.25" spans="1:3">
+      <c r="A93" s="91"/>
+      <c r="B93" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="C93" s="93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -16946,7 +16797,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" ht="38.25" spans="1:2">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>210</v>
       </c>
@@ -17032,7 +16883,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="70" t="s">
         <v>220</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -17043,43 +16894,43 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="64"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="39" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="36" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="39" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="64"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="36" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="64"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="39" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="36" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="39" t="s">
         <v>229</v>
       </c>
@@ -17119,128 +16970,128 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" ht="76.5" spans="1:3">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="75"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="75"/>
     </row>
     <row r="22" ht="76.5" spans="1:3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="75"/>
     </row>
     <row r="23" ht="204" spans="1:3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="75"/>
     </row>
     <row r="24" ht="76.5" spans="1:3">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="75"/>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="75"/>
     </row>
     <row r="26" ht="204" spans="1:3">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="75"/>
     </row>
     <row r="27" ht="140.25" spans="1:3">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="75"/>
     </row>
     <row r="28" ht="89.25" spans="1:3">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="75"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="75"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="75"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="77" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="78"/>
     </row>
     <row r="33" ht="114.75" spans="1:3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="73" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17280,10 +17131,10 @@
       <c r="A1" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" ht="192.75" customHeight="1" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="58" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -17291,15 +17142,15 @@
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="98" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="58" t="s">
         <v>266</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -17310,7 +17161,7 @@
       <c r="A5" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="59" t="s">
         <v>269</v>
       </c>
     </row>
@@ -17318,7 +17169,7 @@
       <c r="A6" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="60" t="s">
         <v>271</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -17329,7 +17180,7 @@
       <c r="A7" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="61" t="s">
         <v>274</v>
       </c>
     </row>
@@ -17337,7 +17188,7 @@
       <c r="A8" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="61" t="s">
         <v>276</v>
       </c>
     </row>
@@ -17345,7 +17196,7 @@
       <c r="A9" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="61" t="s">
         <v>278</v>
       </c>
     </row>
@@ -17358,10 +17209,10 @@
       </c>
     </row>
     <row r="11" ht="51" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="63" t="s">
         <v>282</v>
       </c>
     </row>
@@ -17369,7 +17220,7 @@
       <c r="A13" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" ht="76.5" spans="1:2">
       <c r="A14" s="27" t="s">
@@ -17477,10 +17328,10 @@
       </c>
     </row>
     <row r="30" ht="114.75" spans="1:3">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="63" t="s">
         <v>309</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -17488,22 +17339,22 @@
       </c>
     </row>
     <row r="31" ht="63.75" spans="1:3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="14" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="14" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="33" ht="153" spans="1:3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="2" t="s">
         <v>313</v>
       </c>
@@ -17563,7 +17414,7 @@
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="62" t="s">
         <v>326</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -17605,7 +17456,7 @@
       <c r="B49" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="64" t="s">
         <v>336</v>
       </c>
     </row>
@@ -17614,7 +17465,7 @@
         <v>337</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="57"/>
+      <c r="C50" s="64"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="27" t="s">
@@ -17676,7 +17527,7 @@
       <c r="A63" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="57"/>
     </row>
     <row r="64" ht="153" spans="1:3">
       <c r="A64" s="27" t="s">
@@ -17696,7 +17547,7 @@
       <c r="C65" s="11"/>
     </row>
     <row r="66" ht="76.5" spans="1:3">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="58" t="s">
         <v>355</v>
       </c>
       <c r="B66" s="25" t="s">
@@ -17717,45 +17568,45 @@
       <c r="A68" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="65" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="69" ht="165.75" spans="2:2">
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="66" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="70" ht="293.25" spans="2:2">
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="66" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="71" ht="102" spans="2:2">
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="66" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="58"/>
+      <c r="B72" s="65"/>
     </row>
     <row r="73" ht="38.25" spans="1:2">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="65" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="74" ht="38.25" spans="1:2">
-      <c r="A74" s="51"/>
-      <c r="B74" s="58" t="s">
+      <c r="A74" s="58"/>
+      <c r="B74" s="65" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="75" ht="38.25" spans="1:2">
-      <c r="A75" s="51"/>
-      <c r="B75" s="58" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="65" t="s">
         <v>367</v>
       </c>
     </row>
@@ -17783,7 +17634,7 @@
       </c>
     </row>
     <row r="81" ht="25.5" spans="1:2">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="58" t="s">
         <v>373</v>
       </c>
       <c r="B81" s="25" t="s">
@@ -17791,19 +17642,19 @@
       </c>
     </row>
     <row r="82" ht="12.75" spans="1:2">
-      <c r="A82" s="51"/>
-      <c r="B82" s="60" t="s">
+      <c r="A82" s="58"/>
+      <c r="B82" s="67" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="83" ht="63.75" spans="1:2">
-      <c r="A83" s="51"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="84" ht="25.5" spans="1:2">
-      <c r="A84" s="51"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="25" t="s">
         <v>377</v>
       </c>
@@ -17840,7 +17691,7 @@
       </c>
     </row>
     <row r="90" ht="76.5" spans="2:2">
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="68" t="s">
         <v>385</v>
       </c>
     </row>
@@ -17863,13 +17714,13 @@
       <c r="A95" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="B95" s="50"/>
+      <c r="B95" s="57"/>
     </row>
     <row r="96" ht="76.5" spans="1:2">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B96" s="69" t="s">
         <v>391</v>
       </c>
     </row>
@@ -17882,7 +17733,7 @@
       </c>
     </row>
     <row r="98" ht="153" spans="2:2">
-      <c r="B98" s="58" t="s">
+      <c r="B98" s="65" t="s">
         <v>394</v>
       </c>
     </row>
@@ -17920,7 +17771,7 @@
       </c>
     </row>
     <row r="105" ht="38.25" spans="2:2">
-      <c r="B105" s="61" t="s">
+      <c r="B105" s="68" t="s">
         <v>402</v>
       </c>
     </row>
@@ -17946,7 +17797,7 @@
       </c>
     </row>
     <row r="109" ht="102" spans="1:2">
-      <c r="A109" s="51" t="s">
+      <c r="A109" s="58" t="s">
         <v>408</v>
       </c>
       <c r="B109" s="25" t="s">
@@ -17954,13 +17805,13 @@
       </c>
     </row>
     <row r="110" ht="63.75" spans="1:2">
-      <c r="A110" s="51"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="25" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="111" ht="38.25" spans="1:2">
-      <c r="A111" s="51" t="s">
+      <c r="A111" s="58" t="s">
         <v>411</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -17968,67 +17819,67 @@
       </c>
     </row>
     <row r="112" ht="38.25" spans="1:2">
-      <c r="A112" s="51"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="113" ht="84" customHeight="1" spans="1:2">
-      <c r="A113" s="51"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="7" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A114" s="51"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="7" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="115" ht="12.75" spans="1:2">
-      <c r="A115" s="51"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" spans="1:2">
-      <c r="A116" s="51"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="117" ht="63.75" spans="1:2">
-      <c r="A117" s="51"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" spans="1:2">
-      <c r="A118" s="51"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="6" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" spans="1:2">
-      <c r="A119" s="51"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" spans="1:2">
-      <c r="A120" s="51"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="6" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" spans="1:2">
-      <c r="A121" s="51"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="6" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" spans="1:2">
-      <c r="A122" s="51"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="6" t="s">
         <v>423</v>
       </c>
@@ -18110,23 +17961,23 @@
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="52" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="52" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="100" t="s">
         <v>432</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -18144,13 +17995,13 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="53" t="s">
         <v>436</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="54" t="s">
         <v>438</v>
       </c>
     </row>
@@ -18290,13 +18141,13 @@
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="48" t="s">
         <v>467</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="55" t="s">
         <v>469</v>
       </c>
     </row>
@@ -18354,7 +18205,7 @@
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="56" t="s">
         <v>482</v>
       </c>
       <c r="B43" s="24" t="s">
@@ -18365,7 +18216,7 @@
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
-      <c r="A44" s="49"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="24" t="s">
         <v>482</v>
       </c>
@@ -18374,7 +18225,7 @@
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
-      <c r="A45" s="49"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="24" t="s">
         <v>486</v>
       </c>
@@ -18383,7 +18234,7 @@
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
-      <c r="A46" s="49"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="24" t="s">
         <v>488</v>
       </c>
@@ -18419,164 +18270,172 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.4266666666667" customWidth="1"/>
-    <col min="2" max="2" width="111.14" customWidth="1"/>
+    <col min="2" max="2" width="20.3" style="43" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="45" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="2" ht="76.5" spans="1:2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="3" ht="63.75" spans="1:2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="4" ht="63.75" spans="1:2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="6" ht="114.75" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="29"/>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="29"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="29"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="29"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="29"/>
+    <row r="7" s="42" customFormat="1" ht="24" spans="1:2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" s="42" customFormat="1" spans="1:3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="48"/>
+    </row>
+    <row r="9" s="42" customFormat="1" spans="1:2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="43"/>
+    </row>
+    <row r="10" s="42" customFormat="1" spans="1:2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="43"/>
+    </row>
+    <row r="11" s="42" customFormat="1" spans="1:2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="43"/>
+    </row>
+    <row r="12" s="42" customFormat="1" spans="1:2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="43"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="44"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="44"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="44"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="44"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="44"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="44"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="44"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="44"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="44"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="44"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="29"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="29"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="29"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="29"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="29"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="29"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="29"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="29"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="29"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="29"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="29"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="29"/>
-    </row>
-    <row r="36" ht="51" spans="1:2">
-      <c r="A36" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>499</v>
-      </c>
+      <c r="A23" s="44"/>
+    </row>
+    <row r="24" s="42" customFormat="1" spans="1:2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="43"/>
+    </row>
+    <row r="25" s="42" customFormat="1" spans="1:2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
+    </row>
+    <row r="26" s="42" customFormat="1" spans="1:2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27" s="42" customFormat="1" spans="1:2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="43"/>
+    </row>
+    <row r="28" s="42" customFormat="1" spans="1:2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="43"/>
+    </row>
+    <row r="29" s="42" customFormat="1" spans="1:2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="43"/>
+    </row>
+    <row r="30" s="42" customFormat="1" spans="1:2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="43"/>
+    </row>
+    <row r="31" s="42" customFormat="1" spans="1:2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="43"/>
+    </row>
+    <row r="32" s="42" customFormat="1" spans="1:2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="43"/>
+    </row>
+    <row r="33" s="42" customFormat="1" spans="1:2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="43"/>
+    </row>
+    <row r="34" s="42" customFormat="1" spans="1:2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="43"/>
+    </row>
+    <row r="35" s="42" customFormat="1" spans="1:2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="43"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="29"/>
+      <c r="B36" s="49"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="29"/>
-      <c r="B37" s="15" t="s">
-        <v>500</v>
-      </c>
+      <c r="B37" s="50"/>
     </row>
     <row r="38" ht="17.25" spans="1:2">
       <c r="A38" s="29"/>
-      <c r="B38" s="30" t="s">
-        <v>497</v>
-      </c>
+      <c r="B38" s="47"/>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="29"/>
@@ -18652,7 +18511,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="A1:A6"/>
     <mergeCell ref="A36:A62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18694,88 +18553,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="39" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="36" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="36" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="36"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/Java-Spring/Documents.xlsx
+++ b/Java-Spring/Documents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="831">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -2831,12 +2831,526 @@
     <t>Logging</t>
   </si>
   <si>
-    <t>Generic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Why need Generic Programming:
-- 
+    <r>
+      <t>Generic Programming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(https://docs.oracle.com/javase/tutorial/java/generics/rawTypes.html)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Introduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+- Generic classes and methods have type parameters. This allows them to describe precisely(chính xác) what should happen when they are instantiated(được khởi tạo) with speciﬁc types.
+ - Allows designers to describe in detail how types of variables and methods should vary(thay đổi).
+ - Simple to implement generic code, complex for implementors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Why Generic Programming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- Generic programming means writing code that can be reused for objects of many different types. For example, you don’t want to program separate classes to collect String and File objects. And you don’t have to the single class ArrayList collects objects of any class.
+- If you declare a variable with an explicit type instead of var, you can omit the type parameter in the constructor by using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“diamond” syntax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;String&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files = new ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(); =&gt; The omitted type is inferred from the type of the variable. The compiler can make good use of the type information too. No cast is required for calling get. The compiler knows that the return type is String, not Object.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wildcard Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- A programmer may want to add all elements from an ArrayList&lt;Manager&gt; to an ArrayList&lt;Employee&gt;. How do you allow one call and disallow the other? (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add elements vào elements cha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không cho phép ngược lại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; Wildcard Type
+- Wildcardtypes are rather abstract, but they allow a library builder to make methods as ﬂexible as possible(linh hoạt nhất có thể).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generic programming fall into </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(chia)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 skill levels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- Basic level: Just use generic classes-typically without how and why they work
+- Learn enough about Java generics to solve problems 
+- Implement own genetic classes and methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deﬁning a Simple Generic Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- In other words, the generic class acts as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>factory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(nhà máy sản xuất) for ordinary(thông thường) classes.
+- It is common practice to use uppercase letters for type variables, and to keep them short. The Java library uses the variable E for the element type of a
+collection, K and V for key and value types of a table, and T (and the neighboring letters U and S, if necessary) for “any type at all.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Generic Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- Can deﬁne generic methods both inside ordinary classes and inside generic classes. Note that the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are inserted after the modiﬁers (public static, in our case) and before the return type.
+- String middle = ArrayAlg.&lt;String&gt;getMiddle("John", "Q.","Public");
+ The compiler has enough information to infer the method that you want. It matches the type of the arguments against the generic type T... and deduces that T must be String
+ =&gt; String middle = ArrayAlg.getMiddle("John", "Q.", "Public");
+- double middle = ArrayAlg.getMiddle(3.14, 1729, 0); =&gt; ERROR 
+  In a nutshell, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the compiler autoboxed the parameters into a Double and two Integer objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and then it tried to ﬁnd a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>common supertype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+of these classes. It actually found two: Number and the Comparable interface, which is itself a generic type. In this case, the remedy is to write all
+parameters as double values.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bounds for Type Variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- Sometimes, a class or a method needs to place </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restrictions(những giới hạn)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on type variables
+- Bound for the type variable: example (public static &lt;T </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comparable&gt; T min(T[] a) . . .)
+- The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extends keyword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was chosen because it is a reasonable approximation of the subtype concept, and the Java designers did not want to add a new keyword (such as sub) to the language.
 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A type variable or wildcard can have multiple bounds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. For example:(T extends Comparable &amp; Serializable)
+- As with Java inheritance, you can have as many interface supertypes as you like, but at most one of the bounds can be a class. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If you have a class as a bound, it must be the ﬁrst one in the bounds list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (Nếu có class trong bound thì class phải đứng đầu sau đó mới tới interface =&gt; Same Inheritance trong Java)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Generic Code and the Virtual Machine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>virtual machine does not have objects of generic types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all objects belong to ordinary classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+- Type Erasure: Is the process by which generic type information is removed by the Java compiler after it verifies the type safety of generic code. This means that at runtime, the generic type parameters are not available; instead, they are replaced with their bounds (or Object if no bounds are specified)</t>
+    </r>
   </si>
   <si>
     <t>Collections</t>
@@ -12069,10 +12583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -12212,24 +12726,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12243,10 +12749,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12258,6 +12795,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -12273,56 +12833,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <col